--- a/contest18_oubo.xlsx
+++ b/contest18_oubo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\ゲーム制作\Team Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
   <si>
     <t>応募用紙</t>
     <phoneticPr fontId="1"/>
@@ -833,6 +833,76 @@
     <rPh sb="27" eb="28">
       <t>ネン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SYUMAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅうまい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安原 陽樹</t>
+    <rPh sb="0" eb="2">
+      <t>ヤスハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハルキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やすはら はるき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部 桃加</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モモカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あべ ももか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上 瑞樹</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミズキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h1202415021@hiratagakuen.onmicrosoft.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-3852-1020</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネリケシエスケープ！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねりけしえすけーぷ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC(Windows)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いのうえ みずき</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1903,18 +1973,527 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1922,514 +2501,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2437,15 +2564,71 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2455,121 +2638,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2589,15 +2659,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3988,8 +4058,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:V20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4020,18 +4090,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4048,17 +4118,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="183"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="186"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -4083,26 +4153,26 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="187" t="s">
+      <c r="N4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="197"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4122,11 +4192,11 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="198"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
@@ -4136,657 +4206,661 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="203" t="s">
+      <c r="M6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="204" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="201">
+      <c r="H7" s="73"/>
+      <c r="I7" s="75">
         <v>3</v>
       </c>
-      <c r="J7" s="201"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="207" t="s">
+      <c r="M7" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="207"/>
-      <c r="O7" s="205" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="205"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="5"/>
       <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="209" t="s">
+      <c r="M9" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="163" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165" t="s">
+      <c r="F10" s="118"/>
+      <c r="G10" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="167" t="s">
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="168"/>
-      <c r="T10" s="173">
+      <c r="S10" s="122"/>
+      <c r="T10" s="127">
         <v>18</v>
       </c>
-      <c r="U10" s="173"/>
+      <c r="U10" s="127"/>
       <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="157"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="175" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="110"/>
-      <c r="U11" s="110"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="157"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="110"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
       <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="110"/>
-      <c r="U13" s="110"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
       <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="110"/>
-      <c r="U14" s="110"/>
-      <c r="V14" s="137" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="84" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="138"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="143" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="145"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="148"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="100"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="148"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="100"/>
     </row>
     <row r="20" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="150"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="151"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="103"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="117"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="154"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="148"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="148"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="100"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="100"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="140"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="151"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="103"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="124" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="146" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="25"/>
     </row>
     <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
       <c r="V27" s="20"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
       <c r="S28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="130" t="s">
+      <c r="T28" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="130"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="31"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="131" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="132"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="130" t="s">
+      <c r="T29" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="U29" s="130"/>
+      <c r="U29" s="149"/>
       <c r="V29" s="31"/>
     </row>
     <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="136"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
@@ -4794,208 +4868,214 @@
     </row>
     <row r="32" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:22" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="108"/>
+      <c r="F33" s="166" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="167"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="64"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="110"/>
-      <c r="Q34" s="110"/>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="111"/>
+      <c r="A34" s="160"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="168" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="169"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="64"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="110"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="110"/>
-      <c r="T35" s="110"/>
-      <c r="U35" s="110"/>
-      <c r="V35" s="111"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="169"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110"/>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110"/>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110"/>
-      <c r="V36" s="111"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="169"/>
     </row>
     <row r="37" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="112" t="s">
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="115" t="s">
+      <c r="F37" s="171"/>
+      <c r="G37" s="172">
+        <v>2</v>
+      </c>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="172"/>
+      <c r="U37" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="116"/>
+      <c r="V37" s="174"/>
     </row>
     <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="63"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="196"/>
       <c r="E38" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="70"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="70"/>
-      <c r="S38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="U38" s="70"/>
-      <c r="V38" s="71"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="197"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="197"/>
+      <c r="O38" s="197"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="197"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="197"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="198"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="64"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
-      <c r="Q39" s="73"/>
-      <c r="R39" s="73"/>
-      <c r="S39" s="73"/>
-      <c r="T39" s="73"/>
-      <c r="U39" s="73"/>
-      <c r="V39" s="74"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="199"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="76"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="76"/>
-      <c r="S40" s="76"/>
-      <c r="T40" s="76"/>
-      <c r="U40" s="76"/>
-      <c r="V40" s="77"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="200"/>
     </row>
     <row r="41" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
@@ -5054,25 +5134,27 @@
       <c r="B43" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
-      <c r="I43" s="73"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
+      <c r="C43" s="134" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
       <c r="V43" s="41" t="s">
         <v>9</v>
       </c>
@@ -5132,232 +5214,232 @@
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="80" t="s">
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="81"/>
-      <c r="I46" s="81"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="82"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="204"/>
+      <c r="U46" s="204"/>
+      <c r="V46" s="205"/>
     </row>
     <row r="47" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="83"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
-      <c r="T47" s="84"/>
-      <c r="U47" s="84"/>
-      <c r="V47" s="85"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="176"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="176"/>
+      <c r="P47" s="176"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
+      <c r="U47" s="176"/>
+      <c r="V47" s="177"/>
     </row>
     <row r="48" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="86"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
-      <c r="Q48" s="87"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="87"/>
-      <c r="U48" s="87"/>
-      <c r="V48" s="88"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="179"/>
+      <c r="N48" s="179"/>
+      <c r="O48" s="179"/>
+      <c r="P48" s="179"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="179"/>
+      <c r="T48" s="179"/>
+      <c r="U48" s="179"/>
+      <c r="V48" s="180"/>
     </row>
     <row r="49" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="99"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="99"/>
-      <c r="O49" s="99"/>
-      <c r="P49" s="99"/>
-      <c r="Q49" s="99"/>
-      <c r="R49" s="99"/>
-      <c r="S49" s="99"/>
-      <c r="T49" s="99"/>
-      <c r="U49" s="99"/>
-      <c r="V49" s="100"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="191"/>
+      <c r="O49" s="191"/>
+      <c r="P49" s="191"/>
+      <c r="Q49" s="191"/>
+      <c r="R49" s="191"/>
+      <c r="S49" s="191"/>
+      <c r="T49" s="191"/>
+      <c r="U49" s="191"/>
+      <c r="V49" s="192"/>
     </row>
     <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
-      <c r="T50" s="90"/>
-      <c r="U50" s="90"/>
-      <c r="V50" s="91"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="182"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="182"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="183"/>
     </row>
     <row r="51" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="96"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="96"/>
-      <c r="L51" s="96"/>
-      <c r="M51" s="96"/>
-      <c r="N51" s="96"/>
-      <c r="O51" s="96"/>
-      <c r="P51" s="96"/>
-      <c r="Q51" s="96"/>
-      <c r="R51" s="96"/>
-      <c r="S51" s="96"/>
-      <c r="T51" s="96"/>
-      <c r="U51" s="96"/>
-      <c r="V51" s="97"/>
+      <c r="B51" s="188"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="188"/>
+      <c r="O51" s="188"/>
+      <c r="P51" s="188"/>
+      <c r="Q51" s="188"/>
+      <c r="R51" s="188"/>
+      <c r="S51" s="188"/>
+      <c r="T51" s="188"/>
+      <c r="U51" s="188"/>
+      <c r="V51" s="189"/>
     </row>
     <row r="52" spans="1:22" s="47" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="102"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
-      <c r="R52" s="102"/>
-      <c r="S52" s="102"/>
-      <c r="T52" s="102"/>
-      <c r="U52" s="102"/>
-      <c r="V52" s="103"/>
+      <c r="A52" s="193"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="194"/>
+      <c r="O52" s="194"/>
+      <c r="P52" s="194"/>
+      <c r="Q52" s="194"/>
+      <c r="R52" s="194"/>
+      <c r="S52" s="194"/>
+      <c r="T52" s="194"/>
+      <c r="U52" s="194"/>
+      <c r="V52" s="195"/>
     </row>
     <row r="53" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="95" t="s">
+      <c r="A53" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="96"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="96"/>
-      <c r="K53" s="96"/>
-      <c r="L53" s="96"/>
-      <c r="M53" s="96"/>
-      <c r="N53" s="96"/>
-      <c r="O53" s="96"/>
-      <c r="P53" s="96"/>
-      <c r="Q53" s="96"/>
-      <c r="R53" s="96"/>
-      <c r="S53" s="96"/>
-      <c r="T53" s="96"/>
-      <c r="U53" s="96"/>
-      <c r="V53" s="97"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="188"/>
+      <c r="O53" s="188"/>
+      <c r="P53" s="188"/>
+      <c r="Q53" s="188"/>
+      <c r="R53" s="188"/>
+      <c r="S53" s="188"/>
+      <c r="T53" s="188"/>
+      <c r="U53" s="188"/>
+      <c r="V53" s="189"/>
     </row>
     <row r="54" spans="1:22" ht="270" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="92"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="93"/>
-      <c r="J54" s="93"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="93"/>
-      <c r="M54" s="93"/>
-      <c r="N54" s="93"/>
-      <c r="O54" s="93"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="93"/>
-      <c r="V54" s="94"/>
+      <c r="A54" s="184"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="185"/>
+      <c r="K54" s="185"/>
+      <c r="L54" s="185"/>
+      <c r="M54" s="185"/>
+      <c r="N54" s="185"/>
+      <c r="O54" s="185"/>
+      <c r="P54" s="185"/>
+      <c r="Q54" s="185"/>
+      <c r="R54" s="185"/>
+      <c r="S54" s="185"/>
+      <c r="T54" s="185"/>
+      <c r="U54" s="185"/>
+      <c r="V54" s="186"/>
     </row>
     <row r="55" spans="1:22" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
@@ -5383,30 +5465,30 @@
       <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
+      <c r="B56" s="207"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="207"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="207"/>
+      <c r="J56" s="207"/>
+      <c r="K56" s="207"/>
+      <c r="L56" s="207"/>
+      <c r="M56" s="207"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="207"/>
+      <c r="S56" s="207"/>
+      <c r="T56" s="207"/>
+      <c r="U56" s="207"/>
+      <c r="V56" s="207"/>
     </row>
     <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
@@ -5436,107 +5518,107 @@
       <c r="A58" s="50">
         <v>1</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
+      <c r="S58" s="156"/>
+      <c r="T58" s="156"/>
+      <c r="U58" s="156"/>
+      <c r="V58" s="156"/>
     </row>
     <row r="59" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="156"/>
+      <c r="U59" s="156"/>
+      <c r="V59" s="156"/>
     </row>
     <row r="60" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="51"/>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="156"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="156"/>
+      <c r="U60" s="156"/>
+      <c r="V60" s="156"/>
     </row>
     <row r="61" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="51"/>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
     </row>
     <row r="62" spans="1:22" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
@@ -5561,105 +5643,105 @@
       <c r="A63" s="39">
         <v>2</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
+      <c r="Q63" s="156"/>
+      <c r="R63" s="156"/>
+      <c r="S63" s="156"/>
+      <c r="T63" s="156"/>
+      <c r="U63" s="156"/>
+      <c r="V63" s="156"/>
     </row>
     <row r="64" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
+      <c r="P64" s="156"/>
+      <c r="Q64" s="156"/>
+      <c r="R64" s="156"/>
+      <c r="S64" s="156"/>
+      <c r="T64" s="156"/>
+      <c r="U64" s="156"/>
+      <c r="V64" s="156"/>
     </row>
     <row r="65" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="58"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="208"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="208"/>
+      <c r="L65" s="208"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="208"/>
+      <c r="O65" s="208"/>
+      <c r="P65" s="208"/>
+      <c r="Q65" s="208"/>
+      <c r="R65" s="208"/>
+      <c r="S65" s="208"/>
+      <c r="T65" s="208"/>
+      <c r="U65" s="208"/>
+      <c r="V65" s="208"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="156"/>
+      <c r="S66" s="156"/>
+      <c r="T66" s="156"/>
+      <c r="U66" s="156"/>
+      <c r="V66" s="156"/>
     </row>
     <row r="67" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:22" ht="21" x14ac:dyDescent="0.15">
@@ -5670,18 +5752,18 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+      <c r="L68" s="209"/>
+      <c r="M68" s="209"/>
       <c r="N68" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
+      <c r="O68" s="209"/>
+      <c r="P68" s="209"/>
       <c r="Q68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="209"/>
       <c r="T68" s="19" t="s">
         <v>28</v>
       </c>
@@ -5715,56 +5797,56 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
+      <c r="B71" s="207"/>
+      <c r="C71" s="207"/>
+      <c r="D71" s="207"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="207"/>
+      <c r="H71" s="207"/>
+      <c r="I71" s="207"/>
+      <c r="J71" s="207"/>
+      <c r="K71" s="207"/>
+      <c r="L71" s="207"/>
+      <c r="M71" s="207"/>
+      <c r="N71" s="207"/>
+      <c r="O71" s="207"/>
+      <c r="P71" s="207"/>
+      <c r="Q71" s="207"/>
+      <c r="R71" s="207"/>
+      <c r="S71" s="207"/>
+      <c r="T71" s="207"/>
+      <c r="U71" s="207"/>
+      <c r="V71" s="207"/>
     </row>
     <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="145"/>
+      <c r="G72" s="145"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="145"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="145"/>
+      <c r="O72" s="145"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="145"/>
+      <c r="R72" s="145"/>
+      <c r="S72" s="145"/>
+      <c r="T72" s="145"/>
+      <c r="U72" s="145"/>
+      <c r="V72" s="145"/>
     </row>
     <row r="73" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="21"/>
@@ -5772,43 +5854,43 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
+      <c r="L73" s="206"/>
+      <c r="M73" s="206"/>
       <c r="N73" s="39"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
+      <c r="O73" s="206"/>
+      <c r="P73" s="206"/>
       <c r="Q73" s="43"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
+      <c r="R73" s="206"/>
+      <c r="S73" s="206"/>
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
       <c r="V73" s="21"/>
     </row>
     <row r="74" spans="1:22" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="145"/>
+      <c r="G74" s="145"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="145"/>
+      <c r="J74" s="145"/>
+      <c r="K74" s="145"/>
+      <c r="L74" s="145"/>
+      <c r="M74" s="145"/>
+      <c r="N74" s="145"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="145"/>
+      <c r="Q74" s="145"/>
+      <c r="R74" s="145"/>
+      <c r="S74" s="145"/>
+      <c r="T74" s="145"/>
+      <c r="U74" s="145"/>
+      <c r="V74" s="145"/>
     </row>
     <row r="75" spans="1:22" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K75" s="43"/>
@@ -5816,39 +5898,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u+3ibe+sC76jx/Mrl9gKYsrsC9ziuJLQJCRQVLduvjQRPP4afwqh69YMzhRFm98X7f1XnMhXzjqG8YtjV62H7g==" saltValue="pLlIKOMaGGXf4xnSSi16wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="70">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="O7:U8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M9:U9"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:D20"/>
-    <mergeCell ref="E16:V20"/>
-    <mergeCell ref="A21:D25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:V21"/>
-    <mergeCell ref="E22:V25"/>
-    <mergeCell ref="A10:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="R10:S15"/>
-    <mergeCell ref="T10:U15"/>
-    <mergeCell ref="E11:Q15"/>
-    <mergeCell ref="A26:D31"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="G26:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="E29:F31"/>
-    <mergeCell ref="G29:R31"/>
-    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="B58:V58"/>
+    <mergeCell ref="B60:V60"/>
+    <mergeCell ref="B61:V61"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="B64:V64"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="H38:V38"/>
+    <mergeCell ref="E39:V40"/>
+    <mergeCell ref="C43:U43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:V46"/>
     <mergeCell ref="B63:V63"/>
     <mergeCell ref="A33:D37"/>
     <mergeCell ref="F33:V33"/>
@@ -5865,27 +5935,39 @@
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="A38:D40"/>
-    <mergeCell ref="H38:V38"/>
-    <mergeCell ref="E39:V40"/>
-    <mergeCell ref="C43:U43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:V46"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="B58:V58"/>
-    <mergeCell ref="B60:V60"/>
-    <mergeCell ref="B61:V61"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="B64:V64"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A26:D31"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="G29:R31"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:D20"/>
+    <mergeCell ref="E16:V20"/>
+    <mergeCell ref="A21:D25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:V21"/>
+    <mergeCell ref="E22:V25"/>
+    <mergeCell ref="A10:D15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:Q10"/>
+    <mergeCell ref="R10:S15"/>
+    <mergeCell ref="T10:U15"/>
+    <mergeCell ref="E11:Q15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="O7:U8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6089,7 +6171,7 @@
   <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:V9"/>
+      <selection activeCell="E19" sqref="E19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6120,18 +6202,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6148,17 +6230,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="183"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="186"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -6183,1849 +6265,1933 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="187" t="s">
+      <c r="N4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="218" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="243"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="212" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="213"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
-      <c r="Q6" s="237"/>
-      <c r="R6" s="237"/>
-      <c r="S6" s="237"/>
-      <c r="T6" s="237"/>
-      <c r="U6" s="237"/>
-      <c r="V6" s="244"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="214" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="216"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="247"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="219"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="247"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="218"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="219"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
-      <c r="M9" s="240"/>
-      <c r="N9" s="240"/>
-      <c r="O9" s="240"/>
-      <c r="P9" s="240"/>
-      <c r="Q9" s="240"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="240"/>
-      <c r="T9" s="240"/>
-      <c r="U9" s="240"/>
-      <c r="V9" s="248"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="222"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="218" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="220"/>
-      <c r="V10" s="243"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="212" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="213"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="244"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="214" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="216"/>
     </row>
     <row r="12" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="247"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="219"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="247"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="218"/>
+      <c r="R13" s="218"/>
+      <c r="S13" s="218"/>
+      <c r="T13" s="218"/>
+      <c r="U13" s="218"/>
+      <c r="V13" s="219"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="194"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
-      <c r="N14" s="240"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="240"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="240"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="240"/>
-      <c r="U14" s="240"/>
-      <c r="V14" s="248"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="221"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="222"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="218" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="222" t="s">
+      <c r="F15" s="211"/>
+      <c r="G15" s="212" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="210"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="228"/>
-      <c r="T15" s="228"/>
-      <c r="U15" s="228"/>
-      <c r="V15" s="229"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="235"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="191"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="236"/>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="213"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="214"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="231"/>
-      <c r="T16" s="231"/>
-      <c r="U16" s="231"/>
-      <c r="V16" s="232"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="214" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="242"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="228"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="229"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+      <c r="V16" s="238"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="194"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="225"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="233"/>
-      <c r="S17" s="234"/>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="235"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="239"/>
+      <c r="S17" s="240"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
+      <c r="V17" s="241"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="218" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="222" t="s">
+      <c r="F18" s="211"/>
+      <c r="G18" s="212" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="210"/>
-      <c r="P18" s="210"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="228"/>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="229"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="234"/>
+      <c r="T18" s="234"/>
+      <c r="U18" s="234"/>
+      <c r="V18" s="235"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="191"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="236"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="223"/>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="232"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="214" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="229"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="237"/>
+      <c r="T19" s="237"/>
+      <c r="U19" s="237"/>
+      <c r="V19" s="238"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="194"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="240"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="234"/>
-      <c r="T20" s="234"/>
-      <c r="U20" s="234"/>
-      <c r="V20" s="235"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="221"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="232"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="240"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="241"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="218" t="s">
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="219"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="222" t="s">
+      <c r="F21" s="211"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="212"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="210"/>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="228"/>
-      <c r="T21" s="228"/>
-      <c r="U21" s="228"/>
-      <c r="V21" s="229"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="234"/>
+      <c r="T21" s="234"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="235"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="212"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="238"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="214"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="232"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="229"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="237"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
+      <c r="V22" s="238"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="240"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="233"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="235"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="239"/>
+      <c r="S23" s="240"/>
+      <c r="T23" s="240"/>
+      <c r="U23" s="240"/>
+      <c r="V23" s="241"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="210"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="218" t="s">
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="219"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="222" t="s">
+      <c r="F24" s="211"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="210"/>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="228"/>
-      <c r="T24" s="228"/>
-      <c r="U24" s="228"/>
-      <c r="V24" s="229"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="233"/>
+      <c r="S24" s="234"/>
+      <c r="T24" s="234"/>
+      <c r="U24" s="234"/>
+      <c r="V24" s="235"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="212"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="223"/>
-      <c r="O25" s="213"/>
-      <c r="P25" s="213"/>
-      <c r="Q25" s="214"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="232"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="227"/>
+      <c r="O25" s="228"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="229"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="238"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="215"/>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="225"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="233"/>
-      <c r="S26" s="234"/>
-      <c r="T26" s="234"/>
-      <c r="U26" s="234"/>
-      <c r="V26" s="235"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="239"/>
+      <c r="S26" s="240"/>
+      <c r="T26" s="240"/>
+      <c r="U26" s="240"/>
+      <c r="V26" s="241"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="218" t="s">
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="219"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222" t="s">
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="229"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="234"/>
+      <c r="U27" s="234"/>
+      <c r="V27" s="235"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="212"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="213"/>
-      <c r="P28" s="213"/>
-      <c r="Q28" s="214"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="232"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="236"/>
+      <c r="S28" s="237"/>
+      <c r="T28" s="237"/>
+      <c r="U28" s="237"/>
+      <c r="V28" s="238"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="233"/>
-      <c r="S29" s="234"/>
-      <c r="T29" s="234"/>
-      <c r="U29" s="234"/>
-      <c r="V29" s="235"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="221"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="243"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="239"/>
+      <c r="S29" s="240"/>
+      <c r="T29" s="240"/>
+      <c r="U29" s="240"/>
+      <c r="V29" s="241"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="218" t="s">
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="222" t="s">
+      <c r="F30" s="211"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="210"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="228"/>
-      <c r="T30" s="228"/>
-      <c r="U30" s="228"/>
-      <c r="V30" s="229"/>
+      <c r="O30" s="225"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="233"/>
+      <c r="S30" s="234"/>
+      <c r="T30" s="234"/>
+      <c r="U30" s="234"/>
+      <c r="V30" s="235"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="212"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="238"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="214"/>
-      <c r="R31" s="230"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="232"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="242"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="236"/>
+      <c r="S31" s="237"/>
+      <c r="T31" s="237"/>
+      <c r="U31" s="237"/>
+      <c r="V31" s="238"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="215"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="240"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="233"/>
-      <c r="S32" s="234"/>
-      <c r="T32" s="234"/>
-      <c r="U32" s="234"/>
-      <c r="V32" s="235"/>
+      <c r="A32" s="245"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="243"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="239"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="241"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="218" t="s">
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="219"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="222" t="s">
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="229"/>
+      <c r="O33" s="225"/>
+      <c r="P33" s="225"/>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="234"/>
+      <c r="T33" s="234"/>
+      <c r="U33" s="234"/>
+      <c r="V33" s="235"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="212"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="236"/>
-      <c r="F34" s="237"/>
-      <c r="G34" s="237"/>
-      <c r="H34" s="237"/>
-      <c r="I34" s="237"/>
-      <c r="J34" s="237"/>
-      <c r="K34" s="237"/>
-      <c r="L34" s="237"/>
-      <c r="M34" s="238"/>
-      <c r="N34" s="223"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="214"/>
-      <c r="R34" s="230"/>
-      <c r="S34" s="231"/>
-      <c r="T34" s="231"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="232"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="242"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="229"/>
+      <c r="R34" s="236"/>
+      <c r="S34" s="237"/>
+      <c r="T34" s="237"/>
+      <c r="U34" s="237"/>
+      <c r="V34" s="238"/>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="215"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="239"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="240"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="240"/>
-      <c r="M35" s="241"/>
-      <c r="N35" s="224"/>
-      <c r="O35" s="225"/>
-      <c r="P35" s="225"/>
-      <c r="Q35" s="226"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="234"/>
-      <c r="T35" s="234"/>
-      <c r="U35" s="234"/>
-      <c r="V35" s="235"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="221"/>
+      <c r="J35" s="221"/>
+      <c r="K35" s="221"/>
+      <c r="L35" s="221"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="232"/>
+      <c r="R35" s="239"/>
+      <c r="S35" s="240"/>
+      <c r="T35" s="240"/>
+      <c r="U35" s="240"/>
+      <c r="V35" s="241"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="218" t="s">
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="219"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="220"/>
-      <c r="M36" s="221"/>
-      <c r="N36" s="222" t="s">
+      <c r="F36" s="211"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="212"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="227"/>
-      <c r="S36" s="228"/>
-      <c r="T36" s="228"/>
-      <c r="U36" s="228"/>
-      <c r="V36" s="229"/>
+      <c r="O36" s="225"/>
+      <c r="P36" s="225"/>
+      <c r="Q36" s="226"/>
+      <c r="R36" s="233"/>
+      <c r="S36" s="234"/>
+      <c r="T36" s="234"/>
+      <c r="U36" s="234"/>
+      <c r="V36" s="235"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="212"/>
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="236"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="237"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="238"/>
-      <c r="N37" s="223"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="214"/>
-      <c r="R37" s="230"/>
-      <c r="S37" s="231"/>
-      <c r="T37" s="231"/>
-      <c r="U37" s="231"/>
-      <c r="V37" s="232"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="242"/>
+      <c r="N37" s="227"/>
+      <c r="O37" s="228"/>
+      <c r="P37" s="228"/>
+      <c r="Q37" s="229"/>
+      <c r="R37" s="236"/>
+      <c r="S37" s="237"/>
+      <c r="T37" s="237"/>
+      <c r="U37" s="237"/>
+      <c r="V37" s="238"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="215"/>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="239"/>
-      <c r="F38" s="240"/>
-      <c r="G38" s="240"/>
-      <c r="H38" s="240"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="240"/>
-      <c r="L38" s="240"/>
-      <c r="M38" s="241"/>
-      <c r="N38" s="224"/>
-      <c r="O38" s="225"/>
-      <c r="P38" s="225"/>
-      <c r="Q38" s="226"/>
-      <c r="R38" s="233"/>
-      <c r="S38" s="234"/>
-      <c r="T38" s="234"/>
-      <c r="U38" s="234"/>
-      <c r="V38" s="235"/>
+      <c r="A38" s="245"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="231"/>
+      <c r="P38" s="231"/>
+      <c r="Q38" s="232"/>
+      <c r="R38" s="239"/>
+      <c r="S38" s="240"/>
+      <c r="T38" s="240"/>
+      <c r="U38" s="240"/>
+      <c r="V38" s="241"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="211"/>
-      <c r="E39" s="218" t="s">
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="219"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="222" t="s">
+      <c r="F39" s="211"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="212"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="211"/>
-      <c r="R39" s="227"/>
-      <c r="S39" s="228"/>
-      <c r="T39" s="228"/>
-      <c r="U39" s="228"/>
-      <c r="V39" s="229"/>
+      <c r="O39" s="225"/>
+      <c r="P39" s="225"/>
+      <c r="Q39" s="226"/>
+      <c r="R39" s="233"/>
+      <c r="S39" s="234"/>
+      <c r="T39" s="234"/>
+      <c r="U39" s="234"/>
+      <c r="V39" s="235"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="212"/>
-      <c r="B40" s="213"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="236"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="237"/>
-      <c r="K40" s="237"/>
-      <c r="L40" s="237"/>
-      <c r="M40" s="238"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
-      <c r="Q40" s="214"/>
-      <c r="R40" s="230"/>
-      <c r="S40" s="231"/>
-      <c r="T40" s="231"/>
-      <c r="U40" s="231"/>
-      <c r="V40" s="232"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="242"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="228"/>
+      <c r="P40" s="228"/>
+      <c r="Q40" s="229"/>
+      <c r="R40" s="236"/>
+      <c r="S40" s="237"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="237"/>
+      <c r="V40" s="238"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="215"/>
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="241"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="225"/>
-      <c r="P41" s="225"/>
-      <c r="Q41" s="226"/>
-      <c r="R41" s="233"/>
-      <c r="S41" s="234"/>
-      <c r="T41" s="234"/>
-      <c r="U41" s="234"/>
-      <c r="V41" s="235"/>
+      <c r="A41" s="245"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="243"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="231"/>
+      <c r="P41" s="231"/>
+      <c r="Q41" s="232"/>
+      <c r="R41" s="239"/>
+      <c r="S41" s="240"/>
+      <c r="T41" s="240"/>
+      <c r="U41" s="240"/>
+      <c r="V41" s="241"/>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="210"/>
-      <c r="C42" s="210"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="218" t="s">
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="219"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
-      <c r="K42" s="220"/>
-      <c r="L42" s="220"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="222" t="s">
+      <c r="F42" s="211"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="210"/>
-      <c r="P42" s="210"/>
-      <c r="Q42" s="211"/>
-      <c r="R42" s="227"/>
-      <c r="S42" s="228"/>
-      <c r="T42" s="228"/>
-      <c r="U42" s="228"/>
-      <c r="V42" s="229"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="226"/>
+      <c r="R42" s="233"/>
+      <c r="S42" s="234"/>
+      <c r="T42" s="234"/>
+      <c r="U42" s="234"/>
+      <c r="V42" s="235"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="212"/>
-      <c r="B43" s="213"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="237"/>
-      <c r="G43" s="237"/>
-      <c r="H43" s="237"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="237"/>
-      <c r="K43" s="237"/>
-      <c r="L43" s="237"/>
-      <c r="M43" s="238"/>
-      <c r="N43" s="223"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213"/>
-      <c r="Q43" s="214"/>
-      <c r="R43" s="230"/>
-      <c r="S43" s="231"/>
-      <c r="T43" s="231"/>
-      <c r="U43" s="231"/>
-      <c r="V43" s="232"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="242"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="228"/>
+      <c r="P43" s="228"/>
+      <c r="Q43" s="229"/>
+      <c r="R43" s="236"/>
+      <c r="S43" s="237"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="237"/>
+      <c r="V43" s="238"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="215"/>
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="241"/>
-      <c r="N44" s="224"/>
-      <c r="O44" s="225"/>
-      <c r="P44" s="225"/>
-      <c r="Q44" s="226"/>
-      <c r="R44" s="233"/>
-      <c r="S44" s="234"/>
-      <c r="T44" s="234"/>
-      <c r="U44" s="234"/>
-      <c r="V44" s="235"/>
+      <c r="A44" s="245"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="243"/>
+      <c r="N44" s="230"/>
+      <c r="O44" s="231"/>
+      <c r="P44" s="231"/>
+      <c r="Q44" s="232"/>
+      <c r="R44" s="239"/>
+      <c r="S44" s="240"/>
+      <c r="T44" s="240"/>
+      <c r="U44" s="240"/>
+      <c r="V44" s="241"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="211"/>
-      <c r="E45" s="218" t="s">
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="219"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="220"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="222" t="s">
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O45" s="210"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="211"/>
-      <c r="R45" s="227"/>
-      <c r="S45" s="228"/>
-      <c r="T45" s="228"/>
-      <c r="U45" s="228"/>
-      <c r="V45" s="229"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="226"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="234"/>
+      <c r="T45" s="234"/>
+      <c r="U45" s="234"/>
+      <c r="V45" s="235"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="212"/>
-      <c r="B46" s="213"/>
-      <c r="C46" s="213"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="237"/>
-      <c r="G46" s="237"/>
-      <c r="H46" s="237"/>
-      <c r="I46" s="237"/>
-      <c r="J46" s="237"/>
-      <c r="K46" s="237"/>
-      <c r="L46" s="237"/>
-      <c r="M46" s="238"/>
-      <c r="N46" s="223"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
-      <c r="Q46" s="214"/>
-      <c r="R46" s="230"/>
-      <c r="S46" s="231"/>
-      <c r="T46" s="231"/>
-      <c r="U46" s="231"/>
-      <c r="V46" s="232"/>
+      <c r="A46" s="244"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="242"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="228"/>
+      <c r="P46" s="228"/>
+      <c r="Q46" s="229"/>
+      <c r="R46" s="236"/>
+      <c r="S46" s="237"/>
+      <c r="T46" s="237"/>
+      <c r="U46" s="237"/>
+      <c r="V46" s="238"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="215"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="240"/>
-      <c r="I47" s="240"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="240"/>
-      <c r="L47" s="240"/>
-      <c r="M47" s="241"/>
-      <c r="N47" s="224"/>
-      <c r="O47" s="225"/>
-      <c r="P47" s="225"/>
-      <c r="Q47" s="226"/>
-      <c r="R47" s="233"/>
-      <c r="S47" s="234"/>
-      <c r="T47" s="234"/>
-      <c r="U47" s="234"/>
-      <c r="V47" s="235"/>
+      <c r="A47" s="245"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="247"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="221"/>
+      <c r="I47" s="221"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="221"/>
+      <c r="L47" s="221"/>
+      <c r="M47" s="243"/>
+      <c r="N47" s="230"/>
+      <c r="O47" s="231"/>
+      <c r="P47" s="231"/>
+      <c r="Q47" s="232"/>
+      <c r="R47" s="239"/>
+      <c r="S47" s="240"/>
+      <c r="T47" s="240"/>
+      <c r="U47" s="240"/>
+      <c r="V47" s="241"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="188" t="s">
+      <c r="A48" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="211"/>
-      <c r="E48" s="218" t="s">
+      <c r="B48" s="225"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="219"/>
-      <c r="G48" s="220"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="220"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="220"/>
-      <c r="M48" s="221"/>
-      <c r="N48" s="222" t="s">
+      <c r="F48" s="211"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="212"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="210"/>
-      <c r="P48" s="210"/>
-      <c r="Q48" s="211"/>
-      <c r="R48" s="227"/>
-      <c r="S48" s="228"/>
-      <c r="T48" s="228"/>
-      <c r="U48" s="228"/>
-      <c r="V48" s="229"/>
+      <c r="O48" s="225"/>
+      <c r="P48" s="225"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="233"/>
+      <c r="S48" s="234"/>
+      <c r="T48" s="234"/>
+      <c r="U48" s="234"/>
+      <c r="V48" s="235"/>
     </row>
     <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="212"/>
-      <c r="B49" s="213"/>
-      <c r="C49" s="213"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="237"/>
-      <c r="M49" s="238"/>
-      <c r="N49" s="223"/>
-      <c r="O49" s="213"/>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="214"/>
-      <c r="R49" s="230"/>
-      <c r="S49" s="231"/>
-      <c r="T49" s="231"/>
-      <c r="U49" s="231"/>
-      <c r="V49" s="232"/>
+      <c r="A49" s="244"/>
+      <c r="B49" s="228"/>
+      <c r="C49" s="228"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="215"/>
+      <c r="G49" s="215"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="242"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="228"/>
+      <c r="P49" s="228"/>
+      <c r="Q49" s="229"/>
+      <c r="R49" s="236"/>
+      <c r="S49" s="237"/>
+      <c r="T49" s="237"/>
+      <c r="U49" s="237"/>
+      <c r="V49" s="238"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="215"/>
-      <c r="B50" s="216"/>
-      <c r="C50" s="216"/>
-      <c r="D50" s="217"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="240"/>
-      <c r="G50" s="240"/>
-      <c r="H50" s="240"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="240"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="241"/>
-      <c r="N50" s="224"/>
-      <c r="O50" s="225"/>
-      <c r="P50" s="225"/>
-      <c r="Q50" s="226"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="234"/>
-      <c r="T50" s="234"/>
-      <c r="U50" s="234"/>
-      <c r="V50" s="235"/>
+      <c r="A50" s="245"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="221"/>
+      <c r="I50" s="221"/>
+      <c r="J50" s="221"/>
+      <c r="K50" s="221"/>
+      <c r="L50" s="221"/>
+      <c r="M50" s="243"/>
+      <c r="N50" s="230"/>
+      <c r="O50" s="231"/>
+      <c r="P50" s="231"/>
+      <c r="Q50" s="232"/>
+      <c r="R50" s="239"/>
+      <c r="S50" s="240"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="240"/>
+      <c r="V50" s="241"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="210"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="218" t="s">
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="219"/>
-      <c r="G51" s="220"/>
-      <c r="H51" s="220"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="220"/>
-      <c r="M51" s="221"/>
-      <c r="N51" s="222" t="s">
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="212"/>
+      <c r="K51" s="212"/>
+      <c r="L51" s="212"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="210"/>
-      <c r="P51" s="210"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="228"/>
-      <c r="T51" s="228"/>
-      <c r="U51" s="228"/>
-      <c r="V51" s="229"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="225"/>
+      <c r="Q51" s="226"/>
+      <c r="R51" s="233"/>
+      <c r="S51" s="234"/>
+      <c r="T51" s="234"/>
+      <c r="U51" s="234"/>
+      <c r="V51" s="235"/>
     </row>
     <row r="52" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="212"/>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="237"/>
-      <c r="G52" s="237"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="237"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="237"/>
-      <c r="M52" s="238"/>
-      <c r="N52" s="223"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="230"/>
-      <c r="S52" s="231"/>
-      <c r="T52" s="231"/>
-      <c r="U52" s="231"/>
-      <c r="V52" s="232"/>
+      <c r="A52" s="244"/>
+      <c r="B52" s="228"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="242"/>
+      <c r="N52" s="227"/>
+      <c r="O52" s="228"/>
+      <c r="P52" s="228"/>
+      <c r="Q52" s="229"/>
+      <c r="R52" s="236"/>
+      <c r="S52" s="237"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="237"/>
+      <c r="V52" s="238"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="215"/>
-      <c r="B53" s="216"/>
-      <c r="C53" s="216"/>
-      <c r="D53" s="217"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="240"/>
-      <c r="G53" s="240"/>
-      <c r="H53" s="240"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="240"/>
-      <c r="K53" s="240"/>
-      <c r="L53" s="240"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="224"/>
-      <c r="O53" s="225"/>
-      <c r="P53" s="225"/>
-      <c r="Q53" s="226"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="234"/>
-      <c r="T53" s="234"/>
-      <c r="U53" s="234"/>
-      <c r="V53" s="235"/>
+      <c r="A53" s="245"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
+      <c r="E53" s="220"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="243"/>
+      <c r="N53" s="230"/>
+      <c r="O53" s="231"/>
+      <c r="P53" s="231"/>
+      <c r="Q53" s="232"/>
+      <c r="R53" s="239"/>
+      <c r="S53" s="240"/>
+      <c r="T53" s="240"/>
+      <c r="U53" s="240"/>
+      <c r="V53" s="241"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="188" t="s">
+      <c r="A54" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="210"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="218" t="s">
+      <c r="B54" s="225"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="226"/>
+      <c r="E54" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="219"/>
-      <c r="G54" s="220"/>
-      <c r="H54" s="220"/>
-      <c r="I54" s="220"/>
-      <c r="J54" s="220"/>
-      <c r="K54" s="220"/>
-      <c r="L54" s="220"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="222" t="s">
+      <c r="F54" s="211"/>
+      <c r="G54" s="212"/>
+      <c r="H54" s="212"/>
+      <c r="I54" s="212"/>
+      <c r="J54" s="212"/>
+      <c r="K54" s="212"/>
+      <c r="L54" s="212"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O54" s="210"/>
-      <c r="P54" s="210"/>
-      <c r="Q54" s="211"/>
-      <c r="R54" s="227"/>
-      <c r="S54" s="228"/>
-      <c r="T54" s="228"/>
-      <c r="U54" s="228"/>
-      <c r="V54" s="229"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="226"/>
+      <c r="R54" s="233"/>
+      <c r="S54" s="234"/>
+      <c r="T54" s="234"/>
+      <c r="U54" s="234"/>
+      <c r="V54" s="235"/>
     </row>
     <row r="55" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="212"/>
-      <c r="B55" s="213"/>
-      <c r="C55" s="213"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="236"/>
-      <c r="F55" s="237"/>
-      <c r="G55" s="237"/>
-      <c r="H55" s="237"/>
-      <c r="I55" s="237"/>
-      <c r="J55" s="237"/>
-      <c r="K55" s="237"/>
-      <c r="L55" s="237"/>
-      <c r="M55" s="238"/>
-      <c r="N55" s="223"/>
-      <c r="O55" s="213"/>
-      <c r="P55" s="213"/>
-      <c r="Q55" s="214"/>
-      <c r="R55" s="230"/>
-      <c r="S55" s="231"/>
-      <c r="T55" s="231"/>
-      <c r="U55" s="231"/>
-      <c r="V55" s="232"/>
+      <c r="A55" s="244"/>
+      <c r="B55" s="228"/>
+      <c r="C55" s="228"/>
+      <c r="D55" s="229"/>
+      <c r="E55" s="214"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="242"/>
+      <c r="N55" s="227"/>
+      <c r="O55" s="228"/>
+      <c r="P55" s="228"/>
+      <c r="Q55" s="229"/>
+      <c r="R55" s="236"/>
+      <c r="S55" s="237"/>
+      <c r="T55" s="237"/>
+      <c r="U55" s="237"/>
+      <c r="V55" s="238"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="215"/>
-      <c r="B56" s="216"/>
-      <c r="C56" s="216"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
-      <c r="L56" s="240"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="224"/>
-      <c r="O56" s="225"/>
-      <c r="P56" s="225"/>
-      <c r="Q56" s="226"/>
-      <c r="R56" s="233"/>
-      <c r="S56" s="234"/>
-      <c r="T56" s="234"/>
-      <c r="U56" s="234"/>
-      <c r="V56" s="235"/>
+      <c r="A56" s="245"/>
+      <c r="B56" s="246"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="221"/>
+      <c r="J56" s="221"/>
+      <c r="K56" s="221"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="243"/>
+      <c r="N56" s="230"/>
+      <c r="O56" s="231"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="232"/>
+      <c r="R56" s="239"/>
+      <c r="S56" s="240"/>
+      <c r="T56" s="240"/>
+      <c r="U56" s="240"/>
+      <c r="V56" s="241"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="188" t="s">
+      <c r="A57" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="210"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="211"/>
-      <c r="E57" s="218" t="s">
+      <c r="B57" s="225"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="219"/>
-      <c r="G57" s="220"/>
-      <c r="H57" s="220"/>
-      <c r="I57" s="220"/>
-      <c r="J57" s="220"/>
-      <c r="K57" s="220"/>
-      <c r="L57" s="220"/>
-      <c r="M57" s="221"/>
-      <c r="N57" s="222" t="s">
+      <c r="F57" s="211"/>
+      <c r="G57" s="212"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="212"/>
+      <c r="J57" s="212"/>
+      <c r="K57" s="212"/>
+      <c r="L57" s="212"/>
+      <c r="M57" s="223"/>
+      <c r="N57" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="210"/>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="211"/>
-      <c r="R57" s="227"/>
-      <c r="S57" s="228"/>
-      <c r="T57" s="228"/>
-      <c r="U57" s="228"/>
-      <c r="V57" s="229"/>
+      <c r="O57" s="225"/>
+      <c r="P57" s="225"/>
+      <c r="Q57" s="226"/>
+      <c r="R57" s="233"/>
+      <c r="S57" s="234"/>
+      <c r="T57" s="234"/>
+      <c r="U57" s="234"/>
+      <c r="V57" s="235"/>
     </row>
     <row r="58" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="212"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
-      <c r="D58" s="214"/>
-      <c r="E58" s="236"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="237"/>
-      <c r="K58" s="237"/>
-      <c r="L58" s="237"/>
-      <c r="M58" s="238"/>
-      <c r="N58" s="223"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="214"/>
-      <c r="R58" s="230"/>
-      <c r="S58" s="231"/>
-      <c r="T58" s="231"/>
-      <c r="U58" s="231"/>
-      <c r="V58" s="232"/>
+      <c r="A58" s="244"/>
+      <c r="B58" s="228"/>
+      <c r="C58" s="228"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="214"/>
+      <c r="F58" s="215"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="242"/>
+      <c r="N58" s="227"/>
+      <c r="O58" s="228"/>
+      <c r="P58" s="228"/>
+      <c r="Q58" s="229"/>
+      <c r="R58" s="236"/>
+      <c r="S58" s="237"/>
+      <c r="T58" s="237"/>
+      <c r="U58" s="237"/>
+      <c r="V58" s="238"/>
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="215"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="240"/>
-      <c r="G59" s="240"/>
-      <c r="H59" s="240"/>
-      <c r="I59" s="240"/>
-      <c r="J59" s="240"/>
-      <c r="K59" s="240"/>
-      <c r="L59" s="240"/>
-      <c r="M59" s="241"/>
-      <c r="N59" s="224"/>
-      <c r="O59" s="225"/>
-      <c r="P59" s="225"/>
-      <c r="Q59" s="226"/>
-      <c r="R59" s="233"/>
-      <c r="S59" s="234"/>
-      <c r="T59" s="234"/>
-      <c r="U59" s="234"/>
-      <c r="V59" s="235"/>
+      <c r="A59" s="245"/>
+      <c r="B59" s="246"/>
+      <c r="C59" s="246"/>
+      <c r="D59" s="247"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221"/>
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
+      <c r="K59" s="221"/>
+      <c r="L59" s="221"/>
+      <c r="M59" s="243"/>
+      <c r="N59" s="230"/>
+      <c r="O59" s="231"/>
+      <c r="P59" s="231"/>
+      <c r="Q59" s="232"/>
+      <c r="R59" s="239"/>
+      <c r="S59" s="240"/>
+      <c r="T59" s="240"/>
+      <c r="U59" s="240"/>
+      <c r="V59" s="241"/>
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="188" t="s">
+      <c r="A60" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="210"/>
-      <c r="C60" s="210"/>
-      <c r="D60" s="211"/>
-      <c r="E60" s="218" t="s">
+      <c r="B60" s="225"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="219"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="220"/>
-      <c r="K60" s="220"/>
-      <c r="L60" s="220"/>
-      <c r="M60" s="221"/>
-      <c r="N60" s="222" t="s">
+      <c r="F60" s="211"/>
+      <c r="G60" s="212"/>
+      <c r="H60" s="212"/>
+      <c r="I60" s="212"/>
+      <c r="J60" s="212"/>
+      <c r="K60" s="212"/>
+      <c r="L60" s="212"/>
+      <c r="M60" s="223"/>
+      <c r="N60" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O60" s="210"/>
-      <c r="P60" s="210"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="227"/>
-      <c r="S60" s="228"/>
-      <c r="T60" s="228"/>
-      <c r="U60" s="228"/>
-      <c r="V60" s="229"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="226"/>
+      <c r="R60" s="233"/>
+      <c r="S60" s="234"/>
+      <c r="T60" s="234"/>
+      <c r="U60" s="234"/>
+      <c r="V60" s="235"/>
     </row>
     <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="212"/>
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="214"/>
-      <c r="E61" s="236"/>
-      <c r="F61" s="237"/>
-      <c r="G61" s="237"/>
-      <c r="H61" s="237"/>
-      <c r="I61" s="237"/>
-      <c r="J61" s="237"/>
-      <c r="K61" s="237"/>
-      <c r="L61" s="237"/>
-      <c r="M61" s="238"/>
-      <c r="N61" s="223"/>
-      <c r="O61" s="213"/>
-      <c r="P61" s="213"/>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="230"/>
-      <c r="S61" s="231"/>
-      <c r="T61" s="231"/>
-      <c r="U61" s="231"/>
-      <c r="V61" s="232"/>
+      <c r="A61" s="244"/>
+      <c r="B61" s="228"/>
+      <c r="C61" s="228"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="214"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="242"/>
+      <c r="N61" s="227"/>
+      <c r="O61" s="228"/>
+      <c r="P61" s="228"/>
+      <c r="Q61" s="229"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
+      <c r="T61" s="237"/>
+      <c r="U61" s="237"/>
+      <c r="V61" s="238"/>
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="215"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="239"/>
-      <c r="F62" s="240"/>
-      <c r="G62" s="240"/>
-      <c r="H62" s="240"/>
-      <c r="I62" s="240"/>
-      <c r="J62" s="240"/>
-      <c r="K62" s="240"/>
-      <c r="L62" s="240"/>
-      <c r="M62" s="241"/>
-      <c r="N62" s="224"/>
-      <c r="O62" s="225"/>
-      <c r="P62" s="225"/>
-      <c r="Q62" s="226"/>
-      <c r="R62" s="233"/>
-      <c r="S62" s="234"/>
-      <c r="T62" s="234"/>
-      <c r="U62" s="234"/>
-      <c r="V62" s="235"/>
+      <c r="A62" s="245"/>
+      <c r="B62" s="246"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="247"/>
+      <c r="E62" s="220"/>
+      <c r="F62" s="221"/>
+      <c r="G62" s="221"/>
+      <c r="H62" s="221"/>
+      <c r="I62" s="221"/>
+      <c r="J62" s="221"/>
+      <c r="K62" s="221"/>
+      <c r="L62" s="221"/>
+      <c r="M62" s="243"/>
+      <c r="N62" s="230"/>
+      <c r="O62" s="231"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="232"/>
+      <c r="R62" s="239"/>
+      <c r="S62" s="240"/>
+      <c r="T62" s="240"/>
+      <c r="U62" s="240"/>
+      <c r="V62" s="241"/>
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="210"/>
-      <c r="C63" s="210"/>
-      <c r="D63" s="211"/>
-      <c r="E63" s="218" t="s">
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="219"/>
-      <c r="G63" s="220"/>
-      <c r="H63" s="220"/>
-      <c r="I63" s="220"/>
-      <c r="J63" s="220"/>
-      <c r="K63" s="220"/>
-      <c r="L63" s="220"/>
-      <c r="M63" s="221"/>
-      <c r="N63" s="222" t="s">
+      <c r="F63" s="211"/>
+      <c r="G63" s="212"/>
+      <c r="H63" s="212"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="212"/>
+      <c r="K63" s="212"/>
+      <c r="L63" s="212"/>
+      <c r="M63" s="223"/>
+      <c r="N63" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O63" s="210"/>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="227"/>
-      <c r="S63" s="228"/>
-      <c r="T63" s="228"/>
-      <c r="U63" s="228"/>
-      <c r="V63" s="229"/>
+      <c r="O63" s="225"/>
+      <c r="P63" s="225"/>
+      <c r="Q63" s="226"/>
+      <c r="R63" s="233"/>
+      <c r="S63" s="234"/>
+      <c r="T63" s="234"/>
+      <c r="U63" s="234"/>
+      <c r="V63" s="235"/>
     </row>
     <row r="64" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="212"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="214"/>
-      <c r="E64" s="236"/>
-      <c r="F64" s="237"/>
-      <c r="G64" s="237"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="237"/>
-      <c r="J64" s="237"/>
-      <c r="K64" s="237"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="238"/>
-      <c r="N64" s="223"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="230"/>
-      <c r="S64" s="231"/>
-      <c r="T64" s="231"/>
-      <c r="U64" s="231"/>
-      <c r="V64" s="232"/>
+      <c r="A64" s="244"/>
+      <c r="B64" s="228"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="242"/>
+      <c r="N64" s="227"/>
+      <c r="O64" s="228"/>
+      <c r="P64" s="228"/>
+      <c r="Q64" s="229"/>
+      <c r="R64" s="236"/>
+      <c r="S64" s="237"/>
+      <c r="T64" s="237"/>
+      <c r="U64" s="237"/>
+      <c r="V64" s="238"/>
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="215"/>
-      <c r="B65" s="216"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="217"/>
-      <c r="E65" s="239"/>
-      <c r="F65" s="240"/>
-      <c r="G65" s="240"/>
-      <c r="H65" s="240"/>
-      <c r="I65" s="240"/>
-      <c r="J65" s="240"/>
-      <c r="K65" s="240"/>
-      <c r="L65" s="240"/>
-      <c r="M65" s="241"/>
-      <c r="N65" s="224"/>
-      <c r="O65" s="225"/>
-      <c r="P65" s="225"/>
-      <c r="Q65" s="226"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="235"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="246"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="247"/>
+      <c r="E65" s="220"/>
+      <c r="F65" s="221"/>
+      <c r="G65" s="221"/>
+      <c r="H65" s="221"/>
+      <c r="I65" s="221"/>
+      <c r="J65" s="221"/>
+      <c r="K65" s="221"/>
+      <c r="L65" s="221"/>
+      <c r="M65" s="243"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="231"/>
+      <c r="P65" s="231"/>
+      <c r="Q65" s="232"/>
+      <c r="R65" s="239"/>
+      <c r="S65" s="240"/>
+      <c r="T65" s="240"/>
+      <c r="U65" s="240"/>
+      <c r="V65" s="241"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="188" t="s">
+      <c r="A66" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="210"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="218" t="s">
+      <c r="B66" s="225"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="219"/>
-      <c r="G66" s="220"/>
-      <c r="H66" s="220"/>
-      <c r="I66" s="220"/>
-      <c r="J66" s="220"/>
-      <c r="K66" s="220"/>
-      <c r="L66" s="220"/>
-      <c r="M66" s="221"/>
-      <c r="N66" s="222" t="s">
+      <c r="F66" s="211"/>
+      <c r="G66" s="212"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="212"/>
+      <c r="J66" s="212"/>
+      <c r="K66" s="212"/>
+      <c r="L66" s="212"/>
+      <c r="M66" s="223"/>
+      <c r="N66" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O66" s="210"/>
-      <c r="P66" s="210"/>
-      <c r="Q66" s="211"/>
-      <c r="R66" s="227"/>
-      <c r="S66" s="228"/>
-      <c r="T66" s="228"/>
-      <c r="U66" s="228"/>
-      <c r="V66" s="229"/>
+      <c r="O66" s="225"/>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="226"/>
+      <c r="R66" s="233"/>
+      <c r="S66" s="234"/>
+      <c r="T66" s="234"/>
+      <c r="U66" s="234"/>
+      <c r="V66" s="235"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="212"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="236"/>
-      <c r="F67" s="237"/>
-      <c r="G67" s="237"/>
-      <c r="H67" s="237"/>
-      <c r="I67" s="237"/>
-      <c r="J67" s="237"/>
-      <c r="K67" s="237"/>
-      <c r="L67" s="237"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="223"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="214"/>
-      <c r="R67" s="230"/>
-      <c r="S67" s="231"/>
-      <c r="T67" s="231"/>
-      <c r="U67" s="231"/>
-      <c r="V67" s="232"/>
+      <c r="A67" s="244"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="229"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="215"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="242"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="228"/>
+      <c r="P67" s="228"/>
+      <c r="Q67" s="229"/>
+      <c r="R67" s="236"/>
+      <c r="S67" s="237"/>
+      <c r="T67" s="237"/>
+      <c r="U67" s="237"/>
+      <c r="V67" s="238"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="215"/>
-      <c r="B68" s="216"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="217"/>
-      <c r="E68" s="239"/>
-      <c r="F68" s="240"/>
-      <c r="G68" s="240"/>
-      <c r="H68" s="240"/>
-      <c r="I68" s="240"/>
-      <c r="J68" s="240"/>
-      <c r="K68" s="240"/>
-      <c r="L68" s="240"/>
-      <c r="M68" s="241"/>
-      <c r="N68" s="224"/>
-      <c r="O68" s="225"/>
-      <c r="P68" s="225"/>
-      <c r="Q68" s="226"/>
-      <c r="R68" s="233"/>
-      <c r="S68" s="234"/>
-      <c r="T68" s="234"/>
-      <c r="U68" s="234"/>
-      <c r="V68" s="235"/>
+      <c r="A68" s="245"/>
+      <c r="B68" s="246"/>
+      <c r="C68" s="246"/>
+      <c r="D68" s="247"/>
+      <c r="E68" s="220"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="221"/>
+      <c r="H68" s="221"/>
+      <c r="I68" s="221"/>
+      <c r="J68" s="221"/>
+      <c r="K68" s="221"/>
+      <c r="L68" s="221"/>
+      <c r="M68" s="243"/>
+      <c r="N68" s="230"/>
+      <c r="O68" s="231"/>
+      <c r="P68" s="231"/>
+      <c r="Q68" s="232"/>
+      <c r="R68" s="239"/>
+      <c r="S68" s="240"/>
+      <c r="T68" s="240"/>
+      <c r="U68" s="240"/>
+      <c r="V68" s="241"/>
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="188" t="s">
+      <c r="A69" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="210"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="218" t="s">
+      <c r="B69" s="225"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="219"/>
-      <c r="G69" s="220"/>
-      <c r="H69" s="220"/>
-      <c r="I69" s="220"/>
-      <c r="J69" s="220"/>
-      <c r="K69" s="220"/>
-      <c r="L69" s="220"/>
-      <c r="M69" s="221"/>
-      <c r="N69" s="222" t="s">
+      <c r="F69" s="211"/>
+      <c r="G69" s="212"/>
+      <c r="H69" s="212"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="212"/>
+      <c r="K69" s="212"/>
+      <c r="L69" s="212"/>
+      <c r="M69" s="223"/>
+      <c r="N69" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O69" s="210"/>
-      <c r="P69" s="210"/>
-      <c r="Q69" s="211"/>
-      <c r="R69" s="227"/>
-      <c r="S69" s="228"/>
-      <c r="T69" s="228"/>
-      <c r="U69" s="228"/>
-      <c r="V69" s="229"/>
+      <c r="O69" s="225"/>
+      <c r="P69" s="225"/>
+      <c r="Q69" s="226"/>
+      <c r="R69" s="233"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="235"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="212"/>
-      <c r="B70" s="213"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="236"/>
-      <c r="F70" s="237"/>
-      <c r="G70" s="237"/>
-      <c r="H70" s="237"/>
-      <c r="I70" s="237"/>
-      <c r="J70" s="237"/>
-      <c r="K70" s="237"/>
-      <c r="L70" s="237"/>
-      <c r="M70" s="238"/>
-      <c r="N70" s="223"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213"/>
-      <c r="Q70" s="214"/>
-      <c r="R70" s="230"/>
-      <c r="S70" s="231"/>
-      <c r="T70" s="231"/>
-      <c r="U70" s="231"/>
-      <c r="V70" s="232"/>
+      <c r="A70" s="244"/>
+      <c r="B70" s="228"/>
+      <c r="C70" s="228"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="214"/>
+      <c r="F70" s="215"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="242"/>
+      <c r="N70" s="227"/>
+      <c r="O70" s="228"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="229"/>
+      <c r="R70" s="236"/>
+      <c r="S70" s="237"/>
+      <c r="T70" s="237"/>
+      <c r="U70" s="237"/>
+      <c r="V70" s="238"/>
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="215"/>
-      <c r="B71" s="216"/>
-      <c r="C71" s="216"/>
-      <c r="D71" s="217"/>
-      <c r="E71" s="239"/>
-      <c r="F71" s="240"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="240"/>
-      <c r="I71" s="240"/>
-      <c r="J71" s="240"/>
-      <c r="K71" s="240"/>
-      <c r="L71" s="240"/>
-      <c r="M71" s="241"/>
-      <c r="N71" s="224"/>
-      <c r="O71" s="225"/>
-      <c r="P71" s="225"/>
-      <c r="Q71" s="226"/>
-      <c r="R71" s="233"/>
-      <c r="S71" s="234"/>
-      <c r="T71" s="234"/>
-      <c r="U71" s="234"/>
-      <c r="V71" s="235"/>
+      <c r="A71" s="245"/>
+      <c r="B71" s="246"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="247"/>
+      <c r="E71" s="220"/>
+      <c r="F71" s="221"/>
+      <c r="G71" s="221"/>
+      <c r="H71" s="221"/>
+      <c r="I71" s="221"/>
+      <c r="J71" s="221"/>
+      <c r="K71" s="221"/>
+      <c r="L71" s="221"/>
+      <c r="M71" s="243"/>
+      <c r="N71" s="230"/>
+      <c r="O71" s="231"/>
+      <c r="P71" s="231"/>
+      <c r="Q71" s="232"/>
+      <c r="R71" s="239"/>
+      <c r="S71" s="240"/>
+      <c r="T71" s="240"/>
+      <c r="U71" s="240"/>
+      <c r="V71" s="241"/>
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="188" t="s">
+      <c r="A72" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="210"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="218" t="s">
+      <c r="B72" s="225"/>
+      <c r="C72" s="225"/>
+      <c r="D72" s="226"/>
+      <c r="E72" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="219"/>
-      <c r="G72" s="220"/>
-      <c r="H72" s="220"/>
-      <c r="I72" s="220"/>
-      <c r="J72" s="220"/>
-      <c r="K72" s="220"/>
-      <c r="L72" s="220"/>
-      <c r="M72" s="221"/>
-      <c r="N72" s="222" t="s">
+      <c r="F72" s="211"/>
+      <c r="G72" s="212"/>
+      <c r="H72" s="212"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="212"/>
+      <c r="K72" s="212"/>
+      <c r="L72" s="212"/>
+      <c r="M72" s="223"/>
+      <c r="N72" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O72" s="210"/>
-      <c r="P72" s="210"/>
-      <c r="Q72" s="211"/>
-      <c r="R72" s="227"/>
-      <c r="S72" s="228"/>
-      <c r="T72" s="228"/>
-      <c r="U72" s="228"/>
-      <c r="V72" s="229"/>
+      <c r="O72" s="225"/>
+      <c r="P72" s="225"/>
+      <c r="Q72" s="226"/>
+      <c r="R72" s="233"/>
+      <c r="S72" s="234"/>
+      <c r="T72" s="234"/>
+      <c r="U72" s="234"/>
+      <c r="V72" s="235"/>
     </row>
     <row r="73" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="212"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="214"/>
-      <c r="E73" s="236"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="237"/>
-      <c r="H73" s="237"/>
-      <c r="I73" s="237"/>
-      <c r="J73" s="237"/>
-      <c r="K73" s="237"/>
-      <c r="L73" s="237"/>
-      <c r="M73" s="238"/>
-      <c r="N73" s="223"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="214"/>
-      <c r="R73" s="230"/>
-      <c r="S73" s="231"/>
-      <c r="T73" s="231"/>
-      <c r="U73" s="231"/>
-      <c r="V73" s="232"/>
+      <c r="A73" s="244"/>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="229"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="242"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="228"/>
+      <c r="P73" s="228"/>
+      <c r="Q73" s="229"/>
+      <c r="R73" s="236"/>
+      <c r="S73" s="237"/>
+      <c r="T73" s="237"/>
+      <c r="U73" s="237"/>
+      <c r="V73" s="238"/>
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="242"/>
-      <c r="B74" s="225"/>
-      <c r="C74" s="225"/>
-      <c r="D74" s="226"/>
-      <c r="E74" s="239"/>
-      <c r="F74" s="240"/>
-      <c r="G74" s="240"/>
-      <c r="H74" s="240"/>
-      <c r="I74" s="240"/>
-      <c r="J74" s="240"/>
-      <c r="K74" s="240"/>
-      <c r="L74" s="240"/>
-      <c r="M74" s="241"/>
-      <c r="N74" s="224"/>
-      <c r="O74" s="225"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="226"/>
-      <c r="R74" s="233"/>
-      <c r="S74" s="234"/>
-      <c r="T74" s="234"/>
-      <c r="U74" s="234"/>
-      <c r="V74" s="235"/>
+      <c r="A74" s="248"/>
+      <c r="B74" s="231"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="220"/>
+      <c r="F74" s="221"/>
+      <c r="G74" s="221"/>
+      <c r="H74" s="221"/>
+      <c r="I74" s="221"/>
+      <c r="J74" s="221"/>
+      <c r="K74" s="221"/>
+      <c r="L74" s="221"/>
+      <c r="M74" s="243"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="232"/>
+      <c r="R74" s="239"/>
+      <c r="S74" s="240"/>
+      <c r="T74" s="240"/>
+      <c r="U74" s="240"/>
+      <c r="V74" s="241"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8+RHXI0uyuPEn4xEDoSZ+V0WgGk2xm6ijICHnWOblV6qToCzu4GhDLMOI55j1BW0QpXQ31me8+46kjnUXPMQUA==" saltValue="zDq0m0fpGE1hYBX1TzkbFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="132">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="E6:V9"/>
-    <mergeCell ref="A18:D20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="N18:Q20"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="E11:V14"/>
-    <mergeCell ref="N15:Q17"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="R18:V20"/>
-    <mergeCell ref="E19:M20"/>
+    <mergeCell ref="A57:D59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="N57:Q59"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="A66:D68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="N66:Q68"/>
+    <mergeCell ref="R66:V68"/>
+    <mergeCell ref="E67:M68"/>
+    <mergeCell ref="A63:D65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="N63:Q65"/>
+    <mergeCell ref="R63:V65"/>
+    <mergeCell ref="E64:M65"/>
+    <mergeCell ref="A54:D56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:Q56"/>
+    <mergeCell ref="R54:V56"/>
+    <mergeCell ref="E55:M56"/>
+    <mergeCell ref="A72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="N72:Q74"/>
+    <mergeCell ref="R72:V74"/>
+    <mergeCell ref="E73:M74"/>
+    <mergeCell ref="A69:D71"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="N69:Q71"/>
+    <mergeCell ref="R69:V71"/>
+    <mergeCell ref="E70:M71"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="N60:Q62"/>
+    <mergeCell ref="R60:V62"/>
+    <mergeCell ref="E61:M62"/>
+    <mergeCell ref="A51:D53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:Q53"/>
+    <mergeCell ref="R51:V53"/>
+    <mergeCell ref="E52:M53"/>
+    <mergeCell ref="A48:D50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:Q50"/>
+    <mergeCell ref="R48:V50"/>
+    <mergeCell ref="E49:M50"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:Q47"/>
+    <mergeCell ref="R45:V47"/>
+    <mergeCell ref="E46:M47"/>
+    <mergeCell ref="R39:V41"/>
+    <mergeCell ref="E40:M41"/>
+    <mergeCell ref="A42:D44"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:Q44"/>
+    <mergeCell ref="R42:V44"/>
+    <mergeCell ref="E43:M44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:Q41"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:Q29"/>
+    <mergeCell ref="R27:V29"/>
+    <mergeCell ref="E28:M29"/>
+    <mergeCell ref="N33:Q35"/>
+    <mergeCell ref="R33:V35"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="A36:D38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="N36:Q38"/>
+    <mergeCell ref="R36:V38"/>
+    <mergeCell ref="E37:M38"/>
+    <mergeCell ref="A33:D35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:M33"/>
     <mergeCell ref="A21:D23"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="R15:V17"/>
@@ -8050,94 +8216,26 @@
     <mergeCell ref="E31:M32"/>
     <mergeCell ref="A27:D29"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:Q29"/>
-    <mergeCell ref="R27:V29"/>
-    <mergeCell ref="E28:M29"/>
-    <mergeCell ref="N33:Q35"/>
-    <mergeCell ref="R33:V35"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="A36:D38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="N36:Q38"/>
-    <mergeCell ref="R36:V38"/>
-    <mergeCell ref="E37:M38"/>
-    <mergeCell ref="A33:D35"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:Q47"/>
-    <mergeCell ref="R45:V47"/>
-    <mergeCell ref="E46:M47"/>
-    <mergeCell ref="R39:V41"/>
-    <mergeCell ref="E40:M41"/>
-    <mergeCell ref="A42:D44"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:Q44"/>
-    <mergeCell ref="R42:V44"/>
-    <mergeCell ref="E43:M44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:Q41"/>
-    <mergeCell ref="A51:D53"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:Q53"/>
-    <mergeCell ref="R51:V53"/>
-    <mergeCell ref="E52:M53"/>
-    <mergeCell ref="A48:D50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:Q50"/>
-    <mergeCell ref="R48:V50"/>
-    <mergeCell ref="E49:M50"/>
-    <mergeCell ref="A54:D56"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:Q56"/>
-    <mergeCell ref="R54:V56"/>
-    <mergeCell ref="E55:M56"/>
-    <mergeCell ref="A72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="N72:Q74"/>
-    <mergeCell ref="R72:V74"/>
-    <mergeCell ref="E73:M74"/>
-    <mergeCell ref="A69:D71"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="N69:Q71"/>
-    <mergeCell ref="R69:V71"/>
-    <mergeCell ref="E70:M71"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="N60:Q62"/>
-    <mergeCell ref="R60:V62"/>
-    <mergeCell ref="E61:M62"/>
-    <mergeCell ref="A57:D59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="N57:Q59"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="A66:D68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="N66:Q68"/>
-    <mergeCell ref="R66:V68"/>
-    <mergeCell ref="E67:M68"/>
-    <mergeCell ref="A63:D65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="N63:Q65"/>
-    <mergeCell ref="R63:V65"/>
-    <mergeCell ref="E64:M65"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="E6:V9"/>
+    <mergeCell ref="A18:D20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="N18:Q20"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:V10"/>
+    <mergeCell ref="E11:V14"/>
+    <mergeCell ref="N15:Q17"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="R18:V20"/>
+    <mergeCell ref="E19:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/contest18_oubo.xlsx
+++ b/contest18_oubo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="応募用紙" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
   <si>
     <t>応募用紙</t>
     <phoneticPr fontId="1"/>
@@ -903,6 +903,27 @@
   </si>
   <si>
     <t>いのうえ みずき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府堺市南区鴨谷台1丁目44-9-106</t>
+    <rPh sb="0" eb="7">
+      <t>オオサカフサカイシミナミク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カモタニダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0138</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>590</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1973,6 +1994,437 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2070,436 +2522,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2511,18 +2556,92 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2539,107 +2658,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4058,8 +4079,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4090,18 +4111,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4118,17 +4139,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="183"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="186"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -4153,26 +4174,26 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="188" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="197"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4192,11 +4213,11 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="72"/>
+      <c r="A6" s="191"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="198"/>
       <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
@@ -4206,661 +4227,667 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="77" t="s">
+      <c r="M6" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78" t="s">
+      <c r="N6" s="203"/>
+      <c r="O6" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
+      <c r="P6" s="204"/>
+      <c r="Q6" s="204"/>
+      <c r="R6" s="204"/>
+      <c r="S6" s="204"/>
+      <c r="T6" s="204"/>
+      <c r="U6" s="204"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="75">
+      <c r="H7" s="199"/>
+      <c r="I7" s="201">
         <v>3</v>
       </c>
-      <c r="J7" s="75"/>
+      <c r="J7" s="201"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="207" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="79" t="s">
+      <c r="N7" s="207"/>
+      <c r="O7" s="205" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="205"/>
+      <c r="R7" s="205"/>
+      <c r="S7" s="205"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="205"/>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
       <c r="E8" s="5"/>
       <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
+      <c r="H8" s="199"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="201"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="206"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
       <c r="K9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="83" t="s">
+      <c r="M9" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
+      <c r="N9" s="209"/>
+      <c r="O9" s="209"/>
+      <c r="P9" s="209"/>
+      <c r="Q9" s="209"/>
+      <c r="R9" s="209"/>
+      <c r="S9" s="209"/>
+      <c r="T9" s="209"/>
+      <c r="U9" s="209"/>
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="117" t="s">
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119" t="s">
+      <c r="F10" s="164"/>
+      <c r="G10" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="119"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="119"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="121" t="s">
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+      <c r="N10" s="165"/>
+      <c r="O10" s="165"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="122"/>
-      <c r="T10" s="127">
+      <c r="S10" s="168"/>
+      <c r="T10" s="173">
         <v>18</v>
       </c>
-      <c r="U10" s="127"/>
+      <c r="U10" s="173"/>
       <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="130" t="s">
+      <c r="A11" s="157"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="111"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="134"/>
-      <c r="O12" s="134"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
+      <c r="A12" s="157"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
       <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="111"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-      <c r="O13" s="134"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="111"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
-      <c r="O14" s="134"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="84" t="s">
+      <c r="A14" s="157"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="137" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="125"/>
-      <c r="S15" s="126"/>
-      <c r="T15" s="129"/>
-      <c r="U15" s="129"/>
-      <c r="V15" s="85"/>
+      <c r="A15" s="160"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="179"/>
+      <c r="R15" s="171"/>
+      <c r="S15" s="172"/>
+      <c r="T15" s="174"/>
+      <c r="U15" s="174"/>
+      <c r="V15" s="138"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="95" t="s">
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="96"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="97"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="145"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="99"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="99"/>
-      <c r="U17" s="99"/>
-      <c r="V17" s="100"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="148"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="100"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="147"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="147"/>
+      <c r="S18" s="147"/>
+      <c r="T18" s="147"/>
+      <c r="U18" s="147"/>
+      <c r="V18" s="148"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="100"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="147"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="147"/>
+      <c r="V19" s="148"/>
     </row>
     <row r="20" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="92"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
-      <c r="V20" s="103"/>
+      <c r="A20" s="140"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="150"/>
+      <c r="T20" s="150"/>
+      <c r="U20" s="150"/>
+      <c r="V20" s="151"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="117"/>
       <c r="E21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
+      <c r="F21" s="152" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="152"/>
       <c r="H21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="108"/>
+      <c r="I21" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
+      <c r="Q21" s="153"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="154"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="99"/>
-      <c r="S22" s="99"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="100"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="146" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="147"/>
+      <c r="Q22" s="147"/>
+      <c r="R22" s="147"/>
+      <c r="S22" s="147"/>
+      <c r="T22" s="147"/>
+      <c r="U22" s="147"/>
+      <c r="V22" s="148"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="100"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="147"/>
+      <c r="R23" s="147"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="147"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="148"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="99"/>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="100"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="148"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="150"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="151"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="105"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="142" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="146" t="s">
+      <c r="F26" s="125"/>
+      <c r="G26" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="127"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="127"/>
+      <c r="O26" s="127"/>
+      <c r="P26" s="127"/>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="25"/>
     </row>
     <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="147"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
-      <c r="O27" s="147"/>
-      <c r="P27" s="147"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="147"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
       <c r="V27" s="20"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
+      <c r="A28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="129"/>
+      <c r="R28" s="129"/>
       <c r="S28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="149" t="s">
+      <c r="T28" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="149"/>
+      <c r="U28" s="130"/>
       <c r="V28" s="31"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="150" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="154" t="s">
+      <c r="F29" s="132"/>
+      <c r="G29" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="154"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="154"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="135"/>
+      <c r="Q29" s="135"/>
+      <c r="R29" s="135"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="149" t="s">
+      <c r="T29" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="U29" s="149"/>
+      <c r="U29" s="130"/>
       <c r="V29" s="31"/>
     </row>
     <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="147"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="128"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="139"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="155"/>
+      <c r="A31" s="121"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="136"/>
+      <c r="Q31" s="136"/>
+      <c r="R31" s="136"/>
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
@@ -4868,214 +4895,214 @@
     </row>
     <row r="32" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:22" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="159"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="166" t="s">
+      <c r="F33" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
-      <c r="L33" s="166"/>
-      <c r="M33" s="166"/>
-      <c r="N33" s="166"/>
-      <c r="O33" s="166"/>
-      <c r="P33" s="166"/>
-      <c r="Q33" s="166"/>
-      <c r="R33" s="166"/>
-      <c r="S33" s="166"/>
-      <c r="T33" s="166"/>
-      <c r="U33" s="166"/>
-      <c r="V33" s="167"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="83"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="160"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="168" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="169"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="86"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="160"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="169"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="86"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="160"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="162"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
-      <c r="M36" s="128"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="128"/>
-      <c r="P36" s="128"/>
-      <c r="Q36" s="128"/>
-      <c r="R36" s="128"/>
-      <c r="S36" s="128"/>
-      <c r="T36" s="128"/>
-      <c r="U36" s="128"/>
-      <c r="V36" s="169"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="86"/>
     </row>
     <row r="37" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="170" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="171"/>
-      <c r="G37" s="172">
+      <c r="F37" s="88"/>
+      <c r="G37" s="89">
         <v>2</v>
       </c>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
-      <c r="T37" s="172"/>
-      <c r="U37" s="173" t="s">
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="174"/>
+      <c r="V37" s="91"/>
     </row>
     <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="104" t="s">
+      <c r="A38" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="105"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="196"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="116"/>
       <c r="E38" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="197"/>
-      <c r="I38" s="197"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="197"/>
-      <c r="L38" s="197"/>
-      <c r="M38" s="197"/>
-      <c r="N38" s="197"/>
-      <c r="O38" s="197"/>
-      <c r="P38" s="197"/>
-      <c r="Q38" s="197"/>
-      <c r="R38" s="197"/>
-      <c r="S38" s="197"/>
-      <c r="T38" s="197"/>
-      <c r="U38" s="197"/>
-      <c r="V38" s="198"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60"/>
+      <c r="S38" s="60"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="61"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="160"/>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
-      <c r="O39" s="134"/>
-      <c r="P39" s="134"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="134"/>
-      <c r="S39" s="134"/>
-      <c r="T39" s="134"/>
-      <c r="U39" s="134"/>
-      <c r="V39" s="199"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="64"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="163"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="136"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
-      <c r="O40" s="137"/>
-      <c r="P40" s="137"/>
-      <c r="Q40" s="137"/>
-      <c r="R40" s="137"/>
-      <c r="S40" s="137"/>
-      <c r="T40" s="137"/>
-      <c r="U40" s="137"/>
-      <c r="V40" s="200"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="67"/>
     </row>
     <row r="41" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
@@ -5134,27 +5161,27 @@
       <c r="B43" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-      <c r="O43" s="134"/>
-      <c r="P43" s="134"/>
-      <c r="Q43" s="134"/>
-      <c r="R43" s="134"/>
-      <c r="S43" s="134"/>
-      <c r="T43" s="134"/>
-      <c r="U43" s="134"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
       <c r="V43" s="41" t="s">
         <v>9</v>
       </c>
@@ -5214,232 +5241,232 @@
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="201" t="s">
+      <c r="A46" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="202"/>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202"/>
-      <c r="E46" s="203" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="204"/>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204"/>
-      <c r="K46" s="204"/>
-      <c r="L46" s="204"/>
-      <c r="M46" s="204"/>
-      <c r="N46" s="204"/>
-      <c r="O46" s="204"/>
-      <c r="P46" s="204"/>
-      <c r="Q46" s="204"/>
-      <c r="R46" s="204"/>
-      <c r="S46" s="204"/>
-      <c r="T46" s="204"/>
-      <c r="U46" s="204"/>
-      <c r="V46" s="205"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="71"/>
+      <c r="T46" s="71"/>
+      <c r="U46" s="71"/>
+      <c r="V46" s="72"/>
     </row>
     <row r="47" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="175"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="176"/>
-      <c r="M47" s="176"/>
-      <c r="N47" s="176"/>
-      <c r="O47" s="176"/>
-      <c r="P47" s="176"/>
-      <c r="Q47" s="176"/>
-      <c r="R47" s="176"/>
-      <c r="S47" s="176"/>
-      <c r="T47" s="176"/>
-      <c r="U47" s="176"/>
-      <c r="V47" s="177"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
+      <c r="Q47" s="93"/>
+      <c r="R47" s="93"/>
+      <c r="S47" s="93"/>
+      <c r="T47" s="93"/>
+      <c r="U47" s="93"/>
+      <c r="V47" s="94"/>
     </row>
     <row r="48" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="178"/>
-      <c r="B48" s="179"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="179"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="179"/>
-      <c r="H48" s="179"/>
-      <c r="I48" s="179"/>
-      <c r="J48" s="179"/>
-      <c r="K48" s="179"/>
-      <c r="L48" s="179"/>
-      <c r="M48" s="179"/>
-      <c r="N48" s="179"/>
-      <c r="O48" s="179"/>
-      <c r="P48" s="179"/>
-      <c r="Q48" s="179"/>
-      <c r="R48" s="179"/>
-      <c r="S48" s="179"/>
-      <c r="T48" s="179"/>
-      <c r="U48" s="179"/>
-      <c r="V48" s="180"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
+      <c r="L48" s="96"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="96"/>
+      <c r="O48" s="96"/>
+      <c r="P48" s="96"/>
+      <c r="Q48" s="96"/>
+      <c r="R48" s="96"/>
+      <c r="S48" s="96"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="97"/>
     </row>
     <row r="49" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="190" t="s">
+      <c r="A49" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="191"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191"/>
-      <c r="F49" s="191"/>
-      <c r="G49" s="191"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="191"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="191"/>
-      <c r="N49" s="191"/>
-      <c r="O49" s="191"/>
-      <c r="P49" s="191"/>
-      <c r="Q49" s="191"/>
-      <c r="R49" s="191"/>
-      <c r="S49" s="191"/>
-      <c r="T49" s="191"/>
-      <c r="U49" s="191"/>
-      <c r="V49" s="192"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="108"/>
+      <c r="K49" s="108"/>
+      <c r="L49" s="108"/>
+      <c r="M49" s="108"/>
+      <c r="N49" s="108"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="108"/>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+      <c r="T49" s="108"/>
+      <c r="U49" s="108"/>
+      <c r="V49" s="109"/>
     </row>
     <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="181" t="s">
+      <c r="A50" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="182"/>
-      <c r="C50" s="182"/>
-      <c r="D50" s="182"/>
-      <c r="E50" s="182"/>
-      <c r="F50" s="182"/>
-      <c r="G50" s="182"/>
-      <c r="H50" s="182"/>
-      <c r="I50" s="182"/>
-      <c r="J50" s="182"/>
-      <c r="K50" s="182"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="182"/>
-      <c r="O50" s="182"/>
-      <c r="P50" s="182"/>
-      <c r="Q50" s="182"/>
-      <c r="R50" s="182"/>
-      <c r="S50" s="182"/>
-      <c r="T50" s="182"/>
-      <c r="U50" s="182"/>
-      <c r="V50" s="183"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="99"/>
+      <c r="N50" s="99"/>
+      <c r="O50" s="99"/>
+      <c r="P50" s="99"/>
+      <c r="Q50" s="99"/>
+      <c r="R50" s="99"/>
+      <c r="S50" s="99"/>
+      <c r="T50" s="99"/>
+      <c r="U50" s="99"/>
+      <c r="V50" s="100"/>
     </row>
     <row r="51" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="187" t="s">
+      <c r="A51" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="188"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="188"/>
-      <c r="F51" s="188"/>
-      <c r="G51" s="188"/>
-      <c r="H51" s="188"/>
-      <c r="I51" s="188"/>
-      <c r="J51" s="188"/>
-      <c r="K51" s="188"/>
-      <c r="L51" s="188"/>
-      <c r="M51" s="188"/>
-      <c r="N51" s="188"/>
-      <c r="O51" s="188"/>
-      <c r="P51" s="188"/>
-      <c r="Q51" s="188"/>
-      <c r="R51" s="188"/>
-      <c r="S51" s="188"/>
-      <c r="T51" s="188"/>
-      <c r="U51" s="188"/>
-      <c r="V51" s="189"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="106"/>
     </row>
     <row r="52" spans="1:22" s="47" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="193"/>
-      <c r="B52" s="194"/>
-      <c r="C52" s="194"/>
-      <c r="D52" s="194"/>
-      <c r="E52" s="194"/>
-      <c r="F52" s="194"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="194"/>
-      <c r="L52" s="194"/>
-      <c r="M52" s="194"/>
-      <c r="N52" s="194"/>
-      <c r="O52" s="194"/>
-      <c r="P52" s="194"/>
-      <c r="Q52" s="194"/>
-      <c r="R52" s="194"/>
-      <c r="S52" s="194"/>
-      <c r="T52" s="194"/>
-      <c r="U52" s="194"/>
-      <c r="V52" s="195"/>
+      <c r="A52" s="110"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="112"/>
     </row>
     <row r="53" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="187" t="s">
+      <c r="A53" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="188"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="188"/>
-      <c r="E53" s="188"/>
-      <c r="F53" s="188"/>
-      <c r="G53" s="188"/>
-      <c r="H53" s="188"/>
-      <c r="I53" s="188"/>
-      <c r="J53" s="188"/>
-      <c r="K53" s="188"/>
-      <c r="L53" s="188"/>
-      <c r="M53" s="188"/>
-      <c r="N53" s="188"/>
-      <c r="O53" s="188"/>
-      <c r="P53" s="188"/>
-      <c r="Q53" s="188"/>
-      <c r="R53" s="188"/>
-      <c r="S53" s="188"/>
-      <c r="T53" s="188"/>
-      <c r="U53" s="188"/>
-      <c r="V53" s="189"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
+      <c r="J53" s="105"/>
+      <c r="K53" s="105"/>
+      <c r="L53" s="105"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="105"/>
+      <c r="R53" s="105"/>
+      <c r="S53" s="105"/>
+      <c r="T53" s="105"/>
+      <c r="U53" s="105"/>
+      <c r="V53" s="106"/>
     </row>
     <row r="54" spans="1:22" ht="270" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="184"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="185"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="185"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="185"/>
-      <c r="I54" s="185"/>
-      <c r="J54" s="185"/>
-      <c r="K54" s="185"/>
-      <c r="L54" s="185"/>
-      <c r="M54" s="185"/>
-      <c r="N54" s="185"/>
-      <c r="O54" s="185"/>
-      <c r="P54" s="185"/>
-      <c r="Q54" s="185"/>
-      <c r="R54" s="185"/>
-      <c r="S54" s="185"/>
-      <c r="T54" s="185"/>
-      <c r="U54" s="185"/>
-      <c r="V54" s="186"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="102"/>
+      <c r="M54" s="102"/>
+      <c r="N54" s="102"/>
+      <c r="O54" s="102"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="102"/>
+      <c r="S54" s="102"/>
+      <c r="T54" s="102"/>
+      <c r="U54" s="102"/>
+      <c r="V54" s="103"/>
     </row>
     <row r="55" spans="1:22" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
@@ -5465,30 +5492,30 @@
       <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="207" t="s">
+      <c r="A56" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="207"/>
-      <c r="C56" s="207"/>
-      <c r="D56" s="207"/>
-      <c r="E56" s="207"/>
-      <c r="F56" s="207"/>
-      <c r="G56" s="207"/>
-      <c r="H56" s="207"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="207"/>
-      <c r="K56" s="207"/>
-      <c r="L56" s="207"/>
-      <c r="M56" s="207"/>
-      <c r="N56" s="207"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="207"/>
-      <c r="Q56" s="207"/>
-      <c r="R56" s="207"/>
-      <c r="S56" s="207"/>
-      <c r="T56" s="207"/>
-      <c r="U56" s="207"/>
-      <c r="V56" s="207"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="56"/>
+      <c r="Q56" s="56"/>
+      <c r="R56" s="56"/>
+      <c r="S56" s="56"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
+      <c r="V56" s="56"/>
     </row>
     <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
@@ -5518,107 +5545,107 @@
       <c r="A58" s="50">
         <v>1</v>
       </c>
-      <c r="B58" s="156" t="s">
+      <c r="B58" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="156"/>
-      <c r="D58" s="156"/>
-      <c r="E58" s="156"/>
-      <c r="F58" s="156"/>
-      <c r="G58" s="156"/>
-      <c r="H58" s="156"/>
-      <c r="I58" s="156"/>
-      <c r="J58" s="156"/>
-      <c r="K58" s="156"/>
-      <c r="L58" s="156"/>
-      <c r="M58" s="156"/>
-      <c r="N58" s="156"/>
-      <c r="O58" s="156"/>
-      <c r="P58" s="156"/>
-      <c r="Q58" s="156"/>
-      <c r="R58" s="156"/>
-      <c r="S58" s="156"/>
-      <c r="T58" s="156"/>
-      <c r="U58" s="156"/>
-      <c r="V58" s="156"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="Q58" s="57"/>
+      <c r="R58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
+      <c r="U58" s="57"/>
+      <c r="V58" s="57"/>
     </row>
     <row r="59" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
-      <c r="B59" s="156" t="s">
+      <c r="B59" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
-      <c r="L59" s="156"/>
-      <c r="M59" s="156"/>
-      <c r="N59" s="156"/>
-      <c r="O59" s="156"/>
-      <c r="P59" s="156"/>
-      <c r="Q59" s="156"/>
-      <c r="R59" s="156"/>
-      <c r="S59" s="156"/>
-      <c r="T59" s="156"/>
-      <c r="U59" s="156"/>
-      <c r="V59" s="156"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
     </row>
     <row r="60" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="51"/>
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="156"/>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="156"/>
-      <c r="H60" s="156"/>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="156"/>
-      <c r="L60" s="156"/>
-      <c r="M60" s="156"/>
-      <c r="N60" s="156"/>
-      <c r="O60" s="156"/>
-      <c r="P60" s="156"/>
-      <c r="Q60" s="156"/>
-      <c r="R60" s="156"/>
-      <c r="S60" s="156"/>
-      <c r="T60" s="156"/>
-      <c r="U60" s="156"/>
-      <c r="V60" s="156"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
     </row>
     <row r="61" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="51"/>
-      <c r="B61" s="156" t="s">
+      <c r="B61" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="156"/>
-      <c r="D61" s="156"/>
-      <c r="E61" s="156"/>
-      <c r="F61" s="156"/>
-      <c r="G61" s="156"/>
-      <c r="H61" s="156"/>
-      <c r="I61" s="156"/>
-      <c r="J61" s="156"/>
-      <c r="K61" s="156"/>
-      <c r="L61" s="156"/>
-      <c r="M61" s="156"/>
-      <c r="N61" s="156"/>
-      <c r="O61" s="156"/>
-      <c r="P61" s="156"/>
-      <c r="Q61" s="156"/>
-      <c r="R61" s="156"/>
-      <c r="S61" s="156"/>
-      <c r="T61" s="156"/>
-      <c r="U61" s="156"/>
-      <c r="V61" s="156"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
+      <c r="U61" s="57"/>
+      <c r="V61" s="57"/>
     </row>
     <row r="62" spans="1:22" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
@@ -5643,105 +5670,105 @@
       <c r="A63" s="39">
         <v>2</v>
       </c>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="156"/>
-      <c r="D63" s="156"/>
-      <c r="E63" s="156"/>
-      <c r="F63" s="156"/>
-      <c r="G63" s="156"/>
-      <c r="H63" s="156"/>
-      <c r="I63" s="156"/>
-      <c r="J63" s="156"/>
-      <c r="K63" s="156"/>
-      <c r="L63" s="156"/>
-      <c r="M63" s="156"/>
-      <c r="N63" s="156"/>
-      <c r="O63" s="156"/>
-      <c r="P63" s="156"/>
-      <c r="Q63" s="156"/>
-      <c r="R63" s="156"/>
-      <c r="S63" s="156"/>
-      <c r="T63" s="156"/>
-      <c r="U63" s="156"/>
-      <c r="V63" s="156"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
     </row>
     <row r="64" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
-      <c r="B64" s="156" t="s">
+      <c r="B64" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="156"/>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156"/>
-      <c r="F64" s="156"/>
-      <c r="G64" s="156"/>
-      <c r="H64" s="156"/>
-      <c r="I64" s="156"/>
-      <c r="J64" s="156"/>
-      <c r="K64" s="156"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="156"/>
-      <c r="N64" s="156"/>
-      <c r="O64" s="156"/>
-      <c r="P64" s="156"/>
-      <c r="Q64" s="156"/>
-      <c r="R64" s="156"/>
-      <c r="S64" s="156"/>
-      <c r="T64" s="156"/>
-      <c r="U64" s="156"/>
-      <c r="V64" s="156"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
     </row>
     <row r="65" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="208"/>
-      <c r="B65" s="208"/>
-      <c r="C65" s="208"/>
-      <c r="D65" s="208"/>
-      <c r="E65" s="208"/>
-      <c r="F65" s="208"/>
-      <c r="G65" s="208"/>
-      <c r="H65" s="208"/>
-      <c r="I65" s="208"/>
-      <c r="J65" s="208"/>
-      <c r="K65" s="208"/>
-      <c r="L65" s="208"/>
-      <c r="M65" s="208"/>
-      <c r="N65" s="208"/>
-      <c r="O65" s="208"/>
-      <c r="P65" s="208"/>
-      <c r="Q65" s="208"/>
-      <c r="R65" s="208"/>
-      <c r="S65" s="208"/>
-      <c r="T65" s="208"/>
-      <c r="U65" s="208"/>
-      <c r="V65" s="208"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
+      <c r="Q65" s="58"/>
+      <c r="R65" s="58"/>
+      <c r="S65" s="58"/>
+      <c r="T65" s="58"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="58"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="156" t="s">
+      <c r="A66" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="156"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="156"/>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="156"/>
-      <c r="L66" s="156"/>
-      <c r="M66" s="156"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="156"/>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="156"/>
-      <c r="R66" s="156"/>
-      <c r="S66" s="156"/>
-      <c r="T66" s="156"/>
-      <c r="U66" s="156"/>
-      <c r="V66" s="156"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="57"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
     </row>
     <row r="67" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:22" ht="21" x14ac:dyDescent="0.15">
@@ -5752,18 +5779,18 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="209"/>
-      <c r="M68" s="209"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
       <c r="N68" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O68" s="209"/>
-      <c r="P68" s="209"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
       <c r="Q68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R68" s="209"/>
-      <c r="S68" s="209"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="59"/>
       <c r="T68" s="19" t="s">
         <v>28</v>
       </c>
@@ -5797,56 +5824,56 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="207" t="s">
+      <c r="A71" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="207"/>
-      <c r="C71" s="207"/>
-      <c r="D71" s="207"/>
-      <c r="E71" s="207"/>
-      <c r="F71" s="207"/>
-      <c r="G71" s="207"/>
-      <c r="H71" s="207"/>
-      <c r="I71" s="207"/>
-      <c r="J71" s="207"/>
-      <c r="K71" s="207"/>
-      <c r="L71" s="207"/>
-      <c r="M71" s="207"/>
-      <c r="N71" s="207"/>
-      <c r="O71" s="207"/>
-      <c r="P71" s="207"/>
-      <c r="Q71" s="207"/>
-      <c r="R71" s="207"/>
-      <c r="S71" s="207"/>
-      <c r="T71" s="207"/>
-      <c r="U71" s="207"/>
-      <c r="V71" s="207"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="56"/>
+      <c r="P71" s="56"/>
+      <c r="Q71" s="56"/>
+      <c r="R71" s="56"/>
+      <c r="S71" s="56"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
+      <c r="V71" s="56"/>
     </row>
     <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="145" t="s">
+      <c r="A72" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
-      <c r="D72" s="145"/>
-      <c r="E72" s="145"/>
-      <c r="F72" s="145"/>
-      <c r="G72" s="145"/>
-      <c r="H72" s="145"/>
-      <c r="I72" s="145"/>
-      <c r="J72" s="145"/>
-      <c r="K72" s="145"/>
-      <c r="L72" s="145"/>
-      <c r="M72" s="145"/>
-      <c r="N72" s="145"/>
-      <c r="O72" s="145"/>
-      <c r="P72" s="145"/>
-      <c r="Q72" s="145"/>
-      <c r="R72" s="145"/>
-      <c r="S72" s="145"/>
-      <c r="T72" s="145"/>
-      <c r="U72" s="145"/>
-      <c r="V72" s="145"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
     </row>
     <row r="73" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="21"/>
@@ -5854,43 +5881,43 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
-      <c r="L73" s="206"/>
-      <c r="M73" s="206"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="55"/>
       <c r="N73" s="39"/>
-      <c r="O73" s="206"/>
-      <c r="P73" s="206"/>
+      <c r="O73" s="55"/>
+      <c r="P73" s="55"/>
       <c r="Q73" s="43"/>
-      <c r="R73" s="206"/>
-      <c r="S73" s="206"/>
+      <c r="R73" s="55"/>
+      <c r="S73" s="55"/>
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
       <c r="V73" s="21"/>
     </row>
     <row r="74" spans="1:22" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="145" t="s">
+      <c r="A74" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="145"/>
-      <c r="C74" s="145"/>
-      <c r="D74" s="145"/>
-      <c r="E74" s="145"/>
-      <c r="F74" s="145"/>
-      <c r="G74" s="145"/>
-      <c r="H74" s="145"/>
-      <c r="I74" s="145"/>
-      <c r="J74" s="145"/>
-      <c r="K74" s="145"/>
-      <c r="L74" s="145"/>
-      <c r="M74" s="145"/>
-      <c r="N74" s="145"/>
-      <c r="O74" s="145"/>
-      <c r="P74" s="145"/>
-      <c r="Q74" s="145"/>
-      <c r="R74" s="145"/>
-      <c r="S74" s="145"/>
-      <c r="T74" s="145"/>
-      <c r="U74" s="145"/>
-      <c r="V74" s="145"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
+      <c r="P74" s="54"/>
+      <c r="Q74" s="54"/>
+      <c r="R74" s="54"/>
+      <c r="S74" s="54"/>
+      <c r="T74" s="54"/>
+      <c r="U74" s="54"/>
+      <c r="V74" s="54"/>
     </row>
     <row r="75" spans="1:22" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K75" s="43"/>
@@ -5898,6 +5925,60 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u+3ibe+sC76jx/Mrl9gKYsrsC9ziuJLQJCRQVLduvjQRPP4afwqh69YMzhRFm98X7f1XnMhXzjqG8YtjV62H7g==" saltValue="pLlIKOMaGGXf4xnSSi16wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="70">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="O7:U8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:U9"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:D20"/>
+    <mergeCell ref="E16:V20"/>
+    <mergeCell ref="A21:D25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:V21"/>
+    <mergeCell ref="E22:V25"/>
+    <mergeCell ref="A10:D15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:Q10"/>
+    <mergeCell ref="R10:S15"/>
+    <mergeCell ref="T10:U15"/>
+    <mergeCell ref="E11:Q15"/>
+    <mergeCell ref="A26:D31"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="G29:R31"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="B63:V63"/>
+    <mergeCell ref="A33:D37"/>
+    <mergeCell ref="F33:V33"/>
+    <mergeCell ref="E34:V36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="A47:V48"/>
+    <mergeCell ref="A50:V50"/>
+    <mergeCell ref="A54:V54"/>
+    <mergeCell ref="B59:V59"/>
+    <mergeCell ref="A53:V53"/>
+    <mergeCell ref="A49:V49"/>
+    <mergeCell ref="A51:V51"/>
+    <mergeCell ref="A52:V52"/>
+    <mergeCell ref="A38:D40"/>
+    <mergeCell ref="H38:V38"/>
+    <mergeCell ref="E39:V40"/>
+    <mergeCell ref="C43:U43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:V46"/>
     <mergeCell ref="A74:V74"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="O73:P73"/>
@@ -5914,60 +5995,6 @@
     <mergeCell ref="O68:P68"/>
     <mergeCell ref="R68:S68"/>
     <mergeCell ref="A71:V71"/>
-    <mergeCell ref="H38:V38"/>
-    <mergeCell ref="E39:V40"/>
-    <mergeCell ref="C43:U43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:V46"/>
-    <mergeCell ref="B63:V63"/>
-    <mergeCell ref="A33:D37"/>
-    <mergeCell ref="F33:V33"/>
-    <mergeCell ref="E34:V36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="A47:V48"/>
-    <mergeCell ref="A50:V50"/>
-    <mergeCell ref="A54:V54"/>
-    <mergeCell ref="B59:V59"/>
-    <mergeCell ref="A53:V53"/>
-    <mergeCell ref="A49:V49"/>
-    <mergeCell ref="A51:V51"/>
-    <mergeCell ref="A52:V52"/>
-    <mergeCell ref="A38:D40"/>
-    <mergeCell ref="A26:D31"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="G26:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="E29:F31"/>
-    <mergeCell ref="G29:R31"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:D20"/>
-    <mergeCell ref="E16:V20"/>
-    <mergeCell ref="A21:D25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:V21"/>
-    <mergeCell ref="E22:V25"/>
-    <mergeCell ref="A10:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="R10:S15"/>
-    <mergeCell ref="T10:U15"/>
-    <mergeCell ref="E11:Q15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="O7:U8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M9:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6170,7 +6197,7 @@
   </sheetPr>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E19" sqref="E19:M20"/>
     </sheetView>
   </sheetViews>
@@ -6202,18 +6229,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="180" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6230,17 +6257,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="183"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="186"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -6265,1863 +6292,1935 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="61" t="s">
+      <c r="N4" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="210" t="s">
+      <c r="B5" s="189"/>
+      <c r="C5" s="189"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="211"/>
-      <c r="G5" s="212" t="s">
+      <c r="F5" s="219"/>
+      <c r="G5" s="220" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="212"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="212"/>
-      <c r="T5" s="212"/>
-      <c r="U5" s="212"/>
-      <c r="V5" s="213"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
+      <c r="T5" s="220"/>
+      <c r="U5" s="220"/>
+      <c r="V5" s="243"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="214" t="s">
+      <c r="A6" s="191"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
-      <c r="I6" s="215"/>
-      <c r="J6" s="215"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="215"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
-      <c r="R6" s="215"/>
-      <c r="S6" s="215"/>
-      <c r="T6" s="215"/>
-      <c r="U6" s="215"/>
-      <c r="V6" s="216"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="237"/>
+      <c r="I6" s="237"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="237"/>
+      <c r="L6" s="237"/>
+      <c r="M6" s="237"/>
+      <c r="N6" s="237"/>
+      <c r="O6" s="237"/>
+      <c r="P6" s="237"/>
+      <c r="Q6" s="237"/>
+      <c r="R6" s="237"/>
+      <c r="S6" s="237"/>
+      <c r="T6" s="237"/>
+      <c r="U6" s="237"/>
+      <c r="V6" s="244"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="218"/>
-      <c r="H7" s="218"/>
-      <c r="I7" s="218"/>
-      <c r="J7" s="218"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="218"/>
-      <c r="M7" s="218"/>
-      <c r="N7" s="218"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="218"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="218"/>
-      <c r="T7" s="218"/>
-      <c r="U7" s="218"/>
-      <c r="V7" s="219"/>
+      <c r="A7" s="191"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="246"/>
+      <c r="M7" s="246"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="246"/>
+      <c r="P7" s="246"/>
+      <c r="Q7" s="246"/>
+      <c r="R7" s="246"/>
+      <c r="S7" s="246"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="246"/>
+      <c r="V7" s="247"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="219"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="192"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="193"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="246"/>
+      <c r="O8" s="246"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="246"/>
+      <c r="U8" s="246"/>
+      <c r="V8" s="247"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="221"/>
-      <c r="G9" s="221"/>
-      <c r="H9" s="221"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="221"/>
-      <c r="L9" s="221"/>
-      <c r="M9" s="221"/>
-      <c r="N9" s="221"/>
-      <c r="O9" s="221"/>
-      <c r="P9" s="221"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="222"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="240"/>
+      <c r="O9" s="240"/>
+      <c r="P9" s="240"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="240"/>
+      <c r="S9" s="240"/>
+      <c r="T9" s="240"/>
+      <c r="U9" s="240"/>
+      <c r="V9" s="248"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="210" t="s">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212" t="s">
+      <c r="F10" s="219"/>
+      <c r="G10" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="212"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="212"/>
-      <c r="O10" s="212"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="212"/>
-      <c r="T10" s="212"/>
-      <c r="U10" s="212"/>
-      <c r="V10" s="213"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="220"/>
+      <c r="P10" s="220"/>
+      <c r="Q10" s="220"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="243"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="214" t="s">
+      <c r="A11" s="191"/>
+      <c r="B11" s="192"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="236" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
-      <c r="P11" s="215"/>
-      <c r="Q11" s="215"/>
-      <c r="R11" s="215"/>
-      <c r="S11" s="215"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="215"/>
-      <c r="V11" s="216"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="237"/>
+      <c r="H11" s="237"/>
+      <c r="I11" s="237"/>
+      <c r="J11" s="237"/>
+      <c r="K11" s="237"/>
+      <c r="L11" s="237"/>
+      <c r="M11" s="237"/>
+      <c r="N11" s="237"/>
+      <c r="O11" s="237"/>
+      <c r="P11" s="237"/>
+      <c r="Q11" s="237"/>
+      <c r="R11" s="237"/>
+      <c r="S11" s="237"/>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+      <c r="V11" s="244"/>
     </row>
     <row r="12" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="217"/>
-      <c r="F12" s="218"/>
-      <c r="G12" s="218"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="218"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="218"/>
-      <c r="L12" s="218"/>
-      <c r="M12" s="218"/>
-      <c r="N12" s="218"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="218"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="218"/>
-      <c r="T12" s="218"/>
-      <c r="U12" s="218"/>
-      <c r="V12" s="219"/>
+      <c r="A12" s="191"/>
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="247"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="218"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="218"/>
-      <c r="T13" s="218"/>
-      <c r="U13" s="218"/>
-      <c r="V13" s="219"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="192"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="247"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="220"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="222"/>
+      <c r="A14" s="194"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="240"/>
+      <c r="H14" s="240"/>
+      <c r="I14" s="240"/>
+      <c r="J14" s="240"/>
+      <c r="K14" s="240"/>
+      <c r="L14" s="240"/>
+      <c r="M14" s="240"/>
+      <c r="N14" s="240"/>
+      <c r="O14" s="240"/>
+      <c r="P14" s="240"/>
+      <c r="Q14" s="240"/>
+      <c r="R14" s="240"/>
+      <c r="S14" s="240"/>
+      <c r="T14" s="240"/>
+      <c r="U14" s="240"/>
+      <c r="V14" s="248"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="188" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="210" t="s">
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="190"/>
+      <c r="E15" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212" t="s">
+      <c r="F15" s="219"/>
+      <c r="G15" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="212"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="212"/>
-      <c r="K15" s="212"/>
-      <c r="L15" s="212"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="224" t="s">
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
+      <c r="K15" s="220"/>
+      <c r="L15" s="220"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="222" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="225"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="234"/>
-      <c r="T15" s="234"/>
-      <c r="U15" s="234"/>
-      <c r="V15" s="235"/>
+      <c r="O15" s="210"/>
+      <c r="P15" s="210"/>
+      <c r="Q15" s="211"/>
+      <c r="R15" s="227"/>
+      <c r="S15" s="228"/>
+      <c r="T15" s="228"/>
+      <c r="U15" s="228"/>
+      <c r="V15" s="229"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="214" t="s">
+      <c r="A16" s="191"/>
+      <c r="B16" s="192"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="236" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="215"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="215"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="215"/>
-      <c r="L16" s="215"/>
-      <c r="M16" s="242"/>
-      <c r="N16" s="227"/>
-      <c r="O16" s="228"/>
-      <c r="P16" s="228"/>
-      <c r="Q16" s="229"/>
-      <c r="R16" s="236"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="238"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="238"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="213"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="214"/>
+      <c r="R16" s="230"/>
+      <c r="S16" s="231"/>
+      <c r="T16" s="231"/>
+      <c r="U16" s="231"/>
+      <c r="V16" s="232"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="221"/>
-      <c r="L17" s="221"/>
-      <c r="M17" s="243"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="231"/>
-      <c r="P17" s="231"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="239"/>
-      <c r="S17" s="240"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="240"/>
-      <c r="V17" s="241"/>
+      <c r="A17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="239"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="240"/>
+      <c r="I17" s="240"/>
+      <c r="J17" s="240"/>
+      <c r="K17" s="240"/>
+      <c r="L17" s="240"/>
+      <c r="M17" s="241"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="225"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="226"/>
+      <c r="R17" s="233"/>
+      <c r="S17" s="234"/>
+      <c r="T17" s="234"/>
+      <c r="U17" s="234"/>
+      <c r="V17" s="235"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="210" t="s">
+      <c r="B18" s="189"/>
+      <c r="C18" s="189"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="211"/>
-      <c r="G18" s="212" t="s">
+      <c r="F18" s="219"/>
+      <c r="G18" s="220" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
-      <c r="L18" s="212"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="224" t="s">
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="221"/>
+      <c r="N18" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="225"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="234"/>
-      <c r="T18" s="234"/>
-      <c r="U18" s="234"/>
-      <c r="V18" s="235"/>
+      <c r="O18" s="210"/>
+      <c r="P18" s="210"/>
+      <c r="Q18" s="211"/>
+      <c r="R18" s="227"/>
+      <c r="S18" s="228"/>
+      <c r="T18" s="228"/>
+      <c r="U18" s="228"/>
+      <c r="V18" s="229"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="214" t="s">
+      <c r="A19" s="191"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="215"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="242"/>
-      <c r="N19" s="227"/>
-      <c r="O19" s="228"/>
-      <c r="P19" s="228"/>
-      <c r="Q19" s="229"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="237"/>
-      <c r="T19" s="237"/>
-      <c r="U19" s="237"/>
-      <c r="V19" s="238"/>
+      <c r="F19" s="237"/>
+      <c r="G19" s="237"/>
+      <c r="H19" s="237"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
+      <c r="M19" s="238"/>
+      <c r="N19" s="223"/>
+      <c r="O19" s="213"/>
+      <c r="P19" s="213"/>
+      <c r="Q19" s="214"/>
+      <c r="R19" s="230"/>
+      <c r="S19" s="231"/>
+      <c r="T19" s="231"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="232"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="221"/>
-      <c r="L20" s="221"/>
-      <c r="M20" s="243"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="231"/>
-      <c r="P20" s="231"/>
-      <c r="Q20" s="232"/>
-      <c r="R20" s="239"/>
-      <c r="S20" s="240"/>
-      <c r="T20" s="240"/>
-      <c r="U20" s="240"/>
-      <c r="V20" s="241"/>
+      <c r="A20" s="194"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="240"/>
+      <c r="G20" s="240"/>
+      <c r="H20" s="240"/>
+      <c r="I20" s="240"/>
+      <c r="J20" s="240"/>
+      <c r="K20" s="240"/>
+      <c r="L20" s="240"/>
+      <c r="M20" s="241"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="225"/>
+      <c r="P20" s="225"/>
+      <c r="Q20" s="226"/>
+      <c r="R20" s="233"/>
+      <c r="S20" s="234"/>
+      <c r="T20" s="234"/>
+      <c r="U20" s="234"/>
+      <c r="V20" s="235"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="225"/>
-      <c r="C21" s="225"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="210" t="s">
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="211"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="224" t="s">
+      <c r="F21" s="219"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="220"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="225"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="226"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="234"/>
-      <c r="T21" s="234"/>
-      <c r="U21" s="234"/>
-      <c r="V21" s="235"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="210"/>
+      <c r="Q21" s="211"/>
+      <c r="R21" s="227"/>
+      <c r="S21" s="228"/>
+      <c r="T21" s="228"/>
+      <c r="U21" s="228"/>
+      <c r="V21" s="229"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="244"/>
-      <c r="B22" s="228"/>
-      <c r="C22" s="228"/>
-      <c r="D22" s="229"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="215"/>
-      <c r="J22" s="215"/>
-      <c r="K22" s="215"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="242"/>
-      <c r="N22" s="227"/>
-      <c r="O22" s="228"/>
-      <c r="P22" s="228"/>
-      <c r="Q22" s="229"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="237"/>
-      <c r="T22" s="237"/>
-      <c r="U22" s="237"/>
-      <c r="V22" s="238"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="237"/>
+      <c r="G22" s="237"/>
+      <c r="H22" s="237"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="237"/>
+      <c r="L22" s="237"/>
+      <c r="M22" s="238"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="213"/>
+      <c r="P22" s="213"/>
+      <c r="Q22" s="214"/>
+      <c r="R22" s="230"/>
+      <c r="S22" s="231"/>
+      <c r="T22" s="231"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="232"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="245"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="247"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="221"/>
-      <c r="G23" s="221"/>
-      <c r="H23" s="221"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="221"/>
-      <c r="L23" s="221"/>
-      <c r="M23" s="243"/>
-      <c r="N23" s="230"/>
-      <c r="O23" s="231"/>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="232"/>
-      <c r="R23" s="239"/>
-      <c r="S23" s="240"/>
-      <c r="T23" s="240"/>
-      <c r="U23" s="240"/>
-      <c r="V23" s="241"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="239"/>
+      <c r="F23" s="240"/>
+      <c r="G23" s="240"/>
+      <c r="H23" s="240"/>
+      <c r="I23" s="240"/>
+      <c r="J23" s="240"/>
+      <c r="K23" s="240"/>
+      <c r="L23" s="240"/>
+      <c r="M23" s="241"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="233"/>
+      <c r="S23" s="234"/>
+      <c r="T23" s="234"/>
+      <c r="U23" s="234"/>
+      <c r="V23" s="235"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="225"/>
-      <c r="C24" s="225"/>
-      <c r="D24" s="226"/>
-      <c r="E24" s="210" t="s">
+      <c r="B24" s="210"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="211"/>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="224" t="s">
+      <c r="F24" s="219"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="220"/>
+      <c r="M24" s="221"/>
+      <c r="N24" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="225"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="233"/>
-      <c r="S24" s="234"/>
-      <c r="T24" s="234"/>
-      <c r="U24" s="234"/>
-      <c r="V24" s="235"/>
+      <c r="O24" s="210"/>
+      <c r="P24" s="210"/>
+      <c r="Q24" s="211"/>
+      <c r="R24" s="227"/>
+      <c r="S24" s="228"/>
+      <c r="T24" s="228"/>
+      <c r="U24" s="228"/>
+      <c r="V24" s="229"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="244"/>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="229"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="215"/>
-      <c r="M25" s="242"/>
-      <c r="N25" s="227"/>
-      <c r="O25" s="228"/>
-      <c r="P25" s="228"/>
-      <c r="Q25" s="229"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="237"/>
-      <c r="T25" s="237"/>
-      <c r="U25" s="237"/>
-      <c r="V25" s="238"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="213"/>
+      <c r="C25" s="213"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="236"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="237"/>
+      <c r="H25" s="237"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="237"/>
+      <c r="M25" s="238"/>
+      <c r="N25" s="223"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="230"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="232"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="245"/>
-      <c r="B26" s="246"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="221"/>
-      <c r="J26" s="221"/>
-      <c r="K26" s="221"/>
-      <c r="L26" s="221"/>
-      <c r="M26" s="243"/>
-      <c r="N26" s="230"/>
-      <c r="O26" s="231"/>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="232"/>
-      <c r="R26" s="239"/>
-      <c r="S26" s="240"/>
-      <c r="T26" s="240"/>
-      <c r="U26" s="240"/>
-      <c r="V26" s="241"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="217"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="240"/>
+      <c r="J26" s="240"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="240"/>
+      <c r="M26" s="241"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="225"/>
+      <c r="P26" s="225"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="233"/>
+      <c r="S26" s="234"/>
+      <c r="T26" s="234"/>
+      <c r="U26" s="234"/>
+      <c r="V26" s="235"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="188" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="225"/>
-      <c r="C27" s="225"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="210" t="s">
+      <c r="B27" s="210"/>
+      <c r="C27" s="210"/>
+      <c r="D27" s="211"/>
+      <c r="E27" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="211"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="212"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="224" t="s">
+      <c r="F27" s="219"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="220"/>
+      <c r="K27" s="220"/>
+      <c r="L27" s="220"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="225"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="234"/>
-      <c r="T27" s="234"/>
-      <c r="U27" s="234"/>
-      <c r="V27" s="235"/>
+      <c r="O27" s="210"/>
+      <c r="P27" s="210"/>
+      <c r="Q27" s="211"/>
+      <c r="R27" s="227"/>
+      <c r="S27" s="228"/>
+      <c r="T27" s="228"/>
+      <c r="U27" s="228"/>
+      <c r="V27" s="229"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="244"/>
-      <c r="B28" s="228"/>
-      <c r="C28" s="228"/>
-      <c r="D28" s="229"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="215"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="242"/>
-      <c r="N28" s="227"/>
-      <c r="O28" s="228"/>
-      <c r="P28" s="228"/>
-      <c r="Q28" s="229"/>
-      <c r="R28" s="236"/>
-      <c r="S28" s="237"/>
-      <c r="T28" s="237"/>
-      <c r="U28" s="237"/>
-      <c r="V28" s="238"/>
+      <c r="A28" s="212"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="236"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="237"/>
+      <c r="H28" s="237"/>
+      <c r="I28" s="237"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="238"/>
+      <c r="N28" s="223"/>
+      <c r="O28" s="213"/>
+      <c r="P28" s="213"/>
+      <c r="Q28" s="214"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="231"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="232"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="245"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="220"/>
-      <c r="F29" s="221"/>
-      <c r="G29" s="221"/>
-      <c r="H29" s="221"/>
-      <c r="I29" s="221"/>
-      <c r="J29" s="221"/>
-      <c r="K29" s="221"/>
-      <c r="L29" s="221"/>
-      <c r="M29" s="243"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="231"/>
-      <c r="P29" s="231"/>
-      <c r="Q29" s="232"/>
-      <c r="R29" s="239"/>
-      <c r="S29" s="240"/>
-      <c r="T29" s="240"/>
-      <c r="U29" s="240"/>
-      <c r="V29" s="241"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="240"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="240"/>
+      <c r="J29" s="240"/>
+      <c r="K29" s="240"/>
+      <c r="L29" s="240"/>
+      <c r="M29" s="241"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="225"/>
+      <c r="P29" s="225"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="233"/>
+      <c r="S29" s="234"/>
+      <c r="T29" s="234"/>
+      <c r="U29" s="234"/>
+      <c r="V29" s="235"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="188" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="210" t="s">
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="211"/>
-      <c r="G30" s="212"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="212"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="224" t="s">
+      <c r="F30" s="219"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+      <c r="K30" s="220"/>
+      <c r="L30" s="220"/>
+      <c r="M30" s="221"/>
+      <c r="N30" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="225"/>
-      <c r="P30" s="225"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="233"/>
-      <c r="S30" s="234"/>
-      <c r="T30" s="234"/>
-      <c r="U30" s="234"/>
-      <c r="V30" s="235"/>
+      <c r="O30" s="210"/>
+      <c r="P30" s="210"/>
+      <c r="Q30" s="211"/>
+      <c r="R30" s="227"/>
+      <c r="S30" s="228"/>
+      <c r="T30" s="228"/>
+      <c r="U30" s="228"/>
+      <c r="V30" s="229"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="244"/>
-      <c r="B31" s="228"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="229"/>
-      <c r="E31" s="214"/>
-      <c r="F31" s="215"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="215"/>
-      <c r="M31" s="242"/>
-      <c r="N31" s="227"/>
-      <c r="O31" s="228"/>
-      <c r="P31" s="228"/>
-      <c r="Q31" s="229"/>
-      <c r="R31" s="236"/>
-      <c r="S31" s="237"/>
-      <c r="T31" s="237"/>
-      <c r="U31" s="237"/>
-      <c r="V31" s="238"/>
+      <c r="A31" s="212"/>
+      <c r="B31" s="213"/>
+      <c r="C31" s="213"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="236"/>
+      <c r="F31" s="237"/>
+      <c r="G31" s="237"/>
+      <c r="H31" s="237"/>
+      <c r="I31" s="237"/>
+      <c r="J31" s="237"/>
+      <c r="K31" s="237"/>
+      <c r="L31" s="237"/>
+      <c r="M31" s="238"/>
+      <c r="N31" s="223"/>
+      <c r="O31" s="213"/>
+      <c r="P31" s="213"/>
+      <c r="Q31" s="214"/>
+      <c r="R31" s="230"/>
+      <c r="S31" s="231"/>
+      <c r="T31" s="231"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="232"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="245"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="246"/>
-      <c r="D32" s="247"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="221"/>
-      <c r="G32" s="221"/>
-      <c r="H32" s="221"/>
-      <c r="I32" s="221"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="221"/>
-      <c r="L32" s="221"/>
-      <c r="M32" s="243"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="231"/>
-      <c r="P32" s="231"/>
-      <c r="Q32" s="232"/>
-      <c r="R32" s="239"/>
-      <c r="S32" s="240"/>
-      <c r="T32" s="240"/>
-      <c r="U32" s="240"/>
-      <c r="V32" s="241"/>
+      <c r="A32" s="215"/>
+      <c r="B32" s="216"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="217"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="241"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="225"/>
+      <c r="P32" s="225"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="233"/>
+      <c r="S32" s="234"/>
+      <c r="T32" s="234"/>
+      <c r="U32" s="234"/>
+      <c r="V32" s="235"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="225"/>
-      <c r="C33" s="225"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="210" t="s">
+      <c r="B33" s="210"/>
+      <c r="C33" s="210"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="211"/>
-      <c r="G33" s="212"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212"/>
-      <c r="K33" s="212"/>
-      <c r="L33" s="212"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="224" t="s">
+      <c r="F33" s="219"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
+      <c r="L33" s="220"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="225"/>
-      <c r="P33" s="225"/>
-      <c r="Q33" s="226"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="234"/>
-      <c r="T33" s="234"/>
-      <c r="U33" s="234"/>
-      <c r="V33" s="235"/>
+      <c r="O33" s="210"/>
+      <c r="P33" s="210"/>
+      <c r="Q33" s="211"/>
+      <c r="R33" s="227"/>
+      <c r="S33" s="228"/>
+      <c r="T33" s="228"/>
+      <c r="U33" s="228"/>
+      <c r="V33" s="229"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="244"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="228"/>
-      <c r="D34" s="229"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="215"/>
-      <c r="M34" s="242"/>
-      <c r="N34" s="227"/>
-      <c r="O34" s="228"/>
-      <c r="P34" s="228"/>
-      <c r="Q34" s="229"/>
-      <c r="R34" s="236"/>
-      <c r="S34" s="237"/>
-      <c r="T34" s="237"/>
-      <c r="U34" s="237"/>
-      <c r="V34" s="238"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="213"/>
+      <c r="C34" s="213"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="236"/>
+      <c r="F34" s="237"/>
+      <c r="G34" s="237"/>
+      <c r="H34" s="237"/>
+      <c r="I34" s="237"/>
+      <c r="J34" s="237"/>
+      <c r="K34" s="237"/>
+      <c r="L34" s="237"/>
+      <c r="M34" s="238"/>
+      <c r="N34" s="223"/>
+      <c r="O34" s="213"/>
+      <c r="P34" s="213"/>
+      <c r="Q34" s="214"/>
+      <c r="R34" s="230"/>
+      <c r="S34" s="231"/>
+      <c r="T34" s="231"/>
+      <c r="U34" s="231"/>
+      <c r="V34" s="232"/>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="245"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="246"/>
-      <c r="D35" s="247"/>
-      <c r="E35" s="220"/>
-      <c r="F35" s="221"/>
-      <c r="G35" s="221"/>
-      <c r="H35" s="221"/>
-      <c r="I35" s="221"/>
-      <c r="J35" s="221"/>
-      <c r="K35" s="221"/>
-      <c r="L35" s="221"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="230"/>
-      <c r="O35" s="231"/>
-      <c r="P35" s="231"/>
-      <c r="Q35" s="232"/>
-      <c r="R35" s="239"/>
-      <c r="S35" s="240"/>
-      <c r="T35" s="240"/>
-      <c r="U35" s="240"/>
-      <c r="V35" s="241"/>
+      <c r="A35" s="215"/>
+      <c r="B35" s="216"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="240"/>
+      <c r="G35" s="240"/>
+      <c r="H35" s="240"/>
+      <c r="I35" s="240"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="240"/>
+      <c r="L35" s="240"/>
+      <c r="M35" s="241"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="225"/>
+      <c r="P35" s="225"/>
+      <c r="Q35" s="226"/>
+      <c r="R35" s="233"/>
+      <c r="S35" s="234"/>
+      <c r="T35" s="234"/>
+      <c r="U35" s="234"/>
+      <c r="V35" s="235"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="225"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="210" t="s">
+      <c r="B36" s="210"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="211"/>
-      <c r="G36" s="212"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="212"/>
-      <c r="M36" s="223"/>
-      <c r="N36" s="224" t="s">
+      <c r="F36" s="219"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="220"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="221"/>
+      <c r="N36" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="225"/>
-      <c r="P36" s="225"/>
-      <c r="Q36" s="226"/>
-      <c r="R36" s="233"/>
-      <c r="S36" s="234"/>
-      <c r="T36" s="234"/>
-      <c r="U36" s="234"/>
-      <c r="V36" s="235"/>
+      <c r="O36" s="210"/>
+      <c r="P36" s="210"/>
+      <c r="Q36" s="211"/>
+      <c r="R36" s="227"/>
+      <c r="S36" s="228"/>
+      <c r="T36" s="228"/>
+      <c r="U36" s="228"/>
+      <c r="V36" s="229"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="244"/>
-      <c r="B37" s="228"/>
-      <c r="C37" s="228"/>
-      <c r="D37" s="229"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="215"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="215"/>
-      <c r="M37" s="242"/>
-      <c r="N37" s="227"/>
-      <c r="O37" s="228"/>
-      <c r="P37" s="228"/>
-      <c r="Q37" s="229"/>
-      <c r="R37" s="236"/>
-      <c r="S37" s="237"/>
-      <c r="T37" s="237"/>
-      <c r="U37" s="237"/>
-      <c r="V37" s="238"/>
+      <c r="A37" s="212"/>
+      <c r="B37" s="213"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="236"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="237"/>
+      <c r="M37" s="238"/>
+      <c r="N37" s="223"/>
+      <c r="O37" s="213"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="214"/>
+      <c r="R37" s="230"/>
+      <c r="S37" s="231"/>
+      <c r="T37" s="231"/>
+      <c r="U37" s="231"/>
+      <c r="V37" s="232"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="245"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="247"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="221"/>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="243"/>
-      <c r="N38" s="230"/>
-      <c r="O38" s="231"/>
-      <c r="P38" s="231"/>
-      <c r="Q38" s="232"/>
-      <c r="R38" s="239"/>
-      <c r="S38" s="240"/>
-      <c r="T38" s="240"/>
-      <c r="U38" s="240"/>
-      <c r="V38" s="241"/>
+      <c r="A38" s="215"/>
+      <c r="B38" s="216"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="239"/>
+      <c r="F38" s="240"/>
+      <c r="G38" s="240"/>
+      <c r="H38" s="240"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="240"/>
+      <c r="L38" s="240"/>
+      <c r="M38" s="241"/>
+      <c r="N38" s="224"/>
+      <c r="O38" s="225"/>
+      <c r="P38" s="225"/>
+      <c r="Q38" s="226"/>
+      <c r="R38" s="233"/>
+      <c r="S38" s="234"/>
+      <c r="T38" s="234"/>
+      <c r="U38" s="234"/>
+      <c r="V38" s="235"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="225"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="210" t="s">
+      <c r="B39" s="210"/>
+      <c r="C39" s="210"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="211"/>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="212"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="224" t="s">
+      <c r="F39" s="219"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+      <c r="K39" s="220"/>
+      <c r="L39" s="220"/>
+      <c r="M39" s="221"/>
+      <c r="N39" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O39" s="225"/>
-      <c r="P39" s="225"/>
-      <c r="Q39" s="226"/>
-      <c r="R39" s="233"/>
-      <c r="S39" s="234"/>
-      <c r="T39" s="234"/>
-      <c r="U39" s="234"/>
-      <c r="V39" s="235"/>
+      <c r="O39" s="210"/>
+      <c r="P39" s="210"/>
+      <c r="Q39" s="211"/>
+      <c r="R39" s="227"/>
+      <c r="S39" s="228"/>
+      <c r="T39" s="228"/>
+      <c r="U39" s="228"/>
+      <c r="V39" s="229"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="244"/>
-      <c r="B40" s="228"/>
-      <c r="C40" s="228"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="215"/>
-      <c r="M40" s="242"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="228"/>
-      <c r="P40" s="228"/>
-      <c r="Q40" s="229"/>
-      <c r="R40" s="236"/>
-      <c r="S40" s="237"/>
-      <c r="T40" s="237"/>
-      <c r="U40" s="237"/>
-      <c r="V40" s="238"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="213"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="236"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="237"/>
+      <c r="J40" s="237"/>
+      <c r="K40" s="237"/>
+      <c r="L40" s="237"/>
+      <c r="M40" s="238"/>
+      <c r="N40" s="223"/>
+      <c r="O40" s="213"/>
+      <c r="P40" s="213"/>
+      <c r="Q40" s="214"/>
+      <c r="R40" s="230"/>
+      <c r="S40" s="231"/>
+      <c r="T40" s="231"/>
+      <c r="U40" s="231"/>
+      <c r="V40" s="232"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="245"/>
-      <c r="B41" s="246"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="247"/>
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="221"/>
-      <c r="H41" s="221"/>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
-      <c r="M41" s="243"/>
-      <c r="N41" s="230"/>
-      <c r="O41" s="231"/>
-      <c r="P41" s="231"/>
-      <c r="Q41" s="232"/>
-      <c r="R41" s="239"/>
-      <c r="S41" s="240"/>
-      <c r="T41" s="240"/>
-      <c r="U41" s="240"/>
-      <c r="V41" s="241"/>
+      <c r="A41" s="215"/>
+      <c r="B41" s="216"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="240"/>
+      <c r="G41" s="240"/>
+      <c r="H41" s="240"/>
+      <c r="I41" s="240"/>
+      <c r="J41" s="240"/>
+      <c r="K41" s="240"/>
+      <c r="L41" s="240"/>
+      <c r="M41" s="241"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="225"/>
+      <c r="P41" s="225"/>
+      <c r="Q41" s="226"/>
+      <c r="R41" s="233"/>
+      <c r="S41" s="234"/>
+      <c r="T41" s="234"/>
+      <c r="U41" s="234"/>
+      <c r="V41" s="235"/>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="225"/>
-      <c r="C42" s="225"/>
-      <c r="D42" s="226"/>
-      <c r="E42" s="210" t="s">
+      <c r="B42" s="210"/>
+      <c r="C42" s="210"/>
+      <c r="D42" s="211"/>
+      <c r="E42" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="211"/>
-      <c r="G42" s="212"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="212"/>
-      <c r="M42" s="223"/>
-      <c r="N42" s="224" t="s">
+      <c r="F42" s="219"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+      <c r="K42" s="220"/>
+      <c r="L42" s="220"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="225"/>
-      <c r="P42" s="225"/>
-      <c r="Q42" s="226"/>
-      <c r="R42" s="233"/>
-      <c r="S42" s="234"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="235"/>
+      <c r="O42" s="210"/>
+      <c r="P42" s="210"/>
+      <c r="Q42" s="211"/>
+      <c r="R42" s="227"/>
+      <c r="S42" s="228"/>
+      <c r="T42" s="228"/>
+      <c r="U42" s="228"/>
+      <c r="V42" s="229"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="244"/>
-      <c r="B43" s="228"/>
-      <c r="C43" s="228"/>
-      <c r="D43" s="229"/>
-      <c r="E43" s="214"/>
-      <c r="F43" s="215"/>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="215"/>
-      <c r="M43" s="242"/>
-      <c r="N43" s="227"/>
-      <c r="O43" s="228"/>
-      <c r="P43" s="228"/>
-      <c r="Q43" s="229"/>
-      <c r="R43" s="236"/>
-      <c r="S43" s="237"/>
-      <c r="T43" s="237"/>
-      <c r="U43" s="237"/>
-      <c r="V43" s="238"/>
+      <c r="A43" s="212"/>
+      <c r="B43" s="213"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="236"/>
+      <c r="F43" s="237"/>
+      <c r="G43" s="237"/>
+      <c r="H43" s="237"/>
+      <c r="I43" s="237"/>
+      <c r="J43" s="237"/>
+      <c r="K43" s="237"/>
+      <c r="L43" s="237"/>
+      <c r="M43" s="238"/>
+      <c r="N43" s="223"/>
+      <c r="O43" s="213"/>
+      <c r="P43" s="213"/>
+      <c r="Q43" s="214"/>
+      <c r="R43" s="230"/>
+      <c r="S43" s="231"/>
+      <c r="T43" s="231"/>
+      <c r="U43" s="231"/>
+      <c r="V43" s="232"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="245"/>
-      <c r="B44" s="246"/>
-      <c r="C44" s="246"/>
-      <c r="D44" s="247"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="221"/>
-      <c r="G44" s="221"/>
-      <c r="H44" s="221"/>
-      <c r="I44" s="221"/>
-      <c r="J44" s="221"/>
-      <c r="K44" s="221"/>
-      <c r="L44" s="221"/>
-      <c r="M44" s="243"/>
-      <c r="N44" s="230"/>
-      <c r="O44" s="231"/>
-      <c r="P44" s="231"/>
-      <c r="Q44" s="232"/>
-      <c r="R44" s="239"/>
-      <c r="S44" s="240"/>
-      <c r="T44" s="240"/>
-      <c r="U44" s="240"/>
-      <c r="V44" s="241"/>
+      <c r="A44" s="215"/>
+      <c r="B44" s="216"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="217"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="240"/>
+      <c r="G44" s="240"/>
+      <c r="H44" s="240"/>
+      <c r="I44" s="240"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="240"/>
+      <c r="L44" s="240"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="224"/>
+      <c r="O44" s="225"/>
+      <c r="P44" s="225"/>
+      <c r="Q44" s="226"/>
+      <c r="R44" s="233"/>
+      <c r="S44" s="234"/>
+      <c r="T44" s="234"/>
+      <c r="U44" s="234"/>
+      <c r="V44" s="235"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="226"/>
-      <c r="E45" s="210" t="s">
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="211"/>
+      <c r="E45" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="211"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="212"/>
-      <c r="M45" s="223"/>
-      <c r="N45" s="224" t="s">
+      <c r="F45" s="219"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+      <c r="K45" s="220"/>
+      <c r="L45" s="220"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O45" s="225"/>
-      <c r="P45" s="225"/>
-      <c r="Q45" s="226"/>
-      <c r="R45" s="233"/>
-      <c r="S45" s="234"/>
-      <c r="T45" s="234"/>
-      <c r="U45" s="234"/>
-      <c r="V45" s="235"/>
+      <c r="O45" s="210"/>
+      <c r="P45" s="210"/>
+      <c r="Q45" s="211"/>
+      <c r="R45" s="227"/>
+      <c r="S45" s="228"/>
+      <c r="T45" s="228"/>
+      <c r="U45" s="228"/>
+      <c r="V45" s="229"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="244"/>
-      <c r="B46" s="228"/>
-      <c r="C46" s="228"/>
-      <c r="D46" s="229"/>
-      <c r="E46" s="214"/>
-      <c r="F46" s="215"/>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-      <c r="I46" s="215"/>
-      <c r="J46" s="215"/>
-      <c r="K46" s="215"/>
-      <c r="L46" s="215"/>
-      <c r="M46" s="242"/>
-      <c r="N46" s="227"/>
-      <c r="O46" s="228"/>
-      <c r="P46" s="228"/>
-      <c r="Q46" s="229"/>
-      <c r="R46" s="236"/>
-      <c r="S46" s="237"/>
-      <c r="T46" s="237"/>
-      <c r="U46" s="237"/>
-      <c r="V46" s="238"/>
+      <c r="A46" s="212"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="214"/>
+      <c r="E46" s="236"/>
+      <c r="F46" s="237"/>
+      <c r="G46" s="237"/>
+      <c r="H46" s="237"/>
+      <c r="I46" s="237"/>
+      <c r="J46" s="237"/>
+      <c r="K46" s="237"/>
+      <c r="L46" s="237"/>
+      <c r="M46" s="238"/>
+      <c r="N46" s="223"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="213"/>
+      <c r="Q46" s="214"/>
+      <c r="R46" s="230"/>
+      <c r="S46" s="231"/>
+      <c r="T46" s="231"/>
+      <c r="U46" s="231"/>
+      <c r="V46" s="232"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="245"/>
-      <c r="B47" s="246"/>
-      <c r="C47" s="246"/>
-      <c r="D47" s="247"/>
-      <c r="E47" s="220"/>
-      <c r="F47" s="221"/>
-      <c r="G47" s="221"/>
-      <c r="H47" s="221"/>
-      <c r="I47" s="221"/>
-      <c r="J47" s="221"/>
-      <c r="K47" s="221"/>
-      <c r="L47" s="221"/>
-      <c r="M47" s="243"/>
-      <c r="N47" s="230"/>
-      <c r="O47" s="231"/>
-      <c r="P47" s="231"/>
-      <c r="Q47" s="232"/>
-      <c r="R47" s="239"/>
-      <c r="S47" s="240"/>
-      <c r="T47" s="240"/>
-      <c r="U47" s="240"/>
-      <c r="V47" s="241"/>
+      <c r="A47" s="215"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="239"/>
+      <c r="F47" s="240"/>
+      <c r="G47" s="240"/>
+      <c r="H47" s="240"/>
+      <c r="I47" s="240"/>
+      <c r="J47" s="240"/>
+      <c r="K47" s="240"/>
+      <c r="L47" s="240"/>
+      <c r="M47" s="241"/>
+      <c r="N47" s="224"/>
+      <c r="O47" s="225"/>
+      <c r="P47" s="225"/>
+      <c r="Q47" s="226"/>
+      <c r="R47" s="233"/>
+      <c r="S47" s="234"/>
+      <c r="T47" s="234"/>
+      <c r="U47" s="234"/>
+      <c r="V47" s="235"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="225"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="210" t="s">
+      <c r="B48" s="210"/>
+      <c r="C48" s="210"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="211"/>
-      <c r="G48" s="212"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="212"/>
-      <c r="L48" s="212"/>
-      <c r="M48" s="223"/>
-      <c r="N48" s="224" t="s">
+      <c r="F48" s="219"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
+      <c r="K48" s="220"/>
+      <c r="L48" s="220"/>
+      <c r="M48" s="221"/>
+      <c r="N48" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="225"/>
-      <c r="P48" s="225"/>
-      <c r="Q48" s="226"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="234"/>
-      <c r="T48" s="234"/>
-      <c r="U48" s="234"/>
-      <c r="V48" s="235"/>
+      <c r="O48" s="210"/>
+      <c r="P48" s="210"/>
+      <c r="Q48" s="211"/>
+      <c r="R48" s="227"/>
+      <c r="S48" s="228"/>
+      <c r="T48" s="228"/>
+      <c r="U48" s="228"/>
+      <c r="V48" s="229"/>
     </row>
     <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="244"/>
-      <c r="B49" s="228"/>
-      <c r="C49" s="228"/>
-      <c r="D49" s="229"/>
-      <c r="E49" s="214"/>
-      <c r="F49" s="215"/>
-      <c r="G49" s="215"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="215"/>
-      <c r="K49" s="215"/>
-      <c r="L49" s="215"/>
-      <c r="M49" s="242"/>
-      <c r="N49" s="227"/>
-      <c r="O49" s="228"/>
-      <c r="P49" s="228"/>
-      <c r="Q49" s="229"/>
-      <c r="R49" s="236"/>
-      <c r="S49" s="237"/>
-      <c r="T49" s="237"/>
-      <c r="U49" s="237"/>
-      <c r="V49" s="238"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="213"/>
+      <c r="C49" s="213"/>
+      <c r="D49" s="214"/>
+      <c r="E49" s="236"/>
+      <c r="F49" s="237"/>
+      <c r="G49" s="237"/>
+      <c r="H49" s="237"/>
+      <c r="I49" s="237"/>
+      <c r="J49" s="237"/>
+      <c r="K49" s="237"/>
+      <c r="L49" s="237"/>
+      <c r="M49" s="238"/>
+      <c r="N49" s="223"/>
+      <c r="O49" s="213"/>
+      <c r="P49" s="213"/>
+      <c r="Q49" s="214"/>
+      <c r="R49" s="230"/>
+      <c r="S49" s="231"/>
+      <c r="T49" s="231"/>
+      <c r="U49" s="231"/>
+      <c r="V49" s="232"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="245"/>
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="247"/>
-      <c r="E50" s="220"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="221"/>
-      <c r="H50" s="221"/>
-      <c r="I50" s="221"/>
-      <c r="J50" s="221"/>
-      <c r="K50" s="221"/>
-      <c r="L50" s="221"/>
-      <c r="M50" s="243"/>
-      <c r="N50" s="230"/>
-      <c r="O50" s="231"/>
-      <c r="P50" s="231"/>
-      <c r="Q50" s="232"/>
-      <c r="R50" s="239"/>
-      <c r="S50" s="240"/>
-      <c r="T50" s="240"/>
-      <c r="U50" s="240"/>
-      <c r="V50" s="241"/>
+      <c r="A50" s="215"/>
+      <c r="B50" s="216"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="217"/>
+      <c r="E50" s="239"/>
+      <c r="F50" s="240"/>
+      <c r="G50" s="240"/>
+      <c r="H50" s="240"/>
+      <c r="I50" s="240"/>
+      <c r="J50" s="240"/>
+      <c r="K50" s="240"/>
+      <c r="L50" s="240"/>
+      <c r="M50" s="241"/>
+      <c r="N50" s="224"/>
+      <c r="O50" s="225"/>
+      <c r="P50" s="225"/>
+      <c r="Q50" s="226"/>
+      <c r="R50" s="233"/>
+      <c r="S50" s="234"/>
+      <c r="T50" s="234"/>
+      <c r="U50" s="234"/>
+      <c r="V50" s="235"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="225"/>
-      <c r="C51" s="225"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="210" t="s">
+      <c r="B51" s="210"/>
+      <c r="C51" s="210"/>
+      <c r="D51" s="211"/>
+      <c r="E51" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
-      <c r="H51" s="212"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="212"/>
-      <c r="K51" s="212"/>
-      <c r="L51" s="212"/>
-      <c r="M51" s="223"/>
-      <c r="N51" s="224" t="s">
+      <c r="F51" s="219"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="220"/>
+      <c r="I51" s="220"/>
+      <c r="J51" s="220"/>
+      <c r="K51" s="220"/>
+      <c r="L51" s="220"/>
+      <c r="M51" s="221"/>
+      <c r="N51" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="225"/>
-      <c r="P51" s="225"/>
-      <c r="Q51" s="226"/>
-      <c r="R51" s="233"/>
-      <c r="S51" s="234"/>
-      <c r="T51" s="234"/>
-      <c r="U51" s="234"/>
-      <c r="V51" s="235"/>
+      <c r="O51" s="210"/>
+      <c r="P51" s="210"/>
+      <c r="Q51" s="211"/>
+      <c r="R51" s="227"/>
+      <c r="S51" s="228"/>
+      <c r="T51" s="228"/>
+      <c r="U51" s="228"/>
+      <c r="V51" s="229"/>
     </row>
     <row r="52" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="244"/>
-      <c r="B52" s="228"/>
-      <c r="C52" s="228"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="214"/>
-      <c r="F52" s="215"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="215"/>
-      <c r="K52" s="215"/>
-      <c r="L52" s="215"/>
-      <c r="M52" s="242"/>
-      <c r="N52" s="227"/>
-      <c r="O52" s="228"/>
-      <c r="P52" s="228"/>
-      <c r="Q52" s="229"/>
-      <c r="R52" s="236"/>
-      <c r="S52" s="237"/>
-      <c r="T52" s="237"/>
-      <c r="U52" s="237"/>
-      <c r="V52" s="238"/>
+      <c r="A52" s="212"/>
+      <c r="B52" s="213"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="214"/>
+      <c r="E52" s="236"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="237"/>
+      <c r="H52" s="237"/>
+      <c r="I52" s="237"/>
+      <c r="J52" s="237"/>
+      <c r="K52" s="237"/>
+      <c r="L52" s="237"/>
+      <c r="M52" s="238"/>
+      <c r="N52" s="223"/>
+      <c r="O52" s="213"/>
+      <c r="P52" s="213"/>
+      <c r="Q52" s="214"/>
+      <c r="R52" s="230"/>
+      <c r="S52" s="231"/>
+      <c r="T52" s="231"/>
+      <c r="U52" s="231"/>
+      <c r="V52" s="232"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="245"/>
-      <c r="B53" s="246"/>
-      <c r="C53" s="246"/>
-      <c r="D53" s="247"/>
-      <c r="E53" s="220"/>
-      <c r="F53" s="221"/>
-      <c r="G53" s="221"/>
-      <c r="H53" s="221"/>
-      <c r="I53" s="221"/>
-      <c r="J53" s="221"/>
-      <c r="K53" s="221"/>
-      <c r="L53" s="221"/>
-      <c r="M53" s="243"/>
-      <c r="N53" s="230"/>
-      <c r="O53" s="231"/>
-      <c r="P53" s="231"/>
-      <c r="Q53" s="232"/>
-      <c r="R53" s="239"/>
-      <c r="S53" s="240"/>
-      <c r="T53" s="240"/>
-      <c r="U53" s="240"/>
-      <c r="V53" s="241"/>
+      <c r="A53" s="215"/>
+      <c r="B53" s="216"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="217"/>
+      <c r="E53" s="239"/>
+      <c r="F53" s="240"/>
+      <c r="G53" s="240"/>
+      <c r="H53" s="240"/>
+      <c r="I53" s="240"/>
+      <c r="J53" s="240"/>
+      <c r="K53" s="240"/>
+      <c r="L53" s="240"/>
+      <c r="M53" s="241"/>
+      <c r="N53" s="224"/>
+      <c r="O53" s="225"/>
+      <c r="P53" s="225"/>
+      <c r="Q53" s="226"/>
+      <c r="R53" s="233"/>
+      <c r="S53" s="234"/>
+      <c r="T53" s="234"/>
+      <c r="U53" s="234"/>
+      <c r="V53" s="235"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="225"/>
-      <c r="C54" s="225"/>
-      <c r="D54" s="226"/>
-      <c r="E54" s="210" t="s">
+      <c r="B54" s="210"/>
+      <c r="C54" s="210"/>
+      <c r="D54" s="211"/>
+      <c r="E54" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="211"/>
-      <c r="G54" s="212"/>
-      <c r="H54" s="212"/>
-      <c r="I54" s="212"/>
-      <c r="J54" s="212"/>
-      <c r="K54" s="212"/>
-      <c r="L54" s="212"/>
-      <c r="M54" s="223"/>
-      <c r="N54" s="224" t="s">
+      <c r="F54" s="219"/>
+      <c r="G54" s="220"/>
+      <c r="H54" s="220"/>
+      <c r="I54" s="220"/>
+      <c r="J54" s="220"/>
+      <c r="K54" s="220"/>
+      <c r="L54" s="220"/>
+      <c r="M54" s="221"/>
+      <c r="N54" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O54" s="225"/>
-      <c r="P54" s="225"/>
-      <c r="Q54" s="226"/>
-      <c r="R54" s="233"/>
-      <c r="S54" s="234"/>
-      <c r="T54" s="234"/>
-      <c r="U54" s="234"/>
-      <c r="V54" s="235"/>
+      <c r="O54" s="210"/>
+      <c r="P54" s="210"/>
+      <c r="Q54" s="211"/>
+      <c r="R54" s="227"/>
+      <c r="S54" s="228"/>
+      <c r="T54" s="228"/>
+      <c r="U54" s="228"/>
+      <c r="V54" s="229"/>
     </row>
     <row r="55" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="244"/>
-      <c r="B55" s="228"/>
-      <c r="C55" s="228"/>
-      <c r="D55" s="229"/>
-      <c r="E55" s="214"/>
-      <c r="F55" s="215"/>
-      <c r="G55" s="215"/>
-      <c r="H55" s="215"/>
-      <c r="I55" s="215"/>
-      <c r="J55" s="215"/>
-      <c r="K55" s="215"/>
-      <c r="L55" s="215"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="227"/>
-      <c r="O55" s="228"/>
-      <c r="P55" s="228"/>
-      <c r="Q55" s="229"/>
-      <c r="R55" s="236"/>
-      <c r="S55" s="237"/>
-      <c r="T55" s="237"/>
-      <c r="U55" s="237"/>
-      <c r="V55" s="238"/>
+      <c r="A55" s="212"/>
+      <c r="B55" s="213"/>
+      <c r="C55" s="213"/>
+      <c r="D55" s="214"/>
+      <c r="E55" s="236"/>
+      <c r="F55" s="237"/>
+      <c r="G55" s="237"/>
+      <c r="H55" s="237"/>
+      <c r="I55" s="237"/>
+      <c r="J55" s="237"/>
+      <c r="K55" s="237"/>
+      <c r="L55" s="237"/>
+      <c r="M55" s="238"/>
+      <c r="N55" s="223"/>
+      <c r="O55" s="213"/>
+      <c r="P55" s="213"/>
+      <c r="Q55" s="214"/>
+      <c r="R55" s="230"/>
+      <c r="S55" s="231"/>
+      <c r="T55" s="231"/>
+      <c r="U55" s="231"/>
+      <c r="V55" s="232"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="245"/>
-      <c r="B56" s="246"/>
-      <c r="C56" s="246"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="220"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="221"/>
-      <c r="J56" s="221"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="221"/>
-      <c r="M56" s="243"/>
-      <c r="N56" s="230"/>
-      <c r="O56" s="231"/>
-      <c r="P56" s="231"/>
-      <c r="Q56" s="232"/>
-      <c r="R56" s="239"/>
-      <c r="S56" s="240"/>
-      <c r="T56" s="240"/>
-      <c r="U56" s="240"/>
-      <c r="V56" s="241"/>
+      <c r="A56" s="215"/>
+      <c r="B56" s="216"/>
+      <c r="C56" s="216"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="239"/>
+      <c r="F56" s="240"/>
+      <c r="G56" s="240"/>
+      <c r="H56" s="240"/>
+      <c r="I56" s="240"/>
+      <c r="J56" s="240"/>
+      <c r="K56" s="240"/>
+      <c r="L56" s="240"/>
+      <c r="M56" s="241"/>
+      <c r="N56" s="224"/>
+      <c r="O56" s="225"/>
+      <c r="P56" s="225"/>
+      <c r="Q56" s="226"/>
+      <c r="R56" s="233"/>
+      <c r="S56" s="234"/>
+      <c r="T56" s="234"/>
+      <c r="U56" s="234"/>
+      <c r="V56" s="235"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="62" t="s">
+      <c r="A57" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="225"/>
-      <c r="C57" s="225"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="210" t="s">
+      <c r="B57" s="210"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="211"/>
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="211"/>
-      <c r="G57" s="212"/>
-      <c r="H57" s="212"/>
-      <c r="I57" s="212"/>
-      <c r="J57" s="212"/>
-      <c r="K57" s="212"/>
-      <c r="L57" s="212"/>
-      <c r="M57" s="223"/>
-      <c r="N57" s="224" t="s">
+      <c r="F57" s="219"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="220"/>
+      <c r="J57" s="220"/>
+      <c r="K57" s="220"/>
+      <c r="L57" s="220"/>
+      <c r="M57" s="221"/>
+      <c r="N57" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="225"/>
-      <c r="P57" s="225"/>
-      <c r="Q57" s="226"/>
-      <c r="R57" s="233"/>
-      <c r="S57" s="234"/>
-      <c r="T57" s="234"/>
-      <c r="U57" s="234"/>
-      <c r="V57" s="235"/>
+      <c r="O57" s="210"/>
+      <c r="P57" s="210"/>
+      <c r="Q57" s="211"/>
+      <c r="R57" s="227"/>
+      <c r="S57" s="228"/>
+      <c r="T57" s="228"/>
+      <c r="U57" s="228"/>
+      <c r="V57" s="229"/>
     </row>
     <row r="58" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="244"/>
-      <c r="B58" s="228"/>
-      <c r="C58" s="228"/>
-      <c r="D58" s="229"/>
-      <c r="E58" s="214"/>
-      <c r="F58" s="215"/>
-      <c r="G58" s="215"/>
-      <c r="H58" s="215"/>
-      <c r="I58" s="215"/>
-      <c r="J58" s="215"/>
-      <c r="K58" s="215"/>
-      <c r="L58" s="215"/>
-      <c r="M58" s="242"/>
-      <c r="N58" s="227"/>
-      <c r="O58" s="228"/>
-      <c r="P58" s="228"/>
-      <c r="Q58" s="229"/>
-      <c r="R58" s="236"/>
-      <c r="S58" s="237"/>
-      <c r="T58" s="237"/>
-      <c r="U58" s="237"/>
-      <c r="V58" s="238"/>
+      <c r="A58" s="212"/>
+      <c r="B58" s="213"/>
+      <c r="C58" s="213"/>
+      <c r="D58" s="214"/>
+      <c r="E58" s="236"/>
+      <c r="F58" s="237"/>
+      <c r="G58" s="237"/>
+      <c r="H58" s="237"/>
+      <c r="I58" s="237"/>
+      <c r="J58" s="237"/>
+      <c r="K58" s="237"/>
+      <c r="L58" s="237"/>
+      <c r="M58" s="238"/>
+      <c r="N58" s="223"/>
+      <c r="O58" s="213"/>
+      <c r="P58" s="213"/>
+      <c r="Q58" s="214"/>
+      <c r="R58" s="230"/>
+      <c r="S58" s="231"/>
+      <c r="T58" s="231"/>
+      <c r="U58" s="231"/>
+      <c r="V58" s="232"/>
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="245"/>
-      <c r="B59" s="246"/>
-      <c r="C59" s="246"/>
-      <c r="D59" s="247"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221"/>
-      <c r="H59" s="221"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
-      <c r="K59" s="221"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="243"/>
-      <c r="N59" s="230"/>
-      <c r="O59" s="231"/>
-      <c r="P59" s="231"/>
-      <c r="Q59" s="232"/>
-      <c r="R59" s="239"/>
-      <c r="S59" s="240"/>
-      <c r="T59" s="240"/>
-      <c r="U59" s="240"/>
-      <c r="V59" s="241"/>
+      <c r="A59" s="215"/>
+      <c r="B59" s="216"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="239"/>
+      <c r="F59" s="240"/>
+      <c r="G59" s="240"/>
+      <c r="H59" s="240"/>
+      <c r="I59" s="240"/>
+      <c r="J59" s="240"/>
+      <c r="K59" s="240"/>
+      <c r="L59" s="240"/>
+      <c r="M59" s="241"/>
+      <c r="N59" s="224"/>
+      <c r="O59" s="225"/>
+      <c r="P59" s="225"/>
+      <c r="Q59" s="226"/>
+      <c r="R59" s="233"/>
+      <c r="S59" s="234"/>
+      <c r="T59" s="234"/>
+      <c r="U59" s="234"/>
+      <c r="V59" s="235"/>
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="62" t="s">
+      <c r="A60" s="188" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="225"/>
-      <c r="C60" s="225"/>
-      <c r="D60" s="226"/>
-      <c r="E60" s="210" t="s">
+      <c r="B60" s="210"/>
+      <c r="C60" s="210"/>
+      <c r="D60" s="211"/>
+      <c r="E60" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="211"/>
-      <c r="G60" s="212"/>
-      <c r="H60" s="212"/>
-      <c r="I60" s="212"/>
-      <c r="J60" s="212"/>
-      <c r="K60" s="212"/>
-      <c r="L60" s="212"/>
-      <c r="M60" s="223"/>
-      <c r="N60" s="224" t="s">
+      <c r="F60" s="219"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="220"/>
+      <c r="K60" s="220"/>
+      <c r="L60" s="220"/>
+      <c r="M60" s="221"/>
+      <c r="N60" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O60" s="225"/>
-      <c r="P60" s="225"/>
-      <c r="Q60" s="226"/>
-      <c r="R60" s="233"/>
-      <c r="S60" s="234"/>
-      <c r="T60" s="234"/>
-      <c r="U60" s="234"/>
-      <c r="V60" s="235"/>
+      <c r="O60" s="210"/>
+      <c r="P60" s="210"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="227"/>
+      <c r="S60" s="228"/>
+      <c r="T60" s="228"/>
+      <c r="U60" s="228"/>
+      <c r="V60" s="229"/>
     </row>
     <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="244"/>
-      <c r="B61" s="228"/>
-      <c r="C61" s="228"/>
-      <c r="D61" s="229"/>
-      <c r="E61" s="214"/>
-      <c r="F61" s="215"/>
-      <c r="G61" s="215"/>
-      <c r="H61" s="215"/>
-      <c r="I61" s="215"/>
-      <c r="J61" s="215"/>
-      <c r="K61" s="215"/>
-      <c r="L61" s="215"/>
-      <c r="M61" s="242"/>
-      <c r="N61" s="227"/>
-      <c r="O61" s="228"/>
-      <c r="P61" s="228"/>
-      <c r="Q61" s="229"/>
-      <c r="R61" s="236"/>
-      <c r="S61" s="237"/>
-      <c r="T61" s="237"/>
-      <c r="U61" s="237"/>
-      <c r="V61" s="238"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="213"/>
+      <c r="C61" s="213"/>
+      <c r="D61" s="214"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="237"/>
+      <c r="G61" s="237"/>
+      <c r="H61" s="237"/>
+      <c r="I61" s="237"/>
+      <c r="J61" s="237"/>
+      <c r="K61" s="237"/>
+      <c r="L61" s="237"/>
+      <c r="M61" s="238"/>
+      <c r="N61" s="223"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="214"/>
+      <c r="R61" s="230"/>
+      <c r="S61" s="231"/>
+      <c r="T61" s="231"/>
+      <c r="U61" s="231"/>
+      <c r="V61" s="232"/>
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="245"/>
-      <c r="B62" s="246"/>
-      <c r="C62" s="246"/>
-      <c r="D62" s="247"/>
-      <c r="E62" s="220"/>
-      <c r="F62" s="221"/>
-      <c r="G62" s="221"/>
-      <c r="H62" s="221"/>
-      <c r="I62" s="221"/>
-      <c r="J62" s="221"/>
-      <c r="K62" s="221"/>
-      <c r="L62" s="221"/>
-      <c r="M62" s="243"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="231"/>
-      <c r="P62" s="231"/>
-      <c r="Q62" s="232"/>
-      <c r="R62" s="239"/>
-      <c r="S62" s="240"/>
-      <c r="T62" s="240"/>
-      <c r="U62" s="240"/>
-      <c r="V62" s="241"/>
+      <c r="A62" s="215"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="240"/>
+      <c r="G62" s="240"/>
+      <c r="H62" s="240"/>
+      <c r="I62" s="240"/>
+      <c r="J62" s="240"/>
+      <c r="K62" s="240"/>
+      <c r="L62" s="240"/>
+      <c r="M62" s="241"/>
+      <c r="N62" s="224"/>
+      <c r="O62" s="225"/>
+      <c r="P62" s="225"/>
+      <c r="Q62" s="226"/>
+      <c r="R62" s="233"/>
+      <c r="S62" s="234"/>
+      <c r="T62" s="234"/>
+      <c r="U62" s="234"/>
+      <c r="V62" s="235"/>
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="62" t="s">
+      <c r="A63" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="225"/>
-      <c r="C63" s="225"/>
-      <c r="D63" s="226"/>
-      <c r="E63" s="210" t="s">
+      <c r="B63" s="210"/>
+      <c r="C63" s="210"/>
+      <c r="D63" s="211"/>
+      <c r="E63" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="211"/>
-      <c r="G63" s="212"/>
-      <c r="H63" s="212"/>
-      <c r="I63" s="212"/>
-      <c r="J63" s="212"/>
-      <c r="K63" s="212"/>
-      <c r="L63" s="212"/>
-      <c r="M63" s="223"/>
-      <c r="N63" s="224" t="s">
+      <c r="F63" s="219"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="220"/>
+      <c r="I63" s="220"/>
+      <c r="J63" s="220"/>
+      <c r="K63" s="220"/>
+      <c r="L63" s="220"/>
+      <c r="M63" s="221"/>
+      <c r="N63" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O63" s="225"/>
-      <c r="P63" s="225"/>
-      <c r="Q63" s="226"/>
-      <c r="R63" s="233"/>
-      <c r="S63" s="234"/>
-      <c r="T63" s="234"/>
-      <c r="U63" s="234"/>
-      <c r="V63" s="235"/>
+      <c r="O63" s="210"/>
+      <c r="P63" s="210"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="227"/>
+      <c r="S63" s="228"/>
+      <c r="T63" s="228"/>
+      <c r="U63" s="228"/>
+      <c r="V63" s="229"/>
     </row>
     <row r="64" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="244"/>
-      <c r="B64" s="228"/>
-      <c r="C64" s="228"/>
-      <c r="D64" s="229"/>
-      <c r="E64" s="214"/>
-      <c r="F64" s="215"/>
-      <c r="G64" s="215"/>
-      <c r="H64" s="215"/>
-      <c r="I64" s="215"/>
-      <c r="J64" s="215"/>
-      <c r="K64" s="215"/>
-      <c r="L64" s="215"/>
-      <c r="M64" s="242"/>
-      <c r="N64" s="227"/>
-      <c r="O64" s="228"/>
-      <c r="P64" s="228"/>
-      <c r="Q64" s="229"/>
-      <c r="R64" s="236"/>
-      <c r="S64" s="237"/>
-      <c r="T64" s="237"/>
-      <c r="U64" s="237"/>
-      <c r="V64" s="238"/>
+      <c r="A64" s="212"/>
+      <c r="B64" s="213"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="214"/>
+      <c r="E64" s="236"/>
+      <c r="F64" s="237"/>
+      <c r="G64" s="237"/>
+      <c r="H64" s="237"/>
+      <c r="I64" s="237"/>
+      <c r="J64" s="237"/>
+      <c r="K64" s="237"/>
+      <c r="L64" s="237"/>
+      <c r="M64" s="238"/>
+      <c r="N64" s="223"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="214"/>
+      <c r="R64" s="230"/>
+      <c r="S64" s="231"/>
+      <c r="T64" s="231"/>
+      <c r="U64" s="231"/>
+      <c r="V64" s="232"/>
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="245"/>
-      <c r="B65" s="246"/>
-      <c r="C65" s="246"/>
-      <c r="D65" s="247"/>
-      <c r="E65" s="220"/>
-      <c r="F65" s="221"/>
-      <c r="G65" s="221"/>
-      <c r="H65" s="221"/>
-      <c r="I65" s="221"/>
-      <c r="J65" s="221"/>
-      <c r="K65" s="221"/>
-      <c r="L65" s="221"/>
-      <c r="M65" s="243"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="231"/>
-      <c r="P65" s="231"/>
-      <c r="Q65" s="232"/>
-      <c r="R65" s="239"/>
-      <c r="S65" s="240"/>
-      <c r="T65" s="240"/>
-      <c r="U65" s="240"/>
-      <c r="V65" s="241"/>
+      <c r="A65" s="215"/>
+      <c r="B65" s="216"/>
+      <c r="C65" s="216"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="239"/>
+      <c r="F65" s="240"/>
+      <c r="G65" s="240"/>
+      <c r="H65" s="240"/>
+      <c r="I65" s="240"/>
+      <c r="J65" s="240"/>
+      <c r="K65" s="240"/>
+      <c r="L65" s="240"/>
+      <c r="M65" s="241"/>
+      <c r="N65" s="224"/>
+      <c r="O65" s="225"/>
+      <c r="P65" s="225"/>
+      <c r="Q65" s="226"/>
+      <c r="R65" s="233"/>
+      <c r="S65" s="234"/>
+      <c r="T65" s="234"/>
+      <c r="U65" s="234"/>
+      <c r="V65" s="235"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="62" t="s">
+      <c r="A66" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="225"/>
-      <c r="C66" s="225"/>
-      <c r="D66" s="226"/>
-      <c r="E66" s="210" t="s">
+      <c r="B66" s="210"/>
+      <c r="C66" s="210"/>
+      <c r="D66" s="211"/>
+      <c r="E66" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="211"/>
-      <c r="G66" s="212"/>
-      <c r="H66" s="212"/>
-      <c r="I66" s="212"/>
-      <c r="J66" s="212"/>
-      <c r="K66" s="212"/>
-      <c r="L66" s="212"/>
-      <c r="M66" s="223"/>
-      <c r="N66" s="224" t="s">
+      <c r="F66" s="219"/>
+      <c r="G66" s="220"/>
+      <c r="H66" s="220"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="220"/>
+      <c r="K66" s="220"/>
+      <c r="L66" s="220"/>
+      <c r="M66" s="221"/>
+      <c r="N66" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O66" s="225"/>
-      <c r="P66" s="225"/>
-      <c r="Q66" s="226"/>
-      <c r="R66" s="233"/>
-      <c r="S66" s="234"/>
-      <c r="T66" s="234"/>
-      <c r="U66" s="234"/>
-      <c r="V66" s="235"/>
+      <c r="O66" s="210"/>
+      <c r="P66" s="210"/>
+      <c r="Q66" s="211"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="228"/>
+      <c r="T66" s="228"/>
+      <c r="U66" s="228"/>
+      <c r="V66" s="229"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="244"/>
-      <c r="B67" s="228"/>
-      <c r="C67" s="228"/>
-      <c r="D67" s="229"/>
-      <c r="E67" s="214"/>
-      <c r="F67" s="215"/>
-      <c r="G67" s="215"/>
-      <c r="H67" s="215"/>
-      <c r="I67" s="215"/>
-      <c r="J67" s="215"/>
-      <c r="K67" s="215"/>
-      <c r="L67" s="215"/>
-      <c r="M67" s="242"/>
-      <c r="N67" s="227"/>
-      <c r="O67" s="228"/>
-      <c r="P67" s="228"/>
-      <c r="Q67" s="229"/>
-      <c r="R67" s="236"/>
-      <c r="S67" s="237"/>
-      <c r="T67" s="237"/>
-      <c r="U67" s="237"/>
-      <c r="V67" s="238"/>
+      <c r="A67" s="212"/>
+      <c r="B67" s="213"/>
+      <c r="C67" s="213"/>
+      <c r="D67" s="214"/>
+      <c r="E67" s="236"/>
+      <c r="F67" s="237"/>
+      <c r="G67" s="237"/>
+      <c r="H67" s="237"/>
+      <c r="I67" s="237"/>
+      <c r="J67" s="237"/>
+      <c r="K67" s="237"/>
+      <c r="L67" s="237"/>
+      <c r="M67" s="238"/>
+      <c r="N67" s="223"/>
+      <c r="O67" s="213"/>
+      <c r="P67" s="213"/>
+      <c r="Q67" s="214"/>
+      <c r="R67" s="230"/>
+      <c r="S67" s="231"/>
+      <c r="T67" s="231"/>
+      <c r="U67" s="231"/>
+      <c r="V67" s="232"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="245"/>
-      <c r="B68" s="246"/>
-      <c r="C68" s="246"/>
-      <c r="D68" s="247"/>
-      <c r="E68" s="220"/>
-      <c r="F68" s="221"/>
-      <c r="G68" s="221"/>
-      <c r="H68" s="221"/>
-      <c r="I68" s="221"/>
-      <c r="J68" s="221"/>
-      <c r="K68" s="221"/>
-      <c r="L68" s="221"/>
-      <c r="M68" s="243"/>
-      <c r="N68" s="230"/>
-      <c r="O68" s="231"/>
-      <c r="P68" s="231"/>
-      <c r="Q68" s="232"/>
-      <c r="R68" s="239"/>
-      <c r="S68" s="240"/>
-      <c r="T68" s="240"/>
-      <c r="U68" s="240"/>
-      <c r="V68" s="241"/>
+      <c r="A68" s="215"/>
+      <c r="B68" s="216"/>
+      <c r="C68" s="216"/>
+      <c r="D68" s="217"/>
+      <c r="E68" s="239"/>
+      <c r="F68" s="240"/>
+      <c r="G68" s="240"/>
+      <c r="H68" s="240"/>
+      <c r="I68" s="240"/>
+      <c r="J68" s="240"/>
+      <c r="K68" s="240"/>
+      <c r="L68" s="240"/>
+      <c r="M68" s="241"/>
+      <c r="N68" s="224"/>
+      <c r="O68" s="225"/>
+      <c r="P68" s="225"/>
+      <c r="Q68" s="226"/>
+      <c r="R68" s="233"/>
+      <c r="S68" s="234"/>
+      <c r="T68" s="234"/>
+      <c r="U68" s="234"/>
+      <c r="V68" s="235"/>
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="225"/>
-      <c r="C69" s="225"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="210" t="s">
+      <c r="B69" s="210"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="211"/>
-      <c r="G69" s="212"/>
-      <c r="H69" s="212"/>
-      <c r="I69" s="212"/>
-      <c r="J69" s="212"/>
-      <c r="K69" s="212"/>
-      <c r="L69" s="212"/>
-      <c r="M69" s="223"/>
-      <c r="N69" s="224" t="s">
+      <c r="F69" s="219"/>
+      <c r="G69" s="220"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="220"/>
+      <c r="J69" s="220"/>
+      <c r="K69" s="220"/>
+      <c r="L69" s="220"/>
+      <c r="M69" s="221"/>
+      <c r="N69" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O69" s="225"/>
-      <c r="P69" s="225"/>
-      <c r="Q69" s="226"/>
-      <c r="R69" s="233"/>
-      <c r="S69" s="234"/>
-      <c r="T69" s="234"/>
-      <c r="U69" s="234"/>
-      <c r="V69" s="235"/>
+      <c r="O69" s="210"/>
+      <c r="P69" s="210"/>
+      <c r="Q69" s="211"/>
+      <c r="R69" s="227"/>
+      <c r="S69" s="228"/>
+      <c r="T69" s="228"/>
+      <c r="U69" s="228"/>
+      <c r="V69" s="229"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="244"/>
-      <c r="B70" s="228"/>
-      <c r="C70" s="228"/>
-      <c r="D70" s="229"/>
-      <c r="E70" s="214"/>
-      <c r="F70" s="215"/>
-      <c r="G70" s="215"/>
-      <c r="H70" s="215"/>
-      <c r="I70" s="215"/>
-      <c r="J70" s="215"/>
-      <c r="K70" s="215"/>
-      <c r="L70" s="215"/>
-      <c r="M70" s="242"/>
-      <c r="N70" s="227"/>
-      <c r="O70" s="228"/>
-      <c r="P70" s="228"/>
-      <c r="Q70" s="229"/>
-      <c r="R70" s="236"/>
-      <c r="S70" s="237"/>
-      <c r="T70" s="237"/>
-      <c r="U70" s="237"/>
-      <c r="V70" s="238"/>
+      <c r="A70" s="212"/>
+      <c r="B70" s="213"/>
+      <c r="C70" s="213"/>
+      <c r="D70" s="214"/>
+      <c r="E70" s="236"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="237"/>
+      <c r="H70" s="237"/>
+      <c r="I70" s="237"/>
+      <c r="J70" s="237"/>
+      <c r="K70" s="237"/>
+      <c r="L70" s="237"/>
+      <c r="M70" s="238"/>
+      <c r="N70" s="223"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="213"/>
+      <c r="Q70" s="214"/>
+      <c r="R70" s="230"/>
+      <c r="S70" s="231"/>
+      <c r="T70" s="231"/>
+      <c r="U70" s="231"/>
+      <c r="V70" s="232"/>
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="245"/>
-      <c r="B71" s="246"/>
-      <c r="C71" s="246"/>
-      <c r="D71" s="247"/>
-      <c r="E71" s="220"/>
-      <c r="F71" s="221"/>
-      <c r="G71" s="221"/>
-      <c r="H71" s="221"/>
-      <c r="I71" s="221"/>
-      <c r="J71" s="221"/>
-      <c r="K71" s="221"/>
-      <c r="L71" s="221"/>
-      <c r="M71" s="243"/>
-      <c r="N71" s="230"/>
-      <c r="O71" s="231"/>
-      <c r="P71" s="231"/>
-      <c r="Q71" s="232"/>
-      <c r="R71" s="239"/>
-      <c r="S71" s="240"/>
-      <c r="T71" s="240"/>
-      <c r="U71" s="240"/>
-      <c r="V71" s="241"/>
+      <c r="A71" s="215"/>
+      <c r="B71" s="216"/>
+      <c r="C71" s="216"/>
+      <c r="D71" s="217"/>
+      <c r="E71" s="239"/>
+      <c r="F71" s="240"/>
+      <c r="G71" s="240"/>
+      <c r="H71" s="240"/>
+      <c r="I71" s="240"/>
+      <c r="J71" s="240"/>
+      <c r="K71" s="240"/>
+      <c r="L71" s="240"/>
+      <c r="M71" s="241"/>
+      <c r="N71" s="224"/>
+      <c r="O71" s="225"/>
+      <c r="P71" s="225"/>
+      <c r="Q71" s="226"/>
+      <c r="R71" s="233"/>
+      <c r="S71" s="234"/>
+      <c r="T71" s="234"/>
+      <c r="U71" s="234"/>
+      <c r="V71" s="235"/>
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="225"/>
-      <c r="C72" s="225"/>
-      <c r="D72" s="226"/>
-      <c r="E72" s="210" t="s">
+      <c r="B72" s="210"/>
+      <c r="C72" s="210"/>
+      <c r="D72" s="211"/>
+      <c r="E72" s="218" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="211"/>
-      <c r="G72" s="212"/>
-      <c r="H72" s="212"/>
-      <c r="I72" s="212"/>
-      <c r="J72" s="212"/>
-      <c r="K72" s="212"/>
-      <c r="L72" s="212"/>
-      <c r="M72" s="223"/>
-      <c r="N72" s="224" t="s">
+      <c r="F72" s="219"/>
+      <c r="G72" s="220"/>
+      <c r="H72" s="220"/>
+      <c r="I72" s="220"/>
+      <c r="J72" s="220"/>
+      <c r="K72" s="220"/>
+      <c r="L72" s="220"/>
+      <c r="M72" s="221"/>
+      <c r="N72" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="O72" s="225"/>
-      <c r="P72" s="225"/>
-      <c r="Q72" s="226"/>
-      <c r="R72" s="233"/>
-      <c r="S72" s="234"/>
-      <c r="T72" s="234"/>
-      <c r="U72" s="234"/>
-      <c r="V72" s="235"/>
+      <c r="O72" s="210"/>
+      <c r="P72" s="210"/>
+      <c r="Q72" s="211"/>
+      <c r="R72" s="227"/>
+      <c r="S72" s="228"/>
+      <c r="T72" s="228"/>
+      <c r="U72" s="228"/>
+      <c r="V72" s="229"/>
     </row>
     <row r="73" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="244"/>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="229"/>
-      <c r="E73" s="214"/>
-      <c r="F73" s="215"/>
-      <c r="G73" s="215"/>
-      <c r="H73" s="215"/>
-      <c r="I73" s="215"/>
-      <c r="J73" s="215"/>
-      <c r="K73" s="215"/>
-      <c r="L73" s="215"/>
-      <c r="M73" s="242"/>
-      <c r="N73" s="227"/>
-      <c r="O73" s="228"/>
-      <c r="P73" s="228"/>
-      <c r="Q73" s="229"/>
-      <c r="R73" s="236"/>
-      <c r="S73" s="237"/>
-      <c r="T73" s="237"/>
-      <c r="U73" s="237"/>
-      <c r="V73" s="238"/>
+      <c r="A73" s="212"/>
+      <c r="B73" s="213"/>
+      <c r="C73" s="213"/>
+      <c r="D73" s="214"/>
+      <c r="E73" s="236"/>
+      <c r="F73" s="237"/>
+      <c r="G73" s="237"/>
+      <c r="H73" s="237"/>
+      <c r="I73" s="237"/>
+      <c r="J73" s="237"/>
+      <c r="K73" s="237"/>
+      <c r="L73" s="237"/>
+      <c r="M73" s="238"/>
+      <c r="N73" s="223"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="214"/>
+      <c r="R73" s="230"/>
+      <c r="S73" s="231"/>
+      <c r="T73" s="231"/>
+      <c r="U73" s="231"/>
+      <c r="V73" s="232"/>
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="248"/>
-      <c r="B74" s="231"/>
-      <c r="C74" s="231"/>
-      <c r="D74" s="232"/>
-      <c r="E74" s="220"/>
-      <c r="F74" s="221"/>
-      <c r="G74" s="221"/>
-      <c r="H74" s="221"/>
-      <c r="I74" s="221"/>
-      <c r="J74" s="221"/>
-      <c r="K74" s="221"/>
-      <c r="L74" s="221"/>
-      <c r="M74" s="243"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="231"/>
-      <c r="P74" s="231"/>
-      <c r="Q74" s="232"/>
-      <c r="R74" s="239"/>
-      <c r="S74" s="240"/>
-      <c r="T74" s="240"/>
-      <c r="U74" s="240"/>
-      <c r="V74" s="241"/>
+      <c r="A74" s="242"/>
+      <c r="B74" s="225"/>
+      <c r="C74" s="225"/>
+      <c r="D74" s="226"/>
+      <c r="E74" s="239"/>
+      <c r="F74" s="240"/>
+      <c r="G74" s="240"/>
+      <c r="H74" s="240"/>
+      <c r="I74" s="240"/>
+      <c r="J74" s="240"/>
+      <c r="K74" s="240"/>
+      <c r="L74" s="240"/>
+      <c r="M74" s="241"/>
+      <c r="N74" s="224"/>
+      <c r="O74" s="225"/>
+      <c r="P74" s="225"/>
+      <c r="Q74" s="226"/>
+      <c r="R74" s="233"/>
+      <c r="S74" s="234"/>
+      <c r="T74" s="234"/>
+      <c r="U74" s="234"/>
+      <c r="V74" s="235"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8+RHXI0uyuPEn4xEDoSZ+V0WgGk2xm6ijICHnWOblV6qToCzu4GhDLMOI55j1BW0QpXQ31me8+46kjnUXPMQUA==" saltValue="zDq0m0fpGE1hYBX1TzkbFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="132">
-    <mergeCell ref="A57:D59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="N57:Q59"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="A66:D68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="N66:Q68"/>
-    <mergeCell ref="R66:V68"/>
-    <mergeCell ref="E67:M68"/>
-    <mergeCell ref="A63:D65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="N63:Q65"/>
-    <mergeCell ref="R63:V65"/>
-    <mergeCell ref="E64:M65"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="E6:V9"/>
+    <mergeCell ref="A18:D20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="N18:Q20"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:V10"/>
+    <mergeCell ref="E11:V14"/>
+    <mergeCell ref="N15:Q17"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="R18:V20"/>
+    <mergeCell ref="E19:M20"/>
+    <mergeCell ref="A21:D23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="R15:V17"/>
+    <mergeCell ref="G21:M21"/>
+    <mergeCell ref="N21:Q23"/>
+    <mergeCell ref="R21:V23"/>
+    <mergeCell ref="A30:D32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="E22:M23"/>
+    <mergeCell ref="A24:D26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="N24:Q26"/>
+    <mergeCell ref="R24:V26"/>
+    <mergeCell ref="E25:M26"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="E16:M17"/>
+    <mergeCell ref="N30:Q32"/>
+    <mergeCell ref="R30:V32"/>
+    <mergeCell ref="E31:M32"/>
+    <mergeCell ref="A27:D29"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:Q29"/>
+    <mergeCell ref="R27:V29"/>
+    <mergeCell ref="E28:M29"/>
+    <mergeCell ref="N33:Q35"/>
+    <mergeCell ref="R33:V35"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="A36:D38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="N36:Q38"/>
+    <mergeCell ref="R36:V38"/>
+    <mergeCell ref="E37:M38"/>
+    <mergeCell ref="A33:D35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:Q47"/>
+    <mergeCell ref="R45:V47"/>
+    <mergeCell ref="E46:M47"/>
+    <mergeCell ref="R39:V41"/>
+    <mergeCell ref="E40:M41"/>
+    <mergeCell ref="A42:D44"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:Q44"/>
+    <mergeCell ref="R42:V44"/>
+    <mergeCell ref="E43:M44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:Q41"/>
+    <mergeCell ref="A51:D53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:Q53"/>
+    <mergeCell ref="R51:V53"/>
+    <mergeCell ref="E52:M53"/>
+    <mergeCell ref="A48:D50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:Q50"/>
+    <mergeCell ref="R48:V50"/>
+    <mergeCell ref="E49:M50"/>
     <mergeCell ref="A54:D56"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="G54:M54"/>
@@ -8146,96 +8245,24 @@
     <mergeCell ref="N60:Q62"/>
     <mergeCell ref="R60:V62"/>
     <mergeCell ref="E61:M62"/>
-    <mergeCell ref="A51:D53"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:Q53"/>
-    <mergeCell ref="R51:V53"/>
-    <mergeCell ref="E52:M53"/>
-    <mergeCell ref="A48:D50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:Q50"/>
-    <mergeCell ref="R48:V50"/>
-    <mergeCell ref="E49:M50"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:Q47"/>
-    <mergeCell ref="R45:V47"/>
-    <mergeCell ref="E46:M47"/>
-    <mergeCell ref="R39:V41"/>
-    <mergeCell ref="E40:M41"/>
-    <mergeCell ref="A42:D44"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:Q44"/>
-    <mergeCell ref="R42:V44"/>
-    <mergeCell ref="E43:M44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:Q41"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:Q29"/>
-    <mergeCell ref="R27:V29"/>
-    <mergeCell ref="E28:M29"/>
-    <mergeCell ref="N33:Q35"/>
-    <mergeCell ref="R33:V35"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="A36:D38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="N36:Q38"/>
-    <mergeCell ref="R36:V38"/>
-    <mergeCell ref="E37:M38"/>
-    <mergeCell ref="A33:D35"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="A21:D23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="R15:V17"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="N21:Q23"/>
-    <mergeCell ref="R21:V23"/>
-    <mergeCell ref="A30:D32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:M30"/>
-    <mergeCell ref="E22:M23"/>
-    <mergeCell ref="A24:D26"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="N24:Q26"/>
-    <mergeCell ref="R24:V26"/>
-    <mergeCell ref="E25:M26"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="E16:M17"/>
-    <mergeCell ref="N30:Q32"/>
-    <mergeCell ref="R30:V32"/>
-    <mergeCell ref="E31:M32"/>
-    <mergeCell ref="A27:D29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="E6:V9"/>
-    <mergeCell ref="A18:D20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="N18:Q20"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="E11:V14"/>
-    <mergeCell ref="N15:Q17"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="R18:V20"/>
-    <mergeCell ref="E19:M20"/>
+    <mergeCell ref="A57:D59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="N57:Q59"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="A66:D68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="N66:Q68"/>
+    <mergeCell ref="R66:V68"/>
+    <mergeCell ref="E67:M68"/>
+    <mergeCell ref="A63:D65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="N63:Q65"/>
+    <mergeCell ref="R63:V65"/>
+    <mergeCell ref="E64:M65"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/contest18_oubo.xlsx
+++ b/contest18_oubo.xlsx
@@ -1994,18 +1994,527 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2013,514 +2522,62 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2528,15 +2585,71 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2546,121 +2659,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4079,7 +4079,7 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:V48"/>
     </sheetView>
   </sheetViews>
@@ -4111,18 +4111,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4139,17 +4139,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="183"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="186"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -4174,26 +4174,26 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="187" t="s">
+      <c r="N4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="197"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4213,11 +4213,11 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="198"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="14" t="s">
         <v>24</v>
       </c>
@@ -4227,667 +4227,667 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="203" t="s">
+      <c r="M6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="204" t="s">
+      <c r="N6" s="77"/>
+      <c r="O6" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="204"/>
-      <c r="Q6" s="204"/>
-      <c r="R6" s="204"/>
-      <c r="S6" s="204"/>
-      <c r="T6" s="204"/>
-      <c r="U6" s="204"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="199"/>
-      <c r="I7" s="201">
+      <c r="H7" s="73"/>
+      <c r="I7" s="75">
         <v>3</v>
       </c>
-      <c r="J7" s="201"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="207" t="s">
+      <c r="M7" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="207"/>
-      <c r="O7" s="205" t="s">
+      <c r="N7" s="81"/>
+      <c r="O7" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="205"/>
-      <c r="R7" s="205"/>
-      <c r="S7" s="205"/>
-      <c r="T7" s="205"/>
-      <c r="U7" s="205"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="5"/>
       <c r="F8" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="199"/>
-      <c r="I8" s="201"/>
-      <c r="J8" s="201"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
       <c r="L8" s="19"/>
-      <c r="M8" s="208"/>
-      <c r="N8" s="208"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="206"/>
-      <c r="Q8" s="206"/>
-      <c r="R8" s="206"/>
-      <c r="S8" s="206"/>
-      <c r="T8" s="206"/>
-      <c r="U8" s="206"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="202"/>
-      <c r="J9" s="202"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="209" t="s">
+      <c r="M9" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="46"/>
     </row>
     <row r="10" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="163" t="s">
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165" t="s">
+      <c r="F10" s="118"/>
+      <c r="G10" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="165"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="165"/>
-      <c r="M10" s="165"/>
-      <c r="N10" s="165"/>
-      <c r="O10" s="165"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="167" t="s">
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="S10" s="168"/>
-      <c r="T10" s="173">
+      <c r="S10" s="122"/>
+      <c r="T10" s="127">
         <v>18</v>
       </c>
-      <c r="U10" s="173"/>
+      <c r="U10" s="127"/>
       <c r="V10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="157"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="175" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="169"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="85"/>
-      <c r="U11" s="85"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="131"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
+      <c r="P11" s="131"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="157"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="85"/>
-      <c r="U12" s="85"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="134"/>
+      <c r="O12" s="134"/>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="123"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
       <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="157"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="85"/>
-      <c r="U13" s="85"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
       <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="157"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="137" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
+      <c r="O14" s="134"/>
+      <c r="P14" s="134"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="123"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="84" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="160"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="161"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="179"/>
-      <c r="R15" s="171"/>
-      <c r="S15" s="172"/>
-      <c r="T15" s="174"/>
-      <c r="U15" s="174"/>
-      <c r="V15" s="138"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="85"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A16" s="139" t="s">
+      <c r="A16" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="143" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="144"/>
-      <c r="O16" s="144"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="144"/>
-      <c r="S16" s="144"/>
-      <c r="T16" s="144"/>
-      <c r="U16" s="144"/>
-      <c r="V16" s="145"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="97"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A17" s="118"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="148"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="99"/>
+      <c r="V17" s="100"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A18" s="118"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
-      <c r="O18" s="147"/>
-      <c r="P18" s="147"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="148"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="100"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A19" s="118"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="147"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
-      <c r="O19" s="147"/>
-      <c r="P19" s="147"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="148"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+      <c r="T19" s="99"/>
+      <c r="U19" s="99"/>
+      <c r="V19" s="100"/>
     </row>
     <row r="20" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="150"/>
-      <c r="P20" s="150"/>
-      <c r="Q20" s="150"/>
-      <c r="R20" s="150"/>
-      <c r="S20" s="150"/>
-      <c r="T20" s="150"/>
-      <c r="U20" s="150"/>
-      <c r="V20" s="151"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="103"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="117"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="152" t="s">
+      <c r="F21" s="106" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="152"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="153" t="s">
+      <c r="I21" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="J21" s="153"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="153"/>
-      <c r="Q21" s="153"/>
-      <c r="R21" s="153"/>
-      <c r="S21" s="153"/>
-      <c r="T21" s="153"/>
-      <c r="U21" s="153"/>
-      <c r="V21" s="154"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A22" s="118"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="146" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="148"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="99"/>
+      <c r="R22" s="99"/>
+      <c r="S22" s="99"/>
+      <c r="T22" s="99"/>
+      <c r="U22" s="99"/>
+      <c r="V22" s="100"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A23" s="118"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="147"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
-      <c r="O23" s="147"/>
-      <c r="P23" s="147"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="148"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="100"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A24" s="118"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="147"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
-      <c r="O24" s="147"/>
-      <c r="P24" s="147"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="148"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
+      <c r="Q24" s="99"/>
+      <c r="R24" s="99"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="99"/>
+      <c r="U24" s="99"/>
+      <c r="V24" s="100"/>
     </row>
     <row r="25" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="140"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="150"/>
-      <c r="P25" s="150"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="151"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="103"/>
     </row>
     <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="113" t="s">
+      <c r="A26" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="124" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="125"/>
-      <c r="G26" s="127" t="s">
+      <c r="F26" s="143"/>
+      <c r="G26" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="127"/>
-      <c r="L26" s="127"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="127"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
       <c r="U26" s="29"/>
       <c r="V26" s="25"/>
     </row>
     <row r="27" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="118"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="120"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
+      <c r="M27" s="147"/>
+      <c r="N27" s="147"/>
+      <c r="O27" s="147"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="147"/>
       <c r="V27" s="20"/>
     </row>
     <row r="28" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="118"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
       <c r="S28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="T28" s="130" t="s">
+      <c r="T28" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="U28" s="130"/>
+      <c r="U28" s="149"/>
       <c r="V28" s="31"/>
     </row>
     <row r="29" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="131" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="132"/>
-      <c r="G29" s="135" t="s">
+      <c r="F29" s="151"/>
+      <c r="G29" s="154" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="135"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="135"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="154"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
       <c r="S29" s="32"/>
-      <c r="T29" s="130" t="s">
+      <c r="T29" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="U29" s="130"/>
+      <c r="U29" s="149"/>
       <c r="V29" s="31"/>
     </row>
     <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="120"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
+      <c r="A30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="147"/>
       <c r="V30" s="20"/>
     </row>
     <row r="31" spans="1:22" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="121"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="136"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
@@ -4895,214 +4895,214 @@
     </row>
     <row r="32" spans="1:22" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:22" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
+      <c r="B33" s="158"/>
+      <c r="C33" s="158"/>
+      <c r="D33" s="159"/>
       <c r="E33" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="82" t="s">
+      <c r="F33" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="83"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="166"/>
+      <c r="Q33" s="166"/>
+      <c r="R33" s="166"/>
+      <c r="S33" s="166"/>
+      <c r="T33" s="166"/>
+      <c r="U33" s="166"/>
+      <c r="V33" s="167"/>
     </row>
     <row r="34" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="84" t="s">
+      <c r="A34" s="160"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="168" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="86"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="169"/>
     </row>
     <row r="35" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="86"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="169"/>
     </row>
     <row r="36" spans="1:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="86"/>
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="162"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
+      <c r="R36" s="128"/>
+      <c r="S36" s="128"/>
+      <c r="T36" s="128"/>
+      <c r="U36" s="128"/>
+      <c r="V36" s="169"/>
     </row>
     <row r="37" spans="1:22" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="87" t="s">
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89">
+      <c r="F37" s="171"/>
+      <c r="G37" s="172">
         <v>2</v>
       </c>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="89"/>
-      <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
-      <c r="T37" s="89"/>
-      <c r="U37" s="90" t="s">
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="M37" s="172"/>
+      <c r="N37" s="172"/>
+      <c r="O37" s="172"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="172"/>
+      <c r="R37" s="172"/>
+      <c r="S37" s="172"/>
+      <c r="T37" s="172"/>
+      <c r="U37" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="V37" s="91"/>
+      <c r="V37" s="174"/>
     </row>
     <row r="38" spans="1:22" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="116"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="196"/>
       <c r="E38" s="36" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="60"/>
-      <c r="M38" s="60"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="60"/>
-      <c r="T38" s="60"/>
-      <c r="U38" s="60"/>
-      <c r="V38" s="61"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="197"/>
+      <c r="M38" s="197"/>
+      <c r="N38" s="197"/>
+      <c r="O38" s="197"/>
+      <c r="P38" s="197"/>
+      <c r="Q38" s="197"/>
+      <c r="R38" s="197"/>
+      <c r="S38" s="197"/>
+      <c r="T38" s="197"/>
+      <c r="U38" s="197"/>
+      <c r="V38" s="198"/>
     </row>
     <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="76"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="64"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
+      <c r="O39" s="134"/>
+      <c r="P39" s="134"/>
+      <c r="Q39" s="134"/>
+      <c r="R39" s="134"/>
+      <c r="S39" s="134"/>
+      <c r="T39" s="134"/>
+      <c r="U39" s="134"/>
+      <c r="V39" s="199"/>
     </row>
     <row r="40" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66"/>
-      <c r="Q40" s="66"/>
-      <c r="R40" s="66"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="67"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
+      <c r="O40" s="137"/>
+      <c r="P40" s="137"/>
+      <c r="Q40" s="137"/>
+      <c r="R40" s="137"/>
+      <c r="S40" s="137"/>
+      <c r="T40" s="137"/>
+      <c r="U40" s="137"/>
+      <c r="V40" s="200"/>
     </row>
     <row r="41" spans="1:22" ht="24" x14ac:dyDescent="0.15">
       <c r="A41" s="38" t="s">
@@ -5161,27 +5161,27 @@
       <c r="B43" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="63"/>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
+      <c r="D43" s="134"/>
+      <c r="E43" s="134"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="134"/>
+      <c r="I43" s="134"/>
+      <c r="J43" s="134"/>
+      <c r="K43" s="134"/>
+      <c r="L43" s="134"/>
+      <c r="M43" s="134"/>
+      <c r="N43" s="134"/>
+      <c r="O43" s="134"/>
+      <c r="P43" s="134"/>
+      <c r="Q43" s="134"/>
+      <c r="R43" s="134"/>
+      <c r="S43" s="134"/>
+      <c r="T43" s="134"/>
+      <c r="U43" s="134"/>
       <c r="V43" s="41" t="s">
         <v>9</v>
       </c>
@@ -5241,232 +5241,232 @@
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="70" t="s">
+      <c r="B46" s="202"/>
+      <c r="C46" s="202"/>
+      <c r="D46" s="202"/>
+      <c r="E46" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="72"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="204"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="204"/>
+      <c r="U46" s="204"/>
+      <c r="V46" s="205"/>
     </row>
     <row r="47" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="92"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
-      <c r="O47" s="93"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="93"/>
-      <c r="R47" s="93"/>
-      <c r="S47" s="93"/>
-      <c r="T47" s="93"/>
-      <c r="U47" s="93"/>
-      <c r="V47" s="94"/>
+      <c r="A47" s="175"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176"/>
+      <c r="H47" s="176"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="176"/>
+      <c r="K47" s="176"/>
+      <c r="L47" s="176"/>
+      <c r="M47" s="176"/>
+      <c r="N47" s="176"/>
+      <c r="O47" s="176"/>
+      <c r="P47" s="176"/>
+      <c r="Q47" s="176"/>
+      <c r="R47" s="176"/>
+      <c r="S47" s="176"/>
+      <c r="T47" s="176"/>
+      <c r="U47" s="176"/>
+      <c r="V47" s="177"/>
     </row>
     <row r="48" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="95"/>
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="96"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
-      <c r="P48" s="96"/>
-      <c r="Q48" s="96"/>
-      <c r="R48" s="96"/>
-      <c r="S48" s="96"/>
-      <c r="T48" s="96"/>
-      <c r="U48" s="96"/>
-      <c r="V48" s="97"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="179"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="179"/>
+      <c r="E48" s="179"/>
+      <c r="F48" s="179"/>
+      <c r="G48" s="179"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="179"/>
+      <c r="J48" s="179"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="179"/>
+      <c r="N48" s="179"/>
+      <c r="O48" s="179"/>
+      <c r="P48" s="179"/>
+      <c r="Q48" s="179"/>
+      <c r="R48" s="179"/>
+      <c r="S48" s="179"/>
+      <c r="T48" s="179"/>
+      <c r="U48" s="179"/>
+      <c r="V48" s="180"/>
     </row>
     <row r="49" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="108"/>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="108"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="108"/>
-      <c r="R49" s="108"/>
-      <c r="S49" s="108"/>
-      <c r="T49" s="108"/>
-      <c r="U49" s="108"/>
-      <c r="V49" s="109"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="191"/>
+      <c r="N49" s="191"/>
+      <c r="O49" s="191"/>
+      <c r="P49" s="191"/>
+      <c r="Q49" s="191"/>
+      <c r="R49" s="191"/>
+      <c r="S49" s="191"/>
+      <c r="T49" s="191"/>
+      <c r="U49" s="191"/>
+      <c r="V49" s="192"/>
     </row>
     <row r="50" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="99"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="99"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="99"/>
-      <c r="M50" s="99"/>
-      <c r="N50" s="99"/>
-      <c r="O50" s="99"/>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="99"/>
-      <c r="R50" s="99"/>
-      <c r="S50" s="99"/>
-      <c r="T50" s="99"/>
-      <c r="U50" s="99"/>
-      <c r="V50" s="100"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="182"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="182"/>
+      <c r="P50" s="182"/>
+      <c r="Q50" s="182"/>
+      <c r="R50" s="182"/>
+      <c r="S50" s="182"/>
+      <c r="T50" s="182"/>
+      <c r="U50" s="182"/>
+      <c r="V50" s="183"/>
     </row>
     <row r="51" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="104" t="s">
+      <c r="A51" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="105"/>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="105"/>
-      <c r="G51" s="105"/>
-      <c r="H51" s="105"/>
-      <c r="I51" s="105"/>
-      <c r="J51" s="105"/>
-      <c r="K51" s="105"/>
-      <c r="L51" s="105"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="105"/>
-      <c r="O51" s="105"/>
-      <c r="P51" s="105"/>
-      <c r="Q51" s="105"/>
-      <c r="R51" s="105"/>
-      <c r="S51" s="105"/>
-      <c r="T51" s="105"/>
-      <c r="U51" s="105"/>
-      <c r="V51" s="106"/>
+      <c r="B51" s="188"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="188"/>
+      <c r="F51" s="188"/>
+      <c r="G51" s="188"/>
+      <c r="H51" s="188"/>
+      <c r="I51" s="188"/>
+      <c r="J51" s="188"/>
+      <c r="K51" s="188"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="188"/>
+      <c r="O51" s="188"/>
+      <c r="P51" s="188"/>
+      <c r="Q51" s="188"/>
+      <c r="R51" s="188"/>
+      <c r="S51" s="188"/>
+      <c r="T51" s="188"/>
+      <c r="U51" s="188"/>
+      <c r="V51" s="189"/>
     </row>
     <row r="52" spans="1:22" s="47" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="110"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="111"/>
-      <c r="N52" s="111"/>
-      <c r="O52" s="111"/>
-      <c r="P52" s="111"/>
-      <c r="Q52" s="111"/>
-      <c r="R52" s="111"/>
-      <c r="S52" s="111"/>
-      <c r="T52" s="111"/>
-      <c r="U52" s="111"/>
-      <c r="V52" s="112"/>
+      <c r="A52" s="193"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="194"/>
+      <c r="E52" s="194"/>
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="194"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="194"/>
+      <c r="O52" s="194"/>
+      <c r="P52" s="194"/>
+      <c r="Q52" s="194"/>
+      <c r="R52" s="194"/>
+      <c r="S52" s="194"/>
+      <c r="T52" s="194"/>
+      <c r="U52" s="194"/>
+      <c r="V52" s="195"/>
     </row>
     <row r="53" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="104" t="s">
+      <c r="A53" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="105"/>
-      <c r="Q53" s="105"/>
-      <c r="R53" s="105"/>
-      <c r="S53" s="105"/>
-      <c r="T53" s="105"/>
-      <c r="U53" s="105"/>
-      <c r="V53" s="106"/>
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="188"/>
+      <c r="I53" s="188"/>
+      <c r="J53" s="188"/>
+      <c r="K53" s="188"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="188"/>
+      <c r="O53" s="188"/>
+      <c r="P53" s="188"/>
+      <c r="Q53" s="188"/>
+      <c r="R53" s="188"/>
+      <c r="S53" s="188"/>
+      <c r="T53" s="188"/>
+      <c r="U53" s="188"/>
+      <c r="V53" s="189"/>
     </row>
     <row r="54" spans="1:22" ht="270" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102"/>
-      <c r="M54" s="102"/>
-      <c r="N54" s="102"/>
-      <c r="O54" s="102"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
-      <c r="R54" s="102"/>
-      <c r="S54" s="102"/>
-      <c r="T54" s="102"/>
-      <c r="U54" s="102"/>
-      <c r="V54" s="103"/>
+      <c r="A54" s="184"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="185"/>
+      <c r="K54" s="185"/>
+      <c r="L54" s="185"/>
+      <c r="M54" s="185"/>
+      <c r="N54" s="185"/>
+      <c r="O54" s="185"/>
+      <c r="P54" s="185"/>
+      <c r="Q54" s="185"/>
+      <c r="R54" s="185"/>
+      <c r="S54" s="185"/>
+      <c r="T54" s="185"/>
+      <c r="U54" s="185"/>
+      <c r="V54" s="186"/>
     </row>
     <row r="55" spans="1:22" ht="9" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
@@ -5492,30 +5492,30 @@
       <c r="V55" s="13"/>
     </row>
     <row r="56" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="56" t="s">
+      <c r="A56" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
-      <c r="V56" s="56"/>
+      <c r="B56" s="207"/>
+      <c r="C56" s="207"/>
+      <c r="D56" s="207"/>
+      <c r="E56" s="207"/>
+      <c r="F56" s="207"/>
+      <c r="G56" s="207"/>
+      <c r="H56" s="207"/>
+      <c r="I56" s="207"/>
+      <c r="J56" s="207"/>
+      <c r="K56" s="207"/>
+      <c r="L56" s="207"/>
+      <c r="M56" s="207"/>
+      <c r="N56" s="207"/>
+      <c r="O56" s="207"/>
+      <c r="P56" s="207"/>
+      <c r="Q56" s="207"/>
+      <c r="R56" s="207"/>
+      <c r="S56" s="207"/>
+      <c r="T56" s="207"/>
+      <c r="U56" s="207"/>
+      <c r="V56" s="207"/>
     </row>
     <row r="57" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="49"/>
@@ -5545,107 +5545,107 @@
       <c r="A58" s="50">
         <v>1</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="156" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="156"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="156"/>
+      <c r="K58" s="156"/>
+      <c r="L58" s="156"/>
+      <c r="M58" s="156"/>
+      <c r="N58" s="156"/>
+      <c r="O58" s="156"/>
+      <c r="P58" s="156"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="156"/>
+      <c r="S58" s="156"/>
+      <c r="T58" s="156"/>
+      <c r="U58" s="156"/>
+      <c r="V58" s="156"/>
     </row>
     <row r="59" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="50"/>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="57"/>
-      <c r="K59" s="57"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
-      <c r="Q59" s="57"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="57"/>
-      <c r="T59" s="57"/>
-      <c r="U59" s="57"/>
-      <c r="V59" s="57"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
+      <c r="L59" s="156"/>
+      <c r="M59" s="156"/>
+      <c r="N59" s="156"/>
+      <c r="O59" s="156"/>
+      <c r="P59" s="156"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="156"/>
+      <c r="S59" s="156"/>
+      <c r="T59" s="156"/>
+      <c r="U59" s="156"/>
+      <c r="V59" s="156"/>
     </row>
     <row r="60" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="51"/>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="156"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="156"/>
+      <c r="K60" s="156"/>
+      <c r="L60" s="156"/>
+      <c r="M60" s="156"/>
+      <c r="N60" s="156"/>
+      <c r="O60" s="156"/>
+      <c r="P60" s="156"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="156"/>
+      <c r="S60" s="156"/>
+      <c r="T60" s="156"/>
+      <c r="U60" s="156"/>
+      <c r="V60" s="156"/>
     </row>
     <row r="61" spans="1:22" s="19" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="51"/>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
     </row>
     <row r="62" spans="1:22" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A62" s="19" t="s">
@@ -5670,105 +5670,105 @@
       <c r="A63" s="39">
         <v>2</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="156"/>
+      <c r="K63" s="156"/>
+      <c r="L63" s="156"/>
+      <c r="M63" s="156"/>
+      <c r="N63" s="156"/>
+      <c r="O63" s="156"/>
+      <c r="P63" s="156"/>
+      <c r="Q63" s="156"/>
+      <c r="R63" s="156"/>
+      <c r="S63" s="156"/>
+      <c r="T63" s="156"/>
+      <c r="U63" s="156"/>
+      <c r="V63" s="156"/>
     </row>
     <row r="64" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="39"/>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="156" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="156"/>
+      <c r="L64" s="156"/>
+      <c r="M64" s="156"/>
+      <c r="N64" s="156"/>
+      <c r="O64" s="156"/>
+      <c r="P64" s="156"/>
+      <c r="Q64" s="156"/>
+      <c r="R64" s="156"/>
+      <c r="S64" s="156"/>
+      <c r="T64" s="156"/>
+      <c r="U64" s="156"/>
+      <c r="V64" s="156"/>
     </row>
     <row r="65" spans="1:22" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
-      <c r="Q65" s="58"/>
-      <c r="R65" s="58"/>
-      <c r="S65" s="58"/>
-      <c r="T65" s="58"/>
-      <c r="U65" s="58"/>
-      <c r="V65" s="58"/>
+      <c r="A65" s="208"/>
+      <c r="B65" s="208"/>
+      <c r="C65" s="208"/>
+      <c r="D65" s="208"/>
+      <c r="E65" s="208"/>
+      <c r="F65" s="208"/>
+      <c r="G65" s="208"/>
+      <c r="H65" s="208"/>
+      <c r="I65" s="208"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="208"/>
+      <c r="L65" s="208"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="208"/>
+      <c r="O65" s="208"/>
+      <c r="P65" s="208"/>
+      <c r="Q65" s="208"/>
+      <c r="R65" s="208"/>
+      <c r="S65" s="208"/>
+      <c r="T65" s="208"/>
+      <c r="U65" s="208"/>
+      <c r="V65" s="208"/>
     </row>
     <row r="66" spans="1:22" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="57"/>
-      <c r="U66" s="57"/>
-      <c r="V66" s="57"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="156"/>
+      <c r="L66" s="156"/>
+      <c r="M66" s="156"/>
+      <c r="N66" s="156"/>
+      <c r="O66" s="156"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="156"/>
+      <c r="S66" s="156"/>
+      <c r="T66" s="156"/>
+      <c r="U66" s="156"/>
+      <c r="V66" s="156"/>
     </row>
     <row r="67" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="1:22" ht="21" x14ac:dyDescent="0.15">
@@ -5779,18 +5779,18 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
+      <c r="L68" s="209"/>
+      <c r="M68" s="209"/>
       <c r="N68" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
+      <c r="O68" s="209"/>
+      <c r="P68" s="209"/>
       <c r="Q68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="209"/>
       <c r="T68" s="19" t="s">
         <v>28</v>
       </c>
@@ -5824,56 +5824,56 @@
       <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="56"/>
-      <c r="P71" s="56"/>
-      <c r="Q71" s="56"/>
-      <c r="R71" s="56"/>
-      <c r="S71" s="56"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
-      <c r="V71" s="56"/>
+      <c r="B71" s="207"/>
+      <c r="C71" s="207"/>
+      <c r="D71" s="207"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="207"/>
+      <c r="H71" s="207"/>
+      <c r="I71" s="207"/>
+      <c r="J71" s="207"/>
+      <c r="K71" s="207"/>
+      <c r="L71" s="207"/>
+      <c r="M71" s="207"/>
+      <c r="N71" s="207"/>
+      <c r="O71" s="207"/>
+      <c r="P71" s="207"/>
+      <c r="Q71" s="207"/>
+      <c r="R71" s="207"/>
+      <c r="S71" s="207"/>
+      <c r="T71" s="207"/>
+      <c r="U71" s="207"/>
+      <c r="V71" s="207"/>
     </row>
     <row r="72" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
+      <c r="D72" s="145"/>
+      <c r="E72" s="145"/>
+      <c r="F72" s="145"/>
+      <c r="G72" s="145"/>
+      <c r="H72" s="145"/>
+      <c r="I72" s="145"/>
+      <c r="J72" s="145"/>
+      <c r="K72" s="145"/>
+      <c r="L72" s="145"/>
+      <c r="M72" s="145"/>
+      <c r="N72" s="145"/>
+      <c r="O72" s="145"/>
+      <c r="P72" s="145"/>
+      <c r="Q72" s="145"/>
+      <c r="R72" s="145"/>
+      <c r="S72" s="145"/>
+      <c r="T72" s="145"/>
+      <c r="U72" s="145"/>
+      <c r="V72" s="145"/>
     </row>
     <row r="73" spans="1:22" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="21"/>
@@ -5881,43 +5881,43 @@
       <c r="I73" s="21"/>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
+      <c r="L73" s="206"/>
+      <c r="M73" s="206"/>
       <c r="N73" s="39"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
+      <c r="O73" s="206"/>
+      <c r="P73" s="206"/>
       <c r="Q73" s="43"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
+      <c r="R73" s="206"/>
+      <c r="S73" s="206"/>
       <c r="T73" s="19"/>
       <c r="U73" s="19"/>
       <c r="V73" s="21"/>
     </row>
     <row r="74" spans="1:22" s="19" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
-      <c r="P74" s="54"/>
-      <c r="Q74" s="54"/>
-      <c r="R74" s="54"/>
-      <c r="S74" s="54"/>
-      <c r="T74" s="54"/>
-      <c r="U74" s="54"/>
-      <c r="V74" s="54"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="145"/>
+      <c r="D74" s="145"/>
+      <c r="E74" s="145"/>
+      <c r="F74" s="145"/>
+      <c r="G74" s="145"/>
+      <c r="H74" s="145"/>
+      <c r="I74" s="145"/>
+      <c r="J74" s="145"/>
+      <c r="K74" s="145"/>
+      <c r="L74" s="145"/>
+      <c r="M74" s="145"/>
+      <c r="N74" s="145"/>
+      <c r="O74" s="145"/>
+      <c r="P74" s="145"/>
+      <c r="Q74" s="145"/>
+      <c r="R74" s="145"/>
+      <c r="S74" s="145"/>
+      <c r="T74" s="145"/>
+      <c r="U74" s="145"/>
+      <c r="V74" s="145"/>
     </row>
     <row r="75" spans="1:22" s="19" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K75" s="43"/>
@@ -5925,39 +5925,27 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="u+3ibe+sC76jx/Mrl9gKYsrsC9ziuJLQJCRQVLduvjQRPP4afwqh69YMzhRFm98X7f1XnMhXzjqG8YtjV62H7g==" saltValue="pLlIKOMaGGXf4xnSSi16wg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="70">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:J9"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="O7:U8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="M9:U9"/>
-    <mergeCell ref="V14:V15"/>
-    <mergeCell ref="A16:D20"/>
-    <mergeCell ref="E16:V20"/>
-    <mergeCell ref="A21:D25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:V21"/>
-    <mergeCell ref="E22:V25"/>
-    <mergeCell ref="A10:D15"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="R10:S15"/>
-    <mergeCell ref="T10:U15"/>
-    <mergeCell ref="E11:Q15"/>
-    <mergeCell ref="A26:D31"/>
-    <mergeCell ref="E26:F28"/>
-    <mergeCell ref="G26:R28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="E29:F31"/>
-    <mergeCell ref="G29:R31"/>
-    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="A74:V74"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="A56:V56"/>
+    <mergeCell ref="B58:V58"/>
+    <mergeCell ref="B60:V60"/>
+    <mergeCell ref="B61:V61"/>
+    <mergeCell ref="A72:V72"/>
+    <mergeCell ref="B64:V64"/>
+    <mergeCell ref="A65:V65"/>
+    <mergeCell ref="A66:V66"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="H38:V38"/>
+    <mergeCell ref="E39:V40"/>
+    <mergeCell ref="C43:U43"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:V46"/>
     <mergeCell ref="B63:V63"/>
     <mergeCell ref="A33:D37"/>
     <mergeCell ref="F33:V33"/>
@@ -5974,27 +5962,39 @@
     <mergeCell ref="A51:V51"/>
     <mergeCell ref="A52:V52"/>
     <mergeCell ref="A38:D40"/>
-    <mergeCell ref="H38:V38"/>
-    <mergeCell ref="E39:V40"/>
-    <mergeCell ref="C43:U43"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:V46"/>
-    <mergeCell ref="A74:V74"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="A56:V56"/>
-    <mergeCell ref="B58:V58"/>
-    <mergeCell ref="B60:V60"/>
-    <mergeCell ref="B61:V61"/>
-    <mergeCell ref="A72:V72"/>
-    <mergeCell ref="B64:V64"/>
-    <mergeCell ref="A65:V65"/>
-    <mergeCell ref="A66:V66"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="A71:V71"/>
+    <mergeCell ref="A26:D31"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="G26:R28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="E29:F31"/>
+    <mergeCell ref="G29:R31"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V14:V15"/>
+    <mergeCell ref="A16:D20"/>
+    <mergeCell ref="E16:V20"/>
+    <mergeCell ref="A21:D25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:V21"/>
+    <mergeCell ref="E22:V25"/>
+    <mergeCell ref="A10:D15"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:Q10"/>
+    <mergeCell ref="R10:S15"/>
+    <mergeCell ref="T10:U15"/>
+    <mergeCell ref="E11:Q15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:J9"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="O7:U8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M9:U9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6229,18 +6229,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:22" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6257,17 +6257,17 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
-      <c r="M2" s="181" t="s">
+      <c r="M2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="183"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="186"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
     </row>
     <row r="3" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10"/>
@@ -6292,1865 +6292,1933 @@
       <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N4" s="187" t="s">
+      <c r="N4" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="187"/>
-      <c r="P4" s="187"/>
-      <c r="Q4" s="187"/>
-      <c r="R4" s="187"/>
-      <c r="S4" s="187"/>
-      <c r="T4" s="187"/>
-      <c r="U4" s="187"/>
-      <c r="V4" s="187"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="190"/>
-      <c r="E5" s="218" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="219"/>
-      <c r="G5" s="220" t="s">
+      <c r="F5" s="211"/>
+      <c r="G5" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="220"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
-      <c r="L5" s="220"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="220"/>
-      <c r="P5" s="220"/>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="220"/>
-      <c r="S5" s="220"/>
-      <c r="T5" s="220"/>
-      <c r="U5" s="220"/>
-      <c r="V5" s="243"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="212"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="212"/>
+      <c r="S5" s="212"/>
+      <c r="T5" s="212"/>
+      <c r="U5" s="212"/>
+      <c r="V5" s="213"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="191"/>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="236" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="237"/>
-      <c r="G6" s="237"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="237"/>
-      <c r="L6" s="237"/>
-      <c r="M6" s="237"/>
-      <c r="N6" s="237"/>
-      <c r="O6" s="237"/>
-      <c r="P6" s="237"/>
-      <c r="Q6" s="237"/>
-      <c r="R6" s="237"/>
-      <c r="S6" s="237"/>
-      <c r="T6" s="237"/>
-      <c r="U6" s="237"/>
-      <c r="V6" s="244"/>
+      <c r="F6" s="215"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="215"/>
+      <c r="J6" s="215"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="215"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
+      <c r="O6" s="215"/>
+      <c r="P6" s="215"/>
+      <c r="Q6" s="215"/>
+      <c r="R6" s="215"/>
+      <c r="S6" s="215"/>
+      <c r="T6" s="215"/>
+      <c r="U6" s="215"/>
+      <c r="V6" s="216"/>
     </row>
     <row r="7" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="191"/>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
-      <c r="M7" s="246"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="246"/>
-      <c r="Q7" s="246"/>
-      <c r="R7" s="246"/>
-      <c r="S7" s="246"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="246"/>
-      <c r="V7" s="247"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="217"/>
+      <c r="F7" s="218"/>
+      <c r="G7" s="218"/>
+      <c r="H7" s="218"/>
+      <c r="I7" s="218"/>
+      <c r="J7" s="218"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="218"/>
+      <c r="M7" s="218"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="218"/>
+      <c r="P7" s="218"/>
+      <c r="Q7" s="218"/>
+      <c r="R7" s="218"/>
+      <c r="S7" s="218"/>
+      <c r="T7" s="218"/>
+      <c r="U7" s="218"/>
+      <c r="V7" s="219"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="191"/>
-      <c r="B8" s="192"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="246"/>
-      <c r="U8" s="246"/>
-      <c r="V8" s="247"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="217"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="218"/>
+      <c r="H8" s="218"/>
+      <c r="I8" s="218"/>
+      <c r="J8" s="218"/>
+      <c r="K8" s="218"/>
+      <c r="L8" s="218"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="218"/>
+      <c r="Q8" s="218"/>
+      <c r="R8" s="218"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="219"/>
     </row>
     <row r="9" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="194"/>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
-      <c r="L9" s="240"/>
-      <c r="M9" s="240"/>
-      <c r="N9" s="240"/>
-      <c r="O9" s="240"/>
-      <c r="P9" s="240"/>
-      <c r="Q9" s="240"/>
-      <c r="R9" s="240"/>
-      <c r="S9" s="240"/>
-      <c r="T9" s="240"/>
-      <c r="U9" s="240"/>
-      <c r="V9" s="248"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="221"/>
+      <c r="L9" s="221"/>
+      <c r="M9" s="221"/>
+      <c r="N9" s="221"/>
+      <c r="O9" s="221"/>
+      <c r="P9" s="221"/>
+      <c r="Q9" s="221"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="222"/>
     </row>
     <row r="10" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="190"/>
-      <c r="E10" s="218" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="219"/>
-      <c r="G10" s="220" t="s">
+      <c r="F10" s="211"/>
+      <c r="G10" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="H10" s="220"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="220"/>
-      <c r="K10" s="220"/>
-      <c r="L10" s="220"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="220"/>
-      <c r="P10" s="220"/>
-      <c r="Q10" s="220"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="220"/>
-      <c r="T10" s="220"/>
-      <c r="U10" s="220"/>
-      <c r="V10" s="243"/>
+      <c r="H10" s="212"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
+      <c r="S10" s="212"/>
+      <c r="T10" s="212"/>
+      <c r="U10" s="212"/>
+      <c r="V10" s="213"/>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="191"/>
-      <c r="B11" s="192"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="236" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
-      <c r="J11" s="237"/>
-      <c r="K11" s="237"/>
-      <c r="L11" s="237"/>
-      <c r="M11" s="237"/>
-      <c r="N11" s="237"/>
-      <c r="O11" s="237"/>
-      <c r="P11" s="237"/>
-      <c r="Q11" s="237"/>
-      <c r="R11" s="237"/>
-      <c r="S11" s="237"/>
-      <c r="T11" s="237"/>
-      <c r="U11" s="237"/>
-      <c r="V11" s="244"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
+      <c r="P11" s="215"/>
+      <c r="Q11" s="215"/>
+      <c r="R11" s="215"/>
+      <c r="S11" s="215"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="215"/>
+      <c r="V11" s="216"/>
     </row>
     <row r="12" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="191"/>
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="247"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="217"/>
+      <c r="F12" s="218"/>
+      <c r="G12" s="218"/>
+      <c r="H12" s="218"/>
+      <c r="I12" s="218"/>
+      <c r="J12" s="218"/>
+      <c r="K12" s="218"/>
+      <c r="L12" s="218"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="218"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="218"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="219"/>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="191"/>
-      <c r="B13" s="192"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="245"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="247"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="218"/>
+      <c r="G13" s="218"/>
+      <c r="H13" s="218"/>
+      <c r="I13" s="218"/>
+      <c r="J13" s="218"/>
+      <c r="K13" s="218"/>
+      <c r="L13" s="218"/>
+      <c r="M13" s="218"/>
+      <c r="N13" s="218"/>
+      <c r="O13" s="218"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="218"/>
+      <c r="R13" s="218"/>
+      <c r="S13" s="218"/>
+      <c r="T13" s="218"/>
+      <c r="U13" s="218"/>
+      <c r="V13" s="219"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="194"/>
-      <c r="B14" s="195"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="239"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="240"/>
-      <c r="K14" s="240"/>
-      <c r="L14" s="240"/>
-      <c r="M14" s="240"/>
-      <c r="N14" s="240"/>
-      <c r="O14" s="240"/>
-      <c r="P14" s="240"/>
-      <c r="Q14" s="240"/>
-      <c r="R14" s="240"/>
-      <c r="S14" s="240"/>
-      <c r="T14" s="240"/>
-      <c r="U14" s="240"/>
-      <c r="V14" s="248"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="220"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="221"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="222"/>
     </row>
     <row r="15" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="189"/>
-      <c r="C15" s="189"/>
-      <c r="D15" s="190"/>
-      <c r="E15" s="218" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="220" t="s">
+      <c r="F15" s="211"/>
+      <c r="G15" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="H15" s="220"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
-      <c r="L15" s="220"/>
-      <c r="M15" s="221"/>
-      <c r="N15" s="222" t="s">
+      <c r="H15" s="212"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="212"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="O15" s="210"/>
-      <c r="P15" s="210"/>
-      <c r="Q15" s="211"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="228"/>
-      <c r="T15" s="228"/>
-      <c r="U15" s="228"/>
-      <c r="V15" s="229"/>
+      <c r="O15" s="225"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="234"/>
+      <c r="V15" s="235"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="191"/>
-      <c r="B16" s="192"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="236" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
-      <c r="M16" s="238"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="213"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="214"/>
-      <c r="R16" s="230"/>
-      <c r="S16" s="231"/>
-      <c r="T16" s="231"/>
-      <c r="U16" s="231"/>
-      <c r="V16" s="232"/>
+      <c r="F16" s="215"/>
+      <c r="G16" s="215"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="215"/>
+      <c r="J16" s="215"/>
+      <c r="K16" s="215"/>
+      <c r="L16" s="215"/>
+      <c r="M16" s="242"/>
+      <c r="N16" s="227"/>
+      <c r="O16" s="228"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="229"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+      <c r="V16" s="238"/>
     </row>
     <row r="17" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="194"/>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="239"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="240"/>
-      <c r="J17" s="240"/>
-      <c r="K17" s="240"/>
-      <c r="L17" s="240"/>
-      <c r="M17" s="241"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="225"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="233"/>
-      <c r="S17" s="234"/>
-      <c r="T17" s="234"/>
-      <c r="U17" s="234"/>
-      <c r="V17" s="235"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="220"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
+      <c r="K17" s="221"/>
+      <c r="L17" s="221"/>
+      <c r="M17" s="243"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="231"/>
+      <c r="P17" s="231"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="239"/>
+      <c r="S17" s="240"/>
+      <c r="T17" s="240"/>
+      <c r="U17" s="240"/>
+      <c r="V17" s="241"/>
     </row>
     <row r="18" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="188" t="s">
+      <c r="A18" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="218" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220" t="s">
+      <c r="F18" s="211"/>
+      <c r="G18" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="220"/>
-      <c r="K18" s="220"/>
-      <c r="L18" s="220"/>
-      <c r="M18" s="221"/>
-      <c r="N18" s="222" t="s">
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O18" s="210"/>
-      <c r="P18" s="210"/>
-      <c r="Q18" s="211"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="228"/>
-      <c r="T18" s="228"/>
-      <c r="U18" s="228"/>
-      <c r="V18" s="229"/>
+      <c r="O18" s="225"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="226"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="234"/>
+      <c r="T18" s="234"/>
+      <c r="U18" s="234"/>
+      <c r="V18" s="235"/>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="191"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="192"/>
-      <c r="D19" s="193"/>
-      <c r="E19" s="236" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
-      <c r="M19" s="238"/>
-      <c r="N19" s="223"/>
-      <c r="O19" s="213"/>
-      <c r="P19" s="213"/>
-      <c r="Q19" s="214"/>
-      <c r="R19" s="230"/>
-      <c r="S19" s="231"/>
-      <c r="T19" s="231"/>
-      <c r="U19" s="231"/>
-      <c r="V19" s="232"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="215"/>
+      <c r="K19" s="215"/>
+      <c r="L19" s="215"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="227"/>
+      <c r="O19" s="228"/>
+      <c r="P19" s="228"/>
+      <c r="Q19" s="229"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="237"/>
+      <c r="T19" s="237"/>
+      <c r="U19" s="237"/>
+      <c r="V19" s="238"/>
     </row>
     <row r="20" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="194"/>
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="239"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="240"/>
-      <c r="H20" s="240"/>
-      <c r="I20" s="240"/>
-      <c r="J20" s="240"/>
-      <c r="K20" s="240"/>
-      <c r="L20" s="240"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="225"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="233"/>
-      <c r="S20" s="234"/>
-      <c r="T20" s="234"/>
-      <c r="U20" s="234"/>
-      <c r="V20" s="235"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="221"/>
+      <c r="L20" s="221"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="232"/>
+      <c r="R20" s="239"/>
+      <c r="S20" s="240"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="241"/>
     </row>
     <row r="21" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
-      <c r="E21" s="218" t="s">
+      <c r="B21" s="225"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="219"/>
-      <c r="G21" s="220"/>
-      <c r="H21" s="220"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="220"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="222" t="s">
+      <c r="F21" s="211"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="212"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O21" s="210"/>
-      <c r="P21" s="210"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="228"/>
-      <c r="T21" s="228"/>
-      <c r="U21" s="228"/>
-      <c r="V21" s="229"/>
+      <c r="O21" s="225"/>
+      <c r="P21" s="225"/>
+      <c r="Q21" s="226"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="234"/>
+      <c r="T21" s="234"/>
+      <c r="U21" s="234"/>
+      <c r="V21" s="235"/>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="212"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="214"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="237"/>
-      <c r="G22" s="237"/>
-      <c r="H22" s="237"/>
-      <c r="I22" s="237"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="238"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="214"/>
-      <c r="R22" s="230"/>
-      <c r="S22" s="231"/>
-      <c r="T22" s="231"/>
-      <c r="U22" s="231"/>
-      <c r="V22" s="232"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="228"/>
+      <c r="C22" s="228"/>
+      <c r="D22" s="229"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="215"/>
+      <c r="J22" s="215"/>
+      <c r="K22" s="215"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="228"/>
+      <c r="P22" s="228"/>
+      <c r="Q22" s="229"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="237"/>
+      <c r="T22" s="237"/>
+      <c r="U22" s="237"/>
+      <c r="V22" s="238"/>
     </row>
     <row r="23" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="239"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="240"/>
-      <c r="H23" s="240"/>
-      <c r="I23" s="240"/>
-      <c r="J23" s="240"/>
-      <c r="K23" s="240"/>
-      <c r="L23" s="240"/>
-      <c r="M23" s="241"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="225"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="233"/>
-      <c r="S23" s="234"/>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="235"/>
+      <c r="A23" s="245"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="247"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
+      <c r="L23" s="221"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="239"/>
+      <c r="S23" s="240"/>
+      <c r="T23" s="240"/>
+      <c r="U23" s="240"/>
+      <c r="V23" s="241"/>
     </row>
     <row r="24" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="188" t="s">
+      <c r="A24" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="210"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="218" t="s">
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="219"/>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="220"/>
-      <c r="K24" s="220"/>
-      <c r="L24" s="220"/>
-      <c r="M24" s="221"/>
-      <c r="N24" s="222" t="s">
+      <c r="F24" s="211"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="210"/>
-      <c r="P24" s="210"/>
-      <c r="Q24" s="211"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="228"/>
-      <c r="T24" s="228"/>
-      <c r="U24" s="228"/>
-      <c r="V24" s="229"/>
+      <c r="O24" s="225"/>
+      <c r="P24" s="225"/>
+      <c r="Q24" s="226"/>
+      <c r="R24" s="233"/>
+      <c r="S24" s="234"/>
+      <c r="T24" s="234"/>
+      <c r="U24" s="234"/>
+      <c r="V24" s="235"/>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="212"/>
-      <c r="B25" s="213"/>
-      <c r="C25" s="213"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="237"/>
-      <c r="G25" s="237"/>
-      <c r="H25" s="237"/>
-      <c r="I25" s="237"/>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="238"/>
-      <c r="N25" s="223"/>
-      <c r="O25" s="213"/>
-      <c r="P25" s="213"/>
-      <c r="Q25" s="214"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="232"/>
+      <c r="A25" s="244"/>
+      <c r="B25" s="228"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="215"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="227"/>
+      <c r="O25" s="228"/>
+      <c r="P25" s="228"/>
+      <c r="Q25" s="229"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="237"/>
+      <c r="T25" s="237"/>
+      <c r="U25" s="237"/>
+      <c r="V25" s="238"/>
     </row>
     <row r="26" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="215"/>
-      <c r="B26" s="216"/>
-      <c r="C26" s="216"/>
-      <c r="D26" s="217"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="240"/>
-      <c r="J26" s="240"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="241"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="225"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="233"/>
-      <c r="S26" s="234"/>
-      <c r="T26" s="234"/>
-      <c r="U26" s="234"/>
-      <c r="V26" s="235"/>
+      <c r="A26" s="245"/>
+      <c r="B26" s="246"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="220"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="221"/>
+      <c r="J26" s="221"/>
+      <c r="K26" s="221"/>
+      <c r="L26" s="221"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="231"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="232"/>
+      <c r="R26" s="239"/>
+      <c r="S26" s="240"/>
+      <c r="T26" s="240"/>
+      <c r="U26" s="240"/>
+      <c r="V26" s="241"/>
     </row>
     <row r="27" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="188" t="s">
+      <c r="A27" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="210"/>
-      <c r="C27" s="210"/>
-      <c r="D27" s="211"/>
-      <c r="E27" s="218" t="s">
+      <c r="B27" s="225"/>
+      <c r="C27" s="225"/>
+      <c r="D27" s="226"/>
+      <c r="E27" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="219"/>
-      <c r="G27" s="220"/>
-      <c r="H27" s="220"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="220"/>
-      <c r="K27" s="220"/>
-      <c r="L27" s="220"/>
-      <c r="M27" s="221"/>
-      <c r="N27" s="222" t="s">
+      <c r="F27" s="211"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="210"/>
-      <c r="P27" s="210"/>
-      <c r="Q27" s="211"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="228"/>
-      <c r="T27" s="228"/>
-      <c r="U27" s="228"/>
-      <c r="V27" s="229"/>
+      <c r="O27" s="225"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="226"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="234"/>
+      <c r="U27" s="234"/>
+      <c r="V27" s="235"/>
     </row>
     <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="212"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="237"/>
-      <c r="G28" s="237"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="237"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="238"/>
-      <c r="N28" s="223"/>
-      <c r="O28" s="213"/>
-      <c r="P28" s="213"/>
-      <c r="Q28" s="214"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="231"/>
-      <c r="U28" s="231"/>
-      <c r="V28" s="232"/>
+      <c r="A28" s="244"/>
+      <c r="B28" s="228"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="215"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="227"/>
+      <c r="O28" s="228"/>
+      <c r="P28" s="228"/>
+      <c r="Q28" s="229"/>
+      <c r="R28" s="236"/>
+      <c r="S28" s="237"/>
+      <c r="T28" s="237"/>
+      <c r="U28" s="237"/>
+      <c r="V28" s="238"/>
     </row>
     <row r="29" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="240"/>
-      <c r="J29" s="240"/>
-      <c r="K29" s="240"/>
-      <c r="L29" s="240"/>
-      <c r="M29" s="241"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="225"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="233"/>
-      <c r="S29" s="234"/>
-      <c r="T29" s="234"/>
-      <c r="U29" s="234"/>
-      <c r="V29" s="235"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="246"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="221"/>
+      <c r="L29" s="221"/>
+      <c r="M29" s="243"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="232"/>
+      <c r="R29" s="239"/>
+      <c r="S29" s="240"/>
+      <c r="T29" s="240"/>
+      <c r="U29" s="240"/>
+      <c r="V29" s="241"/>
     </row>
     <row r="30" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="188" t="s">
+      <c r="A30" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="210"/>
-      <c r="C30" s="210"/>
-      <c r="D30" s="211"/>
-      <c r="E30" s="218" t="s">
+      <c r="B30" s="225"/>
+      <c r="C30" s="225"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="220"/>
-      <c r="J30" s="220"/>
-      <c r="K30" s="220"/>
-      <c r="L30" s="220"/>
-      <c r="M30" s="221"/>
-      <c r="N30" s="222" t="s">
+      <c r="F30" s="211"/>
+      <c r="G30" s="212"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="212"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="210"/>
-      <c r="P30" s="210"/>
-      <c r="Q30" s="211"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="228"/>
-      <c r="T30" s="228"/>
-      <c r="U30" s="228"/>
-      <c r="V30" s="229"/>
+      <c r="O30" s="225"/>
+      <c r="P30" s="225"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="233"/>
+      <c r="S30" s="234"/>
+      <c r="T30" s="234"/>
+      <c r="U30" s="234"/>
+      <c r="V30" s="235"/>
     </row>
     <row r="31" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="212"/>
-      <c r="B31" s="213"/>
-      <c r="C31" s="213"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="237"/>
-      <c r="G31" s="237"/>
-      <c r="H31" s="237"/>
-      <c r="I31" s="237"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="237"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="238"/>
-      <c r="N31" s="223"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="214"/>
-      <c r="R31" s="230"/>
-      <c r="S31" s="231"/>
-      <c r="T31" s="231"/>
-      <c r="U31" s="231"/>
-      <c r="V31" s="232"/>
+      <c r="A31" s="244"/>
+      <c r="B31" s="228"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="214"/>
+      <c r="F31" s="215"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="215"/>
+      <c r="M31" s="242"/>
+      <c r="N31" s="227"/>
+      <c r="O31" s="228"/>
+      <c r="P31" s="228"/>
+      <c r="Q31" s="229"/>
+      <c r="R31" s="236"/>
+      <c r="S31" s="237"/>
+      <c r="T31" s="237"/>
+      <c r="U31" s="237"/>
+      <c r="V31" s="238"/>
     </row>
     <row r="32" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="215"/>
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="217"/>
-      <c r="E32" s="239"/>
-      <c r="F32" s="240"/>
-      <c r="G32" s="240"/>
-      <c r="H32" s="240"/>
-      <c r="I32" s="240"/>
-      <c r="J32" s="240"/>
-      <c r="K32" s="240"/>
-      <c r="L32" s="240"/>
-      <c r="M32" s="241"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="225"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="233"/>
-      <c r="S32" s="234"/>
-      <c r="T32" s="234"/>
-      <c r="U32" s="234"/>
-      <c r="V32" s="235"/>
+      <c r="A32" s="245"/>
+      <c r="B32" s="246"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="221"/>
+      <c r="G32" s="221"/>
+      <c r="H32" s="221"/>
+      <c r="I32" s="221"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="221"/>
+      <c r="L32" s="221"/>
+      <c r="M32" s="243"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="231"/>
+      <c r="P32" s="231"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="239"/>
+      <c r="S32" s="240"/>
+      <c r="T32" s="240"/>
+      <c r="U32" s="240"/>
+      <c r="V32" s="241"/>
     </row>
     <row r="33" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="210"/>
-      <c r="C33" s="210"/>
-      <c r="D33" s="211"/>
-      <c r="E33" s="218" t="s">
+      <c r="B33" s="225"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="219"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
-      <c r="L33" s="220"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="222" t="s">
+      <c r="F33" s="211"/>
+      <c r="G33" s="212"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="212"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O33" s="210"/>
-      <c r="P33" s="210"/>
-      <c r="Q33" s="211"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="228"/>
-      <c r="T33" s="228"/>
-      <c r="U33" s="228"/>
-      <c r="V33" s="229"/>
+      <c r="O33" s="225"/>
+      <c r="P33" s="225"/>
+      <c r="Q33" s="226"/>
+      <c r="R33" s="233"/>
+      <c r="S33" s="234"/>
+      <c r="T33" s="234"/>
+      <c r="U33" s="234"/>
+      <c r="V33" s="235"/>
     </row>
     <row r="34" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="212"/>
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="236"/>
-      <c r="F34" s="237"/>
-      <c r="G34" s="237"/>
-      <c r="H34" s="237"/>
-      <c r="I34" s="237"/>
-      <c r="J34" s="237"/>
-      <c r="K34" s="237"/>
-      <c r="L34" s="237"/>
-      <c r="M34" s="238"/>
-      <c r="N34" s="223"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="214"/>
-      <c r="R34" s="230"/>
-      <c r="S34" s="231"/>
-      <c r="T34" s="231"/>
-      <c r="U34" s="231"/>
-      <c r="V34" s="232"/>
+      <c r="A34" s="244"/>
+      <c r="B34" s="228"/>
+      <c r="C34" s="228"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="215"/>
+      <c r="M34" s="242"/>
+      <c r="N34" s="227"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="229"/>
+      <c r="R34" s="236"/>
+      <c r="S34" s="237"/>
+      <c r="T34" s="237"/>
+      <c r="U34" s="237"/>
+      <c r="V34" s="238"/>
     </row>
     <row r="35" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="215"/>
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="239"/>
-      <c r="F35" s="240"/>
-      <c r="G35" s="240"/>
-      <c r="H35" s="240"/>
-      <c r="I35" s="240"/>
-      <c r="J35" s="240"/>
-      <c r="K35" s="240"/>
-      <c r="L35" s="240"/>
-      <c r="M35" s="241"/>
-      <c r="N35" s="224"/>
-      <c r="O35" s="225"/>
-      <c r="P35" s="225"/>
-      <c r="Q35" s="226"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="234"/>
-      <c r="T35" s="234"/>
-      <c r="U35" s="234"/>
-      <c r="V35" s="235"/>
+      <c r="A35" s="245"/>
+      <c r="B35" s="246"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="221"/>
+      <c r="J35" s="221"/>
+      <c r="K35" s="221"/>
+      <c r="L35" s="221"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="230"/>
+      <c r="O35" s="231"/>
+      <c r="P35" s="231"/>
+      <c r="Q35" s="232"/>
+      <c r="R35" s="239"/>
+      <c r="S35" s="240"/>
+      <c r="T35" s="240"/>
+      <c r="U35" s="240"/>
+      <c r="V35" s="241"/>
     </row>
     <row r="36" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="188" t="s">
+      <c r="A36" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="218" t="s">
+      <c r="B36" s="225"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="219"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="220"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="220"/>
-      <c r="M36" s="221"/>
-      <c r="N36" s="222" t="s">
+      <c r="F36" s="211"/>
+      <c r="G36" s="212"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="212"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="227"/>
-      <c r="S36" s="228"/>
-      <c r="T36" s="228"/>
-      <c r="U36" s="228"/>
-      <c r="V36" s="229"/>
+      <c r="O36" s="225"/>
+      <c r="P36" s="225"/>
+      <c r="Q36" s="226"/>
+      <c r="R36" s="233"/>
+      <c r="S36" s="234"/>
+      <c r="T36" s="234"/>
+      <c r="U36" s="234"/>
+      <c r="V36" s="235"/>
     </row>
     <row r="37" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="212"/>
-      <c r="B37" s="213"/>
-      <c r="C37" s="213"/>
-      <c r="D37" s="214"/>
-      <c r="E37" s="236"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="237"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="238"/>
-      <c r="N37" s="223"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="214"/>
-      <c r="R37" s="230"/>
-      <c r="S37" s="231"/>
-      <c r="T37" s="231"/>
-      <c r="U37" s="231"/>
-      <c r="V37" s="232"/>
+      <c r="A37" s="244"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="228"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="215"/>
+      <c r="M37" s="242"/>
+      <c r="N37" s="227"/>
+      <c r="O37" s="228"/>
+      <c r="P37" s="228"/>
+      <c r="Q37" s="229"/>
+      <c r="R37" s="236"/>
+      <c r="S37" s="237"/>
+      <c r="T37" s="237"/>
+      <c r="U37" s="237"/>
+      <c r="V37" s="238"/>
     </row>
     <row r="38" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="215"/>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="217"/>
-      <c r="E38" s="239"/>
-      <c r="F38" s="240"/>
-      <c r="G38" s="240"/>
-      <c r="H38" s="240"/>
-      <c r="I38" s="240"/>
-      <c r="J38" s="240"/>
-      <c r="K38" s="240"/>
-      <c r="L38" s="240"/>
-      <c r="M38" s="241"/>
-      <c r="N38" s="224"/>
-      <c r="O38" s="225"/>
-      <c r="P38" s="225"/>
-      <c r="Q38" s="226"/>
-      <c r="R38" s="233"/>
-      <c r="S38" s="234"/>
-      <c r="T38" s="234"/>
-      <c r="U38" s="234"/>
-      <c r="V38" s="235"/>
+      <c r="A38" s="245"/>
+      <c r="B38" s="246"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="230"/>
+      <c r="O38" s="231"/>
+      <c r="P38" s="231"/>
+      <c r="Q38" s="232"/>
+      <c r="R38" s="239"/>
+      <c r="S38" s="240"/>
+      <c r="T38" s="240"/>
+      <c r="U38" s="240"/>
+      <c r="V38" s="241"/>
     </row>
     <row r="39" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="188" t="s">
+      <c r="A39" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
-      <c r="D39" s="211"/>
-      <c r="E39" s="218" t="s">
+      <c r="B39" s="225"/>
+      <c r="C39" s="225"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="219"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="222" t="s">
+      <c r="F39" s="211"/>
+      <c r="G39" s="212"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="212"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O39" s="210"/>
-      <c r="P39" s="210"/>
-      <c r="Q39" s="211"/>
-      <c r="R39" s="227"/>
-      <c r="S39" s="228"/>
-      <c r="T39" s="228"/>
-      <c r="U39" s="228"/>
-      <c r="V39" s="229"/>
+      <c r="O39" s="225"/>
+      <c r="P39" s="225"/>
+      <c r="Q39" s="226"/>
+      <c r="R39" s="233"/>
+      <c r="S39" s="234"/>
+      <c r="T39" s="234"/>
+      <c r="U39" s="234"/>
+      <c r="V39" s="235"/>
     </row>
     <row r="40" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="212"/>
-      <c r="B40" s="213"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="236"/>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="237"/>
-      <c r="K40" s="237"/>
-      <c r="L40" s="237"/>
-      <c r="M40" s="238"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
-      <c r="Q40" s="214"/>
-      <c r="R40" s="230"/>
-      <c r="S40" s="231"/>
-      <c r="T40" s="231"/>
-      <c r="U40" s="231"/>
-      <c r="V40" s="232"/>
+      <c r="A40" s="244"/>
+      <c r="B40" s="228"/>
+      <c r="C40" s="228"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="215"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="215"/>
+      <c r="M40" s="242"/>
+      <c r="N40" s="227"/>
+      <c r="O40" s="228"/>
+      <c r="P40" s="228"/>
+      <c r="Q40" s="229"/>
+      <c r="R40" s="236"/>
+      <c r="S40" s="237"/>
+      <c r="T40" s="237"/>
+      <c r="U40" s="237"/>
+      <c r="V40" s="238"/>
     </row>
     <row r="41" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="215"/>
-      <c r="B41" s="216"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="239"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="240"/>
-      <c r="M41" s="241"/>
-      <c r="N41" s="224"/>
-      <c r="O41" s="225"/>
-      <c r="P41" s="225"/>
-      <c r="Q41" s="226"/>
-      <c r="R41" s="233"/>
-      <c r="S41" s="234"/>
-      <c r="T41" s="234"/>
-      <c r="U41" s="234"/>
-      <c r="V41" s="235"/>
+      <c r="A41" s="245"/>
+      <c r="B41" s="246"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="243"/>
+      <c r="N41" s="230"/>
+      <c r="O41" s="231"/>
+      <c r="P41" s="231"/>
+      <c r="Q41" s="232"/>
+      <c r="R41" s="239"/>
+      <c r="S41" s="240"/>
+      <c r="T41" s="240"/>
+      <c r="U41" s="240"/>
+      <c r="V41" s="241"/>
     </row>
     <row r="42" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="188" t="s">
+      <c r="A42" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="210"/>
-      <c r="C42" s="210"/>
-      <c r="D42" s="211"/>
-      <c r="E42" s="218" t="s">
+      <c r="B42" s="225"/>
+      <c r="C42" s="225"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="219"/>
-      <c r="G42" s="220"/>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
-      <c r="K42" s="220"/>
-      <c r="L42" s="220"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="222" t="s">
+      <c r="F42" s="211"/>
+      <c r="G42" s="212"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="212"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O42" s="210"/>
-      <c r="P42" s="210"/>
-      <c r="Q42" s="211"/>
-      <c r="R42" s="227"/>
-      <c r="S42" s="228"/>
-      <c r="T42" s="228"/>
-      <c r="U42" s="228"/>
-      <c r="V42" s="229"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="226"/>
+      <c r="R42" s="233"/>
+      <c r="S42" s="234"/>
+      <c r="T42" s="234"/>
+      <c r="U42" s="234"/>
+      <c r="V42" s="235"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="212"/>
-      <c r="B43" s="213"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="236"/>
-      <c r="F43" s="237"/>
-      <c r="G43" s="237"/>
-      <c r="H43" s="237"/>
-      <c r="I43" s="237"/>
-      <c r="J43" s="237"/>
-      <c r="K43" s="237"/>
-      <c r="L43" s="237"/>
-      <c r="M43" s="238"/>
-      <c r="N43" s="223"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213"/>
-      <c r="Q43" s="214"/>
-      <c r="R43" s="230"/>
-      <c r="S43" s="231"/>
-      <c r="T43" s="231"/>
-      <c r="U43" s="231"/>
-      <c r="V43" s="232"/>
+      <c r="A43" s="244"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="228"/>
+      <c r="D43" s="229"/>
+      <c r="E43" s="214"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="215"/>
+      <c r="M43" s="242"/>
+      <c r="N43" s="227"/>
+      <c r="O43" s="228"/>
+      <c r="P43" s="228"/>
+      <c r="Q43" s="229"/>
+      <c r="R43" s="236"/>
+      <c r="S43" s="237"/>
+      <c r="T43" s="237"/>
+      <c r="U43" s="237"/>
+      <c r="V43" s="238"/>
     </row>
     <row r="44" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="215"/>
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="217"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="240"/>
-      <c r="G44" s="240"/>
-      <c r="H44" s="240"/>
-      <c r="I44" s="240"/>
-      <c r="J44" s="240"/>
-      <c r="K44" s="240"/>
-      <c r="L44" s="240"/>
-      <c r="M44" s="241"/>
-      <c r="N44" s="224"/>
-      <c r="O44" s="225"/>
-      <c r="P44" s="225"/>
-      <c r="Q44" s="226"/>
-      <c r="R44" s="233"/>
-      <c r="S44" s="234"/>
-      <c r="T44" s="234"/>
-      <c r="U44" s="234"/>
-      <c r="V44" s="235"/>
+      <c r="A44" s="245"/>
+      <c r="B44" s="246"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="220"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="243"/>
+      <c r="N44" s="230"/>
+      <c r="O44" s="231"/>
+      <c r="P44" s="231"/>
+      <c r="Q44" s="232"/>
+      <c r="R44" s="239"/>
+      <c r="S44" s="240"/>
+      <c r="T44" s="240"/>
+      <c r="U44" s="240"/>
+      <c r="V44" s="241"/>
     </row>
     <row r="45" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="188" t="s">
+      <c r="A45" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="210"/>
-      <c r="C45" s="210"/>
-      <c r="D45" s="211"/>
-      <c r="E45" s="218" t="s">
+      <c r="B45" s="225"/>
+      <c r="C45" s="225"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="219"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="220"/>
-      <c r="K45" s="220"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="222" t="s">
+      <c r="F45" s="211"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O45" s="210"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="211"/>
-      <c r="R45" s="227"/>
-      <c r="S45" s="228"/>
-      <c r="T45" s="228"/>
-      <c r="U45" s="228"/>
-      <c r="V45" s="229"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="226"/>
+      <c r="R45" s="233"/>
+      <c r="S45" s="234"/>
+      <c r="T45" s="234"/>
+      <c r="U45" s="234"/>
+      <c r="V45" s="235"/>
     </row>
     <row r="46" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="212"/>
-      <c r="B46" s="213"/>
-      <c r="C46" s="213"/>
-      <c r="D46" s="214"/>
-      <c r="E46" s="236"/>
-      <c r="F46" s="237"/>
-      <c r="G46" s="237"/>
-      <c r="H46" s="237"/>
-      <c r="I46" s="237"/>
-      <c r="J46" s="237"/>
-      <c r="K46" s="237"/>
-      <c r="L46" s="237"/>
-      <c r="M46" s="238"/>
-      <c r="N46" s="223"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
-      <c r="Q46" s="214"/>
-      <c r="R46" s="230"/>
-      <c r="S46" s="231"/>
-      <c r="T46" s="231"/>
-      <c r="U46" s="231"/>
-      <c r="V46" s="232"/>
+      <c r="A46" s="244"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="228"/>
+      <c r="D46" s="229"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="215"/>
+      <c r="G46" s="215"/>
+      <c r="H46" s="215"/>
+      <c r="I46" s="215"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="215"/>
+      <c r="L46" s="215"/>
+      <c r="M46" s="242"/>
+      <c r="N46" s="227"/>
+      <c r="O46" s="228"/>
+      <c r="P46" s="228"/>
+      <c r="Q46" s="229"/>
+      <c r="R46" s="236"/>
+      <c r="S46" s="237"/>
+      <c r="T46" s="237"/>
+      <c r="U46" s="237"/>
+      <c r="V46" s="238"/>
     </row>
     <row r="47" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="215"/>
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="239"/>
-      <c r="F47" s="240"/>
-      <c r="G47" s="240"/>
-      <c r="H47" s="240"/>
-      <c r="I47" s="240"/>
-      <c r="J47" s="240"/>
-      <c r="K47" s="240"/>
-      <c r="L47" s="240"/>
-      <c r="M47" s="241"/>
-      <c r="N47" s="224"/>
-      <c r="O47" s="225"/>
-      <c r="P47" s="225"/>
-      <c r="Q47" s="226"/>
-      <c r="R47" s="233"/>
-      <c r="S47" s="234"/>
-      <c r="T47" s="234"/>
-      <c r="U47" s="234"/>
-      <c r="V47" s="235"/>
+      <c r="A47" s="245"/>
+      <c r="B47" s="246"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="247"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="221"/>
+      <c r="G47" s="221"/>
+      <c r="H47" s="221"/>
+      <c r="I47" s="221"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="221"/>
+      <c r="L47" s="221"/>
+      <c r="M47" s="243"/>
+      <c r="N47" s="230"/>
+      <c r="O47" s="231"/>
+      <c r="P47" s="231"/>
+      <c r="Q47" s="232"/>
+      <c r="R47" s="239"/>
+      <c r="S47" s="240"/>
+      <c r="T47" s="240"/>
+      <c r="U47" s="240"/>
+      <c r="V47" s="241"/>
     </row>
     <row r="48" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="188" t="s">
+      <c r="A48" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="210"/>
-      <c r="C48" s="210"/>
-      <c r="D48" s="211"/>
-      <c r="E48" s="218" t="s">
+      <c r="B48" s="225"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="219"/>
-      <c r="G48" s="220"/>
-      <c r="H48" s="220"/>
-      <c r="I48" s="220"/>
-      <c r="J48" s="220"/>
-      <c r="K48" s="220"/>
-      <c r="L48" s="220"/>
-      <c r="M48" s="221"/>
-      <c r="N48" s="222" t="s">
+      <c r="F48" s="211"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="212"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O48" s="210"/>
-      <c r="P48" s="210"/>
-      <c r="Q48" s="211"/>
-      <c r="R48" s="227"/>
-      <c r="S48" s="228"/>
-      <c r="T48" s="228"/>
-      <c r="U48" s="228"/>
-      <c r="V48" s="229"/>
+      <c r="O48" s="225"/>
+      <c r="P48" s="225"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="233"/>
+      <c r="S48" s="234"/>
+      <c r="T48" s="234"/>
+      <c r="U48" s="234"/>
+      <c r="V48" s="235"/>
     </row>
     <row r="49" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="212"/>
-      <c r="B49" s="213"/>
-      <c r="C49" s="213"/>
-      <c r="D49" s="214"/>
-      <c r="E49" s="236"/>
-      <c r="F49" s="237"/>
-      <c r="G49" s="237"/>
-      <c r="H49" s="237"/>
-      <c r="I49" s="237"/>
-      <c r="J49" s="237"/>
-      <c r="K49" s="237"/>
-      <c r="L49" s="237"/>
-      <c r="M49" s="238"/>
-      <c r="N49" s="223"/>
-      <c r="O49" s="213"/>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="214"/>
-      <c r="R49" s="230"/>
-      <c r="S49" s="231"/>
-      <c r="T49" s="231"/>
-      <c r="U49" s="231"/>
-      <c r="V49" s="232"/>
+      <c r="A49" s="244"/>
+      <c r="B49" s="228"/>
+      <c r="C49" s="228"/>
+      <c r="D49" s="229"/>
+      <c r="E49" s="214"/>
+      <c r="F49" s="215"/>
+      <c r="G49" s="215"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="215"/>
+      <c r="L49" s="215"/>
+      <c r="M49" s="242"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="228"/>
+      <c r="P49" s="228"/>
+      <c r="Q49" s="229"/>
+      <c r="R49" s="236"/>
+      <c r="S49" s="237"/>
+      <c r="T49" s="237"/>
+      <c r="U49" s="237"/>
+      <c r="V49" s="238"/>
     </row>
     <row r="50" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="215"/>
-      <c r="B50" s="216"/>
-      <c r="C50" s="216"/>
-      <c r="D50" s="217"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="240"/>
-      <c r="G50" s="240"/>
-      <c r="H50" s="240"/>
-      <c r="I50" s="240"/>
-      <c r="J50" s="240"/>
-      <c r="K50" s="240"/>
-      <c r="L50" s="240"/>
-      <c r="M50" s="241"/>
-      <c r="N50" s="224"/>
-      <c r="O50" s="225"/>
-      <c r="P50" s="225"/>
-      <c r="Q50" s="226"/>
-      <c r="R50" s="233"/>
-      <c r="S50" s="234"/>
-      <c r="T50" s="234"/>
-      <c r="U50" s="234"/>
-      <c r="V50" s="235"/>
+      <c r="A50" s="245"/>
+      <c r="B50" s="246"/>
+      <c r="C50" s="246"/>
+      <c r="D50" s="247"/>
+      <c r="E50" s="220"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="221"/>
+      <c r="H50" s="221"/>
+      <c r="I50" s="221"/>
+      <c r="J50" s="221"/>
+      <c r="K50" s="221"/>
+      <c r="L50" s="221"/>
+      <c r="M50" s="243"/>
+      <c r="N50" s="230"/>
+      <c r="O50" s="231"/>
+      <c r="P50" s="231"/>
+      <c r="Q50" s="232"/>
+      <c r="R50" s="239"/>
+      <c r="S50" s="240"/>
+      <c r="T50" s="240"/>
+      <c r="U50" s="240"/>
+      <c r="V50" s="241"/>
     </row>
     <row r="51" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="188" t="s">
+      <c r="A51" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="210"/>
-      <c r="C51" s="210"/>
-      <c r="D51" s="211"/>
-      <c r="E51" s="218" t="s">
+      <c r="B51" s="225"/>
+      <c r="C51" s="225"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="219"/>
-      <c r="G51" s="220"/>
-      <c r="H51" s="220"/>
-      <c r="I51" s="220"/>
-      <c r="J51" s="220"/>
-      <c r="K51" s="220"/>
-      <c r="L51" s="220"/>
-      <c r="M51" s="221"/>
-      <c r="N51" s="222" t="s">
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="212"/>
+      <c r="K51" s="212"/>
+      <c r="L51" s="212"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O51" s="210"/>
-      <c r="P51" s="210"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="227"/>
-      <c r="S51" s="228"/>
-      <c r="T51" s="228"/>
-      <c r="U51" s="228"/>
-      <c r="V51" s="229"/>
+      <c r="O51" s="225"/>
+      <c r="P51" s="225"/>
+      <c r="Q51" s="226"/>
+      <c r="R51" s="233"/>
+      <c r="S51" s="234"/>
+      <c r="T51" s="234"/>
+      <c r="U51" s="234"/>
+      <c r="V51" s="235"/>
     </row>
     <row r="52" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="212"/>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="214"/>
-      <c r="E52" s="236"/>
-      <c r="F52" s="237"/>
-      <c r="G52" s="237"/>
-      <c r="H52" s="237"/>
-      <c r="I52" s="237"/>
-      <c r="J52" s="237"/>
-      <c r="K52" s="237"/>
-      <c r="L52" s="237"/>
-      <c r="M52" s="238"/>
-      <c r="N52" s="223"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="214"/>
-      <c r="R52" s="230"/>
-      <c r="S52" s="231"/>
-      <c r="T52" s="231"/>
-      <c r="U52" s="231"/>
-      <c r="V52" s="232"/>
+      <c r="A52" s="244"/>
+      <c r="B52" s="228"/>
+      <c r="C52" s="228"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="215"/>
+      <c r="L52" s="215"/>
+      <c r="M52" s="242"/>
+      <c r="N52" s="227"/>
+      <c r="O52" s="228"/>
+      <c r="P52" s="228"/>
+      <c r="Q52" s="229"/>
+      <c r="R52" s="236"/>
+      <c r="S52" s="237"/>
+      <c r="T52" s="237"/>
+      <c r="U52" s="237"/>
+      <c r="V52" s="238"/>
     </row>
     <row r="53" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="215"/>
-      <c r="B53" s="216"/>
-      <c r="C53" s="216"/>
-      <c r="D53" s="217"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="240"/>
-      <c r="G53" s="240"/>
-      <c r="H53" s="240"/>
-      <c r="I53" s="240"/>
-      <c r="J53" s="240"/>
-      <c r="K53" s="240"/>
-      <c r="L53" s="240"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="224"/>
-      <c r="O53" s="225"/>
-      <c r="P53" s="225"/>
-      <c r="Q53" s="226"/>
-      <c r="R53" s="233"/>
-      <c r="S53" s="234"/>
-      <c r="T53" s="234"/>
-      <c r="U53" s="234"/>
-      <c r="V53" s="235"/>
+      <c r="A53" s="245"/>
+      <c r="B53" s="246"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="247"/>
+      <c r="E53" s="220"/>
+      <c r="F53" s="221"/>
+      <c r="G53" s="221"/>
+      <c r="H53" s="221"/>
+      <c r="I53" s="221"/>
+      <c r="J53" s="221"/>
+      <c r="K53" s="221"/>
+      <c r="L53" s="221"/>
+      <c r="M53" s="243"/>
+      <c r="N53" s="230"/>
+      <c r="O53" s="231"/>
+      <c r="P53" s="231"/>
+      <c r="Q53" s="232"/>
+      <c r="R53" s="239"/>
+      <c r="S53" s="240"/>
+      <c r="T53" s="240"/>
+      <c r="U53" s="240"/>
+      <c r="V53" s="241"/>
     </row>
     <row r="54" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="188" t="s">
+      <c r="A54" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="210"/>
-      <c r="C54" s="210"/>
-      <c r="D54" s="211"/>
-      <c r="E54" s="218" t="s">
+      <c r="B54" s="225"/>
+      <c r="C54" s="225"/>
+      <c r="D54" s="226"/>
+      <c r="E54" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="219"/>
-      <c r="G54" s="220"/>
-      <c r="H54" s="220"/>
-      <c r="I54" s="220"/>
-      <c r="J54" s="220"/>
-      <c r="K54" s="220"/>
-      <c r="L54" s="220"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="222" t="s">
+      <c r="F54" s="211"/>
+      <c r="G54" s="212"/>
+      <c r="H54" s="212"/>
+      <c r="I54" s="212"/>
+      <c r="J54" s="212"/>
+      <c r="K54" s="212"/>
+      <c r="L54" s="212"/>
+      <c r="M54" s="223"/>
+      <c r="N54" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O54" s="210"/>
-      <c r="P54" s="210"/>
-      <c r="Q54" s="211"/>
-      <c r="R54" s="227"/>
-      <c r="S54" s="228"/>
-      <c r="T54" s="228"/>
-      <c r="U54" s="228"/>
-      <c r="V54" s="229"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="226"/>
+      <c r="R54" s="233"/>
+      <c r="S54" s="234"/>
+      <c r="T54" s="234"/>
+      <c r="U54" s="234"/>
+      <c r="V54" s="235"/>
     </row>
     <row r="55" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="212"/>
-      <c r="B55" s="213"/>
-      <c r="C55" s="213"/>
-      <c r="D55" s="214"/>
-      <c r="E55" s="236"/>
-      <c r="F55" s="237"/>
-      <c r="G55" s="237"/>
-      <c r="H55" s="237"/>
-      <c r="I55" s="237"/>
-      <c r="J55" s="237"/>
-      <c r="K55" s="237"/>
-      <c r="L55" s="237"/>
-      <c r="M55" s="238"/>
-      <c r="N55" s="223"/>
-      <c r="O55" s="213"/>
-      <c r="P55" s="213"/>
-      <c r="Q55" s="214"/>
-      <c r="R55" s="230"/>
-      <c r="S55" s="231"/>
-      <c r="T55" s="231"/>
-      <c r="U55" s="231"/>
-      <c r="V55" s="232"/>
+      <c r="A55" s="244"/>
+      <c r="B55" s="228"/>
+      <c r="C55" s="228"/>
+      <c r="D55" s="229"/>
+      <c r="E55" s="214"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="215"/>
+      <c r="H55" s="215"/>
+      <c r="I55" s="215"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="215"/>
+      <c r="L55" s="215"/>
+      <c r="M55" s="242"/>
+      <c r="N55" s="227"/>
+      <c r="O55" s="228"/>
+      <c r="P55" s="228"/>
+      <c r="Q55" s="229"/>
+      <c r="R55" s="236"/>
+      <c r="S55" s="237"/>
+      <c r="T55" s="237"/>
+      <c r="U55" s="237"/>
+      <c r="V55" s="238"/>
     </row>
     <row r="56" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="215"/>
-      <c r="B56" s="216"/>
-      <c r="C56" s="216"/>
-      <c r="D56" s="217"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="240"/>
-      <c r="H56" s="240"/>
-      <c r="I56" s="240"/>
-      <c r="J56" s="240"/>
-      <c r="K56" s="240"/>
-      <c r="L56" s="240"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="224"/>
-      <c r="O56" s="225"/>
-      <c r="P56" s="225"/>
-      <c r="Q56" s="226"/>
-      <c r="R56" s="233"/>
-      <c r="S56" s="234"/>
-      <c r="T56" s="234"/>
-      <c r="U56" s="234"/>
-      <c r="V56" s="235"/>
+      <c r="A56" s="245"/>
+      <c r="B56" s="246"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="221"/>
+      <c r="G56" s="221"/>
+      <c r="H56" s="221"/>
+      <c r="I56" s="221"/>
+      <c r="J56" s="221"/>
+      <c r="K56" s="221"/>
+      <c r="L56" s="221"/>
+      <c r="M56" s="243"/>
+      <c r="N56" s="230"/>
+      <c r="O56" s="231"/>
+      <c r="P56" s="231"/>
+      <c r="Q56" s="232"/>
+      <c r="R56" s="239"/>
+      <c r="S56" s="240"/>
+      <c r="T56" s="240"/>
+      <c r="U56" s="240"/>
+      <c r="V56" s="241"/>
     </row>
     <row r="57" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="188" t="s">
+      <c r="A57" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="210"/>
-      <c r="C57" s="210"/>
-      <c r="D57" s="211"/>
-      <c r="E57" s="218" t="s">
+      <c r="B57" s="225"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="219"/>
-      <c r="G57" s="220"/>
-      <c r="H57" s="220"/>
-      <c r="I57" s="220"/>
-      <c r="J57" s="220"/>
-      <c r="K57" s="220"/>
-      <c r="L57" s="220"/>
-      <c r="M57" s="221"/>
-      <c r="N57" s="222" t="s">
+      <c r="F57" s="211"/>
+      <c r="G57" s="212"/>
+      <c r="H57" s="212"/>
+      <c r="I57" s="212"/>
+      <c r="J57" s="212"/>
+      <c r="K57" s="212"/>
+      <c r="L57" s="212"/>
+      <c r="M57" s="223"/>
+      <c r="N57" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O57" s="210"/>
-      <c r="P57" s="210"/>
-      <c r="Q57" s="211"/>
-      <c r="R57" s="227"/>
-      <c r="S57" s="228"/>
-      <c r="T57" s="228"/>
-      <c r="U57" s="228"/>
-      <c r="V57" s="229"/>
+      <c r="O57" s="225"/>
+      <c r="P57" s="225"/>
+      <c r="Q57" s="226"/>
+      <c r="R57" s="233"/>
+      <c r="S57" s="234"/>
+      <c r="T57" s="234"/>
+      <c r="U57" s="234"/>
+      <c r="V57" s="235"/>
     </row>
     <row r="58" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="212"/>
-      <c r="B58" s="213"/>
-      <c r="C58" s="213"/>
-      <c r="D58" s="214"/>
-      <c r="E58" s="236"/>
-      <c r="F58" s="237"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="237"/>
-      <c r="K58" s="237"/>
-      <c r="L58" s="237"/>
-      <c r="M58" s="238"/>
-      <c r="N58" s="223"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="214"/>
-      <c r="R58" s="230"/>
-      <c r="S58" s="231"/>
-      <c r="T58" s="231"/>
-      <c r="U58" s="231"/>
-      <c r="V58" s="232"/>
+      <c r="A58" s="244"/>
+      <c r="B58" s="228"/>
+      <c r="C58" s="228"/>
+      <c r="D58" s="229"/>
+      <c r="E58" s="214"/>
+      <c r="F58" s="215"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="215"/>
+      <c r="M58" s="242"/>
+      <c r="N58" s="227"/>
+      <c r="O58" s="228"/>
+      <c r="P58" s="228"/>
+      <c r="Q58" s="229"/>
+      <c r="R58" s="236"/>
+      <c r="S58" s="237"/>
+      <c r="T58" s="237"/>
+      <c r="U58" s="237"/>
+      <c r="V58" s="238"/>
     </row>
     <row r="59" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="215"/>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217"/>
-      <c r="E59" s="239"/>
-      <c r="F59" s="240"/>
-      <c r="G59" s="240"/>
-      <c r="H59" s="240"/>
-      <c r="I59" s="240"/>
-      <c r="J59" s="240"/>
-      <c r="K59" s="240"/>
-      <c r="L59" s="240"/>
-      <c r="M59" s="241"/>
-      <c r="N59" s="224"/>
-      <c r="O59" s="225"/>
-      <c r="P59" s="225"/>
-      <c r="Q59" s="226"/>
-      <c r="R59" s="233"/>
-      <c r="S59" s="234"/>
-      <c r="T59" s="234"/>
-      <c r="U59" s="234"/>
-      <c r="V59" s="235"/>
+      <c r="A59" s="245"/>
+      <c r="B59" s="246"/>
+      <c r="C59" s="246"/>
+      <c r="D59" s="247"/>
+      <c r="E59" s="220"/>
+      <c r="F59" s="221"/>
+      <c r="G59" s="221"/>
+      <c r="H59" s="221"/>
+      <c r="I59" s="221"/>
+      <c r="J59" s="221"/>
+      <c r="K59" s="221"/>
+      <c r="L59" s="221"/>
+      <c r="M59" s="243"/>
+      <c r="N59" s="230"/>
+      <c r="O59" s="231"/>
+      <c r="P59" s="231"/>
+      <c r="Q59" s="232"/>
+      <c r="R59" s="239"/>
+      <c r="S59" s="240"/>
+      <c r="T59" s="240"/>
+      <c r="U59" s="240"/>
+      <c r="V59" s="241"/>
     </row>
     <row r="60" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="188" t="s">
+      <c r="A60" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="210"/>
-      <c r="C60" s="210"/>
-      <c r="D60" s="211"/>
-      <c r="E60" s="218" t="s">
+      <c r="B60" s="225"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="226"/>
+      <c r="E60" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="219"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="220"/>
-      <c r="K60" s="220"/>
-      <c r="L60" s="220"/>
-      <c r="M60" s="221"/>
-      <c r="N60" s="222" t="s">
+      <c r="F60" s="211"/>
+      <c r="G60" s="212"/>
+      <c r="H60" s="212"/>
+      <c r="I60" s="212"/>
+      <c r="J60" s="212"/>
+      <c r="K60" s="212"/>
+      <c r="L60" s="212"/>
+      <c r="M60" s="223"/>
+      <c r="N60" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O60" s="210"/>
-      <c r="P60" s="210"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="227"/>
-      <c r="S60" s="228"/>
-      <c r="T60" s="228"/>
-      <c r="U60" s="228"/>
-      <c r="V60" s="229"/>
+      <c r="O60" s="225"/>
+      <c r="P60" s="225"/>
+      <c r="Q60" s="226"/>
+      <c r="R60" s="233"/>
+      <c r="S60" s="234"/>
+      <c r="T60" s="234"/>
+      <c r="U60" s="234"/>
+      <c r="V60" s="235"/>
     </row>
     <row r="61" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="212"/>
-      <c r="B61" s="213"/>
-      <c r="C61" s="213"/>
-      <c r="D61" s="214"/>
-      <c r="E61" s="236"/>
-      <c r="F61" s="237"/>
-      <c r="G61" s="237"/>
-      <c r="H61" s="237"/>
-      <c r="I61" s="237"/>
-      <c r="J61" s="237"/>
-      <c r="K61" s="237"/>
-      <c r="L61" s="237"/>
-      <c r="M61" s="238"/>
-      <c r="N61" s="223"/>
-      <c r="O61" s="213"/>
-      <c r="P61" s="213"/>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="230"/>
-      <c r="S61" s="231"/>
-      <c r="T61" s="231"/>
-      <c r="U61" s="231"/>
-      <c r="V61" s="232"/>
+      <c r="A61" s="244"/>
+      <c r="B61" s="228"/>
+      <c r="C61" s="228"/>
+      <c r="D61" s="229"/>
+      <c r="E61" s="214"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
+      <c r="I61" s="215"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="215"/>
+      <c r="L61" s="215"/>
+      <c r="M61" s="242"/>
+      <c r="N61" s="227"/>
+      <c r="O61" s="228"/>
+      <c r="P61" s="228"/>
+      <c r="Q61" s="229"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
+      <c r="T61" s="237"/>
+      <c r="U61" s="237"/>
+      <c r="V61" s="238"/>
     </row>
     <row r="62" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="215"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="239"/>
-      <c r="F62" s="240"/>
-      <c r="G62" s="240"/>
-      <c r="H62" s="240"/>
-      <c r="I62" s="240"/>
-      <c r="J62" s="240"/>
-      <c r="K62" s="240"/>
-      <c r="L62" s="240"/>
-      <c r="M62" s="241"/>
-      <c r="N62" s="224"/>
-      <c r="O62" s="225"/>
-      <c r="P62" s="225"/>
-      <c r="Q62" s="226"/>
-      <c r="R62" s="233"/>
-      <c r="S62" s="234"/>
-      <c r="T62" s="234"/>
-      <c r="U62" s="234"/>
-      <c r="V62" s="235"/>
+      <c r="A62" s="245"/>
+      <c r="B62" s="246"/>
+      <c r="C62" s="246"/>
+      <c r="D62" s="247"/>
+      <c r="E62" s="220"/>
+      <c r="F62" s="221"/>
+      <c r="G62" s="221"/>
+      <c r="H62" s="221"/>
+      <c r="I62" s="221"/>
+      <c r="J62" s="221"/>
+      <c r="K62" s="221"/>
+      <c r="L62" s="221"/>
+      <c r="M62" s="243"/>
+      <c r="N62" s="230"/>
+      <c r="O62" s="231"/>
+      <c r="P62" s="231"/>
+      <c r="Q62" s="232"/>
+      <c r="R62" s="239"/>
+      <c r="S62" s="240"/>
+      <c r="T62" s="240"/>
+      <c r="U62" s="240"/>
+      <c r="V62" s="241"/>
     </row>
     <row r="63" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="210"/>
-      <c r="C63" s="210"/>
-      <c r="D63" s="211"/>
-      <c r="E63" s="218" t="s">
+      <c r="B63" s="225"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="226"/>
+      <c r="E63" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="219"/>
-      <c r="G63" s="220"/>
-      <c r="H63" s="220"/>
-      <c r="I63" s="220"/>
-      <c r="J63" s="220"/>
-      <c r="K63" s="220"/>
-      <c r="L63" s="220"/>
-      <c r="M63" s="221"/>
-      <c r="N63" s="222" t="s">
+      <c r="F63" s="211"/>
+      <c r="G63" s="212"/>
+      <c r="H63" s="212"/>
+      <c r="I63" s="212"/>
+      <c r="J63" s="212"/>
+      <c r="K63" s="212"/>
+      <c r="L63" s="212"/>
+      <c r="M63" s="223"/>
+      <c r="N63" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O63" s="210"/>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="227"/>
-      <c r="S63" s="228"/>
-      <c r="T63" s="228"/>
-      <c r="U63" s="228"/>
-      <c r="V63" s="229"/>
+      <c r="O63" s="225"/>
+      <c r="P63" s="225"/>
+      <c r="Q63" s="226"/>
+      <c r="R63" s="233"/>
+      <c r="S63" s="234"/>
+      <c r="T63" s="234"/>
+      <c r="U63" s="234"/>
+      <c r="V63" s="235"/>
     </row>
     <row r="64" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="212"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="214"/>
-      <c r="E64" s="236"/>
-      <c r="F64" s="237"/>
-      <c r="G64" s="237"/>
-      <c r="H64" s="237"/>
-      <c r="I64" s="237"/>
-      <c r="J64" s="237"/>
-      <c r="K64" s="237"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="238"/>
-      <c r="N64" s="223"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="230"/>
-      <c r="S64" s="231"/>
-      <c r="T64" s="231"/>
-      <c r="U64" s="231"/>
-      <c r="V64" s="232"/>
+      <c r="A64" s="244"/>
+      <c r="B64" s="228"/>
+      <c r="C64" s="228"/>
+      <c r="D64" s="229"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="215"/>
+      <c r="G64" s="215"/>
+      <c r="H64" s="215"/>
+      <c r="I64" s="215"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="215"/>
+      <c r="M64" s="242"/>
+      <c r="N64" s="227"/>
+      <c r="O64" s="228"/>
+      <c r="P64" s="228"/>
+      <c r="Q64" s="229"/>
+      <c r="R64" s="236"/>
+      <c r="S64" s="237"/>
+      <c r="T64" s="237"/>
+      <c r="U64" s="237"/>
+      <c r="V64" s="238"/>
     </row>
     <row r="65" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="215"/>
-      <c r="B65" s="216"/>
-      <c r="C65" s="216"/>
-      <c r="D65" s="217"/>
-      <c r="E65" s="239"/>
-      <c r="F65" s="240"/>
-      <c r="G65" s="240"/>
-      <c r="H65" s="240"/>
-      <c r="I65" s="240"/>
-      <c r="J65" s="240"/>
-      <c r="K65" s="240"/>
-      <c r="L65" s="240"/>
-      <c r="M65" s="241"/>
-      <c r="N65" s="224"/>
-      <c r="O65" s="225"/>
-      <c r="P65" s="225"/>
-      <c r="Q65" s="226"/>
-      <c r="R65" s="233"/>
-      <c r="S65" s="234"/>
-      <c r="T65" s="234"/>
-      <c r="U65" s="234"/>
-      <c r="V65" s="235"/>
+      <c r="A65" s="245"/>
+      <c r="B65" s="246"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="247"/>
+      <c r="E65" s="220"/>
+      <c r="F65" s="221"/>
+      <c r="G65" s="221"/>
+      <c r="H65" s="221"/>
+      <c r="I65" s="221"/>
+      <c r="J65" s="221"/>
+      <c r="K65" s="221"/>
+      <c r="L65" s="221"/>
+      <c r="M65" s="243"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="231"/>
+      <c r="P65" s="231"/>
+      <c r="Q65" s="232"/>
+      <c r="R65" s="239"/>
+      <c r="S65" s="240"/>
+      <c r="T65" s="240"/>
+      <c r="U65" s="240"/>
+      <c r="V65" s="241"/>
     </row>
     <row r="66" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="188" t="s">
+      <c r="A66" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="210"/>
-      <c r="C66" s="210"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="218" t="s">
+      <c r="B66" s="225"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="219"/>
-      <c r="G66" s="220"/>
-      <c r="H66" s="220"/>
-      <c r="I66" s="220"/>
-      <c r="J66" s="220"/>
-      <c r="K66" s="220"/>
-      <c r="L66" s="220"/>
-      <c r="M66" s="221"/>
-      <c r="N66" s="222" t="s">
+      <c r="F66" s="211"/>
+      <c r="G66" s="212"/>
+      <c r="H66" s="212"/>
+      <c r="I66" s="212"/>
+      <c r="J66" s="212"/>
+      <c r="K66" s="212"/>
+      <c r="L66" s="212"/>
+      <c r="M66" s="223"/>
+      <c r="N66" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O66" s="210"/>
-      <c r="P66" s="210"/>
-      <c r="Q66" s="211"/>
-      <c r="R66" s="227"/>
-      <c r="S66" s="228"/>
-      <c r="T66" s="228"/>
-      <c r="U66" s="228"/>
-      <c r="V66" s="229"/>
+      <c r="O66" s="225"/>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="226"/>
+      <c r="R66" s="233"/>
+      <c r="S66" s="234"/>
+      <c r="T66" s="234"/>
+      <c r="U66" s="234"/>
+      <c r="V66" s="235"/>
     </row>
     <row r="67" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="212"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="214"/>
-      <c r="E67" s="236"/>
-      <c r="F67" s="237"/>
-      <c r="G67" s="237"/>
-      <c r="H67" s="237"/>
-      <c r="I67" s="237"/>
-      <c r="J67" s="237"/>
-      <c r="K67" s="237"/>
-      <c r="L67" s="237"/>
-      <c r="M67" s="238"/>
-      <c r="N67" s="223"/>
-      <c r="O67" s="213"/>
-      <c r="P67" s="213"/>
-      <c r="Q67" s="214"/>
-      <c r="R67" s="230"/>
-      <c r="S67" s="231"/>
-      <c r="T67" s="231"/>
-      <c r="U67" s="231"/>
-      <c r="V67" s="232"/>
+      <c r="A67" s="244"/>
+      <c r="B67" s="228"/>
+      <c r="C67" s="228"/>
+      <c r="D67" s="229"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="215"/>
+      <c r="G67" s="215"/>
+      <c r="H67" s="215"/>
+      <c r="I67" s="215"/>
+      <c r="J67" s="215"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="215"/>
+      <c r="M67" s="242"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="228"/>
+      <c r="P67" s="228"/>
+      <c r="Q67" s="229"/>
+      <c r="R67" s="236"/>
+      <c r="S67" s="237"/>
+      <c r="T67" s="237"/>
+      <c r="U67" s="237"/>
+      <c r="V67" s="238"/>
     </row>
     <row r="68" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="215"/>
-      <c r="B68" s="216"/>
-      <c r="C68" s="216"/>
-      <c r="D68" s="217"/>
-      <c r="E68" s="239"/>
-      <c r="F68" s="240"/>
-      <c r="G68" s="240"/>
-      <c r="H68" s="240"/>
-      <c r="I68" s="240"/>
-      <c r="J68" s="240"/>
-      <c r="K68" s="240"/>
-      <c r="L68" s="240"/>
-      <c r="M68" s="241"/>
-      <c r="N68" s="224"/>
-      <c r="O68" s="225"/>
-      <c r="P68" s="225"/>
-      <c r="Q68" s="226"/>
-      <c r="R68" s="233"/>
-      <c r="S68" s="234"/>
-      <c r="T68" s="234"/>
-      <c r="U68" s="234"/>
-      <c r="V68" s="235"/>
+      <c r="A68" s="245"/>
+      <c r="B68" s="246"/>
+      <c r="C68" s="246"/>
+      <c r="D68" s="247"/>
+      <c r="E68" s="220"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="221"/>
+      <c r="H68" s="221"/>
+      <c r="I68" s="221"/>
+      <c r="J68" s="221"/>
+      <c r="K68" s="221"/>
+      <c r="L68" s="221"/>
+      <c r="M68" s="243"/>
+      <c r="N68" s="230"/>
+      <c r="O68" s="231"/>
+      <c r="P68" s="231"/>
+      <c r="Q68" s="232"/>
+      <c r="R68" s="239"/>
+      <c r="S68" s="240"/>
+      <c r="T68" s="240"/>
+      <c r="U68" s="240"/>
+      <c r="V68" s="241"/>
     </row>
     <row r="69" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="188" t="s">
+      <c r="A69" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="210"/>
-      <c r="C69" s="210"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="218" t="s">
+      <c r="B69" s="225"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="219"/>
-      <c r="G69" s="220"/>
-      <c r="H69" s="220"/>
-      <c r="I69" s="220"/>
-      <c r="J69" s="220"/>
-      <c r="K69" s="220"/>
-      <c r="L69" s="220"/>
-      <c r="M69" s="221"/>
-      <c r="N69" s="222" t="s">
+      <c r="F69" s="211"/>
+      <c r="G69" s="212"/>
+      <c r="H69" s="212"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="212"/>
+      <c r="K69" s="212"/>
+      <c r="L69" s="212"/>
+      <c r="M69" s="223"/>
+      <c r="N69" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O69" s="210"/>
-      <c r="P69" s="210"/>
-      <c r="Q69" s="211"/>
-      <c r="R69" s="227"/>
-      <c r="S69" s="228"/>
-      <c r="T69" s="228"/>
-      <c r="U69" s="228"/>
-      <c r="V69" s="229"/>
+      <c r="O69" s="225"/>
+      <c r="P69" s="225"/>
+      <c r="Q69" s="226"/>
+      <c r="R69" s="233"/>
+      <c r="S69" s="234"/>
+      <c r="T69" s="234"/>
+      <c r="U69" s="234"/>
+      <c r="V69" s="235"/>
     </row>
     <row r="70" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="212"/>
-      <c r="B70" s="213"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="214"/>
-      <c r="E70" s="236"/>
-      <c r="F70" s="237"/>
-      <c r="G70" s="237"/>
-      <c r="H70" s="237"/>
-      <c r="I70" s="237"/>
-      <c r="J70" s="237"/>
-      <c r="K70" s="237"/>
-      <c r="L70" s="237"/>
-      <c r="M70" s="238"/>
-      <c r="N70" s="223"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213"/>
-      <c r="Q70" s="214"/>
-      <c r="R70" s="230"/>
-      <c r="S70" s="231"/>
-      <c r="T70" s="231"/>
-      <c r="U70" s="231"/>
-      <c r="V70" s="232"/>
+      <c r="A70" s="244"/>
+      <c r="B70" s="228"/>
+      <c r="C70" s="228"/>
+      <c r="D70" s="229"/>
+      <c r="E70" s="214"/>
+      <c r="F70" s="215"/>
+      <c r="G70" s="215"/>
+      <c r="H70" s="215"/>
+      <c r="I70" s="215"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="215"/>
+      <c r="L70" s="215"/>
+      <c r="M70" s="242"/>
+      <c r="N70" s="227"/>
+      <c r="O70" s="228"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="229"/>
+      <c r="R70" s="236"/>
+      <c r="S70" s="237"/>
+      <c r="T70" s="237"/>
+      <c r="U70" s="237"/>
+      <c r="V70" s="238"/>
     </row>
     <row r="71" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="215"/>
-      <c r="B71" s="216"/>
-      <c r="C71" s="216"/>
-      <c r="D71" s="217"/>
-      <c r="E71" s="239"/>
-      <c r="F71" s="240"/>
-      <c r="G71" s="240"/>
-      <c r="H71" s="240"/>
-      <c r="I71" s="240"/>
-      <c r="J71" s="240"/>
-      <c r="K71" s="240"/>
-      <c r="L71" s="240"/>
-      <c r="M71" s="241"/>
-      <c r="N71" s="224"/>
-      <c r="O71" s="225"/>
-      <c r="P71" s="225"/>
-      <c r="Q71" s="226"/>
-      <c r="R71" s="233"/>
-      <c r="S71" s="234"/>
-      <c r="T71" s="234"/>
-      <c r="U71" s="234"/>
-      <c r="V71" s="235"/>
+      <c r="A71" s="245"/>
+      <c r="B71" s="246"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="247"/>
+      <c r="E71" s="220"/>
+      <c r="F71" s="221"/>
+      <c r="G71" s="221"/>
+      <c r="H71" s="221"/>
+      <c r="I71" s="221"/>
+      <c r="J71" s="221"/>
+      <c r="K71" s="221"/>
+      <c r="L71" s="221"/>
+      <c r="M71" s="243"/>
+      <c r="N71" s="230"/>
+      <c r="O71" s="231"/>
+      <c r="P71" s="231"/>
+      <c r="Q71" s="232"/>
+      <c r="R71" s="239"/>
+      <c r="S71" s="240"/>
+      <c r="T71" s="240"/>
+      <c r="U71" s="240"/>
+      <c r="V71" s="241"/>
     </row>
     <row r="72" spans="1:22" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="188" t="s">
+      <c r="A72" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="210"/>
-      <c r="C72" s="210"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="218" t="s">
+      <c r="B72" s="225"/>
+      <c r="C72" s="225"/>
+      <c r="D72" s="226"/>
+      <c r="E72" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="219"/>
-      <c r="G72" s="220"/>
-      <c r="H72" s="220"/>
-      <c r="I72" s="220"/>
-      <c r="J72" s="220"/>
-      <c r="K72" s="220"/>
-      <c r="L72" s="220"/>
-      <c r="M72" s="221"/>
-      <c r="N72" s="222" t="s">
+      <c r="F72" s="211"/>
+      <c r="G72" s="212"/>
+      <c r="H72" s="212"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="212"/>
+      <c r="K72" s="212"/>
+      <c r="L72" s="212"/>
+      <c r="M72" s="223"/>
+      <c r="N72" s="224" t="s">
         <v>67</v>
       </c>
-      <c r="O72" s="210"/>
-      <c r="P72" s="210"/>
-      <c r="Q72" s="211"/>
-      <c r="R72" s="227"/>
-      <c r="S72" s="228"/>
-      <c r="T72" s="228"/>
-      <c r="U72" s="228"/>
-      <c r="V72" s="229"/>
+      <c r="O72" s="225"/>
+      <c r="P72" s="225"/>
+      <c r="Q72" s="226"/>
+      <c r="R72" s="233"/>
+      <c r="S72" s="234"/>
+      <c r="T72" s="234"/>
+      <c r="U72" s="234"/>
+      <c r="V72" s="235"/>
     </row>
     <row r="73" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="212"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="214"/>
-      <c r="E73" s="236"/>
-      <c r="F73" s="237"/>
-      <c r="G73" s="237"/>
-      <c r="H73" s="237"/>
-      <c r="I73" s="237"/>
-      <c r="J73" s="237"/>
-      <c r="K73" s="237"/>
-      <c r="L73" s="237"/>
-      <c r="M73" s="238"/>
-      <c r="N73" s="223"/>
-      <c r="O73" s="213"/>
-      <c r="P73" s="213"/>
-      <c r="Q73" s="214"/>
-      <c r="R73" s="230"/>
-      <c r="S73" s="231"/>
-      <c r="T73" s="231"/>
-      <c r="U73" s="231"/>
-      <c r="V73" s="232"/>
+      <c r="A73" s="244"/>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="229"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
+      <c r="H73" s="215"/>
+      <c r="I73" s="215"/>
+      <c r="J73" s="215"/>
+      <c r="K73" s="215"/>
+      <c r="L73" s="215"/>
+      <c r="M73" s="242"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="228"/>
+      <c r="P73" s="228"/>
+      <c r="Q73" s="229"/>
+      <c r="R73" s="236"/>
+      <c r="S73" s="237"/>
+      <c r="T73" s="237"/>
+      <c r="U73" s="237"/>
+      <c r="V73" s="238"/>
     </row>
     <row r="74" spans="1:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="242"/>
-      <c r="B74" s="225"/>
-      <c r="C74" s="225"/>
-      <c r="D74" s="226"/>
-      <c r="E74" s="239"/>
-      <c r="F74" s="240"/>
-      <c r="G74" s="240"/>
-      <c r="H74" s="240"/>
-      <c r="I74" s="240"/>
-      <c r="J74" s="240"/>
-      <c r="K74" s="240"/>
-      <c r="L74" s="240"/>
-      <c r="M74" s="241"/>
-      <c r="N74" s="224"/>
-      <c r="O74" s="225"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="226"/>
-      <c r="R74" s="233"/>
-      <c r="S74" s="234"/>
-      <c r="T74" s="234"/>
-      <c r="U74" s="234"/>
-      <c r="V74" s="235"/>
+      <c r="A74" s="248"/>
+      <c r="B74" s="231"/>
+      <c r="C74" s="231"/>
+      <c r="D74" s="232"/>
+      <c r="E74" s="220"/>
+      <c r="F74" s="221"/>
+      <c r="G74" s="221"/>
+      <c r="H74" s="221"/>
+      <c r="I74" s="221"/>
+      <c r="J74" s="221"/>
+      <c r="K74" s="221"/>
+      <c r="L74" s="221"/>
+      <c r="M74" s="243"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="231"/>
+      <c r="P74" s="231"/>
+      <c r="Q74" s="232"/>
+      <c r="R74" s="239"/>
+      <c r="S74" s="240"/>
+      <c r="T74" s="240"/>
+      <c r="U74" s="240"/>
+      <c r="V74" s="241"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8+RHXI0uyuPEn4xEDoSZ+V0WgGk2xm6ijICHnWOblV6qToCzu4GhDLMOI55j1BW0QpXQ31me8+46kjnUXPMQUA==" saltValue="zDq0m0fpGE1hYBX1TzkbFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="132">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="A5:D9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:V5"/>
-    <mergeCell ref="E6:V9"/>
-    <mergeCell ref="A18:D20"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="N18:Q20"/>
-    <mergeCell ref="A10:D14"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:V10"/>
-    <mergeCell ref="E11:V14"/>
-    <mergeCell ref="N15:Q17"/>
-    <mergeCell ref="A15:D17"/>
-    <mergeCell ref="R18:V20"/>
-    <mergeCell ref="E19:M20"/>
+    <mergeCell ref="A57:D59"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:M57"/>
+    <mergeCell ref="N57:Q59"/>
+    <mergeCell ref="R57:V59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="A66:D68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:M66"/>
+    <mergeCell ref="N66:Q68"/>
+    <mergeCell ref="R66:V68"/>
+    <mergeCell ref="E67:M68"/>
+    <mergeCell ref="A63:D65"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:M63"/>
+    <mergeCell ref="N63:Q65"/>
+    <mergeCell ref="R63:V65"/>
+    <mergeCell ref="E64:M65"/>
+    <mergeCell ref="A54:D56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="N54:Q56"/>
+    <mergeCell ref="R54:V56"/>
+    <mergeCell ref="E55:M56"/>
+    <mergeCell ref="A72:D74"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="N72:Q74"/>
+    <mergeCell ref="R72:V74"/>
+    <mergeCell ref="E73:M74"/>
+    <mergeCell ref="A69:D71"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:M69"/>
+    <mergeCell ref="N69:Q71"/>
+    <mergeCell ref="R69:V71"/>
+    <mergeCell ref="E70:M71"/>
+    <mergeCell ref="A60:D62"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="N60:Q62"/>
+    <mergeCell ref="R60:V62"/>
+    <mergeCell ref="E61:M62"/>
+    <mergeCell ref="A51:D53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:M51"/>
+    <mergeCell ref="N51:Q53"/>
+    <mergeCell ref="R51:V53"/>
+    <mergeCell ref="E52:M53"/>
+    <mergeCell ref="A48:D50"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="N48:Q50"/>
+    <mergeCell ref="R48:V50"/>
+    <mergeCell ref="E49:M50"/>
+    <mergeCell ref="A45:D47"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:M45"/>
+    <mergeCell ref="N45:Q47"/>
+    <mergeCell ref="R45:V47"/>
+    <mergeCell ref="E46:M47"/>
+    <mergeCell ref="R39:V41"/>
+    <mergeCell ref="E40:M41"/>
+    <mergeCell ref="A42:D44"/>
+    <mergeCell ref="G42:M42"/>
+    <mergeCell ref="N42:Q44"/>
+    <mergeCell ref="R42:V44"/>
+    <mergeCell ref="E43:M44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="A39:D41"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="N39:Q41"/>
+    <mergeCell ref="G27:M27"/>
+    <mergeCell ref="N27:Q29"/>
+    <mergeCell ref="R27:V29"/>
+    <mergeCell ref="E28:M29"/>
+    <mergeCell ref="N33:Q35"/>
+    <mergeCell ref="R33:V35"/>
+    <mergeCell ref="E34:M35"/>
+    <mergeCell ref="A36:D38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="N36:Q38"/>
+    <mergeCell ref="R36:V38"/>
+    <mergeCell ref="E37:M38"/>
+    <mergeCell ref="A33:D35"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:M33"/>
     <mergeCell ref="A21:D23"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="R15:V17"/>
@@ -8175,94 +8243,26 @@
     <mergeCell ref="E31:M32"/>
     <mergeCell ref="A27:D29"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:M27"/>
-    <mergeCell ref="N27:Q29"/>
-    <mergeCell ref="R27:V29"/>
-    <mergeCell ref="E28:M29"/>
-    <mergeCell ref="N33:Q35"/>
-    <mergeCell ref="R33:V35"/>
-    <mergeCell ref="E34:M35"/>
-    <mergeCell ref="A36:D38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="N36:Q38"/>
-    <mergeCell ref="R36:V38"/>
-    <mergeCell ref="E37:M38"/>
-    <mergeCell ref="A33:D35"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:M33"/>
-    <mergeCell ref="A45:D47"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:M45"/>
-    <mergeCell ref="N45:Q47"/>
-    <mergeCell ref="R45:V47"/>
-    <mergeCell ref="E46:M47"/>
-    <mergeCell ref="R39:V41"/>
-    <mergeCell ref="E40:M41"/>
-    <mergeCell ref="A42:D44"/>
-    <mergeCell ref="G42:M42"/>
-    <mergeCell ref="N42:Q44"/>
-    <mergeCell ref="R42:V44"/>
-    <mergeCell ref="E43:M44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A39:D41"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:M39"/>
-    <mergeCell ref="N39:Q41"/>
-    <mergeCell ref="A51:D53"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:M51"/>
-    <mergeCell ref="N51:Q53"/>
-    <mergeCell ref="R51:V53"/>
-    <mergeCell ref="E52:M53"/>
-    <mergeCell ref="A48:D50"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:M48"/>
-    <mergeCell ref="N48:Q50"/>
-    <mergeCell ref="R48:V50"/>
-    <mergeCell ref="E49:M50"/>
-    <mergeCell ref="A54:D56"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="N54:Q56"/>
-    <mergeCell ref="R54:V56"/>
-    <mergeCell ref="E55:M56"/>
-    <mergeCell ref="A72:D74"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="N72:Q74"/>
-    <mergeCell ref="R72:V74"/>
-    <mergeCell ref="E73:M74"/>
-    <mergeCell ref="A69:D71"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:M69"/>
-    <mergeCell ref="N69:Q71"/>
-    <mergeCell ref="R69:V71"/>
-    <mergeCell ref="E70:M71"/>
-    <mergeCell ref="A60:D62"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="N60:Q62"/>
-    <mergeCell ref="R60:V62"/>
-    <mergeCell ref="E61:M62"/>
-    <mergeCell ref="A57:D59"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:M57"/>
-    <mergeCell ref="N57:Q59"/>
-    <mergeCell ref="R57:V59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="A66:D68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:M66"/>
-    <mergeCell ref="N66:Q68"/>
-    <mergeCell ref="R66:V68"/>
-    <mergeCell ref="E67:M68"/>
-    <mergeCell ref="A63:D65"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:M63"/>
-    <mergeCell ref="N63:Q65"/>
-    <mergeCell ref="R63:V65"/>
-    <mergeCell ref="E64:M65"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="A5:D9"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:V5"/>
+    <mergeCell ref="E6:V9"/>
+    <mergeCell ref="A18:D20"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="N18:Q20"/>
+    <mergeCell ref="A10:D14"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:V10"/>
+    <mergeCell ref="E11:V14"/>
+    <mergeCell ref="N15:Q17"/>
+    <mergeCell ref="A15:D17"/>
+    <mergeCell ref="R18:V20"/>
+    <mergeCell ref="E19:M20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/contest18_oubo.xlsx
+++ b/contest18_oubo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>応募用紙</t>
     <phoneticPr fontId="1"/>
@@ -924,6 +924,121 @@
   </si>
   <si>
     <t>590</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このゲームはネリケシをゴールに連れていくために、
+試行錯誤しながらゴールへの行き方を探るパズルアクションゲームです。
+このゲームのアピールポイントは「試行錯誤を繰り返して正解を導き出す面白さ」で、
+パズルの徐々に正解に近づいていく感覚が好きな人には特におススメできると思います。
+豊富なステージや行く手を阻むギミックを乗り越え、ネリケシをゴールまで導いてあげましょう！</t>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>シコウサクゴ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="75" eb="79">
+      <t>シコウサクゴ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>ホウフ</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ユ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>ミチビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報クリエイタ工学科 1年</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウガクカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報クリエイタ工学科 １年</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウガクカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2692,7 +2807,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4079,8 +4194,8 @@
   </sheetPr>
   <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:V48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:V40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5008,7 +5123,7 @@
       </c>
       <c r="F37" s="171"/>
       <c r="G37" s="172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H37" s="172"/>
       <c r="I37" s="172"/>
@@ -5269,7 +5384,9 @@
       <c r="V46" s="205"/>
     </row>
     <row r="47" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="175"/>
+      <c r="A47" s="175" t="s">
+        <v>104</v>
+      </c>
       <c r="B47" s="176"/>
       <c r="C47" s="176"/>
       <c r="D47" s="176"/>
@@ -5779,17 +5896,23 @@
       <c r="I68" s="21"/>
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
-      <c r="L68" s="209"/>
+      <c r="L68" s="209" t="s">
+        <v>106</v>
+      </c>
       <c r="M68" s="209"/>
       <c r="N68" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="O68" s="209"/>
+      <c r="O68" s="209" t="s">
+        <v>107</v>
+      </c>
       <c r="P68" s="209"/>
       <c r="Q68" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R68" s="209"/>
+      <c r="R68" s="209" t="s">
+        <v>108</v>
+      </c>
       <c r="S68" s="209"/>
       <c r="T68" s="19" t="s">
         <v>28</v>
@@ -6197,8 +6320,8 @@
   </sheetPr>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:M20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18:V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6586,7 +6709,9 @@
       <c r="O15" s="225"/>
       <c r="P15" s="225"/>
       <c r="Q15" s="226"/>
-      <c r="R15" s="233"/>
+      <c r="R15" s="233" t="s">
+        <v>105</v>
+      </c>
       <c r="S15" s="234"/>
       <c r="T15" s="234"/>
       <c r="U15" s="234"/>
@@ -6668,7 +6793,9 @@
       <c r="O18" s="225"/>
       <c r="P18" s="225"/>
       <c r="Q18" s="226"/>
-      <c r="R18" s="233"/>
+      <c r="R18" s="233" t="s">
+        <v>109</v>
+      </c>
       <c r="S18" s="234"/>
       <c r="T18" s="234"/>
       <c r="U18" s="234"/>
